--- a/legendre_out/DATA/p1/p1IntegrandSplinePoints5.000000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandSplinePoints5.000000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>9.079511156898999e-08</v>
+        <v>4.7535937945772e-08</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.755890524555461</v>
       </c>
       <c r="C3" t="n">
-        <v>9.215010431581162e-08</v>
+        <v>4.938549012430493e-08</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.756807732038326</v>
       </c>
       <c r="C4" t="n">
-        <v>9.34293905870086e-08</v>
+        <v>5.108612337009554e-08</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.757724939521191</v>
       </c>
       <c r="C5" t="n">
-        <v>9.464250833477218e-08</v>
+        <v>5.265089548063806e-08</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.758642147004056</v>
       </c>
       <c r="C6" t="n">
-        <v>9.57989955112937e-08</v>
+        <v>5.409286425342674e-08</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.759559354486921</v>
       </c>
       <c r="C7" t="n">
-        <v>9.690839006876434e-08</v>
+        <v>5.542508748595575e-08</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.760476561969786</v>
       </c>
       <c r="C8" t="n">
-        <v>9.798022995937551e-08</v>
+        <v>5.66606229757194e-08</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.761393769452651</v>
       </c>
       <c r="C9" t="n">
-        <v>9.902405313531836e-08</v>
+        <v>5.781252852021185e-08</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.762310976935516</v>
       </c>
       <c r="C10" t="n">
-        <v>1.000493975487843e-07</v>
+        <v>5.889386191692738e-08</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.763228184418381</v>
       </c>
       <c r="C11" t="n">
-        <v>1.010658011519645e-07</v>
+        <v>5.99176809633602e-08</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.764145391901245</v>
       </c>
       <c r="C12" t="n">
-        <v>1.020828018970498e-07</v>
+        <v>6.089704345700407e-08</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.76506259938411</v>
       </c>
       <c r="C13" t="n">
-        <v>1.031099377362325e-07</v>
+        <v>6.184500719535415e-08</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.765979806866975</v>
       </c>
       <c r="C14" t="n">
-        <v>1.041567466217033e-07</v>
+        <v>6.277462997590424e-08</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.76689701434984</v>
       </c>
       <c r="C15" t="n">
-        <v>1.052327665056536e-07</v>
+        <v>6.369896959614853e-08</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.767814221832705</v>
       </c>
       <c r="C16" t="n">
-        <v>1.063475353402745e-07</v>
+        <v>6.463108385358124e-08</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.76873142931557</v>
       </c>
       <c r="C17" t="n">
-        <v>1.075105910777575e-07</v>
+        <v>6.558403054569665e-08</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.769648636798435</v>
       </c>
       <c r="C18" t="n">
-        <v>1.087314716702938e-07</v>
+        <v>6.657086746998892e-08</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.7705658442813</v>
       </c>
       <c r="C19" t="n">
-        <v>1.100197150700746e-07</v>
+        <v>6.760465242395234e-08</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.771483051764165</v>
       </c>
       <c r="C20" t="n">
-        <v>1.113848592292912e-07</v>
+        <v>6.869844320508112e-08</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.77240025924703</v>
       </c>
       <c r="C21" t="n">
-        <v>1.12836442100135e-07</v>
+        <v>6.986529761086946e-08</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.773317466729895</v>
       </c>
       <c r="C22" t="n">
-        <v>1.143840016347972e-07</v>
+        <v>7.111827343881166e-08</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.77423467421276</v>
       </c>
       <c r="C23" t="n">
-        <v>1.160370757854691e-07</v>
+        <v>7.24704284864019e-08</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.775151881695625</v>
       </c>
       <c r="C24" t="n">
-        <v>1.17805202504342e-07</v>
+        <v>7.393482055113442e-08</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.77606908917849</v>
       </c>
       <c r="C25" t="n">
-        <v>1.19697919743607e-07</v>
+        <v>7.552450743050343e-08</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.776986296661355</v>
       </c>
       <c r="C26" t="n">
-        <v>1.217247654554557e-07</v>
+        <v>7.72525469220032e-08</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.777903504144219</v>
       </c>
       <c r="C27" t="n">
-        <v>1.238952775920791e-07</v>
+        <v>7.913199682312794e-08</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.778820711627084</v>
       </c>
       <c r="C28" t="n">
-        <v>1.262189941056687e-07</v>
+        <v>8.117591493137189e-08</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.779737919109949</v>
       </c>
       <c r="C29" t="n">
-        <v>1.287054529484156e-07</v>
+        <v>8.339735904422926e-08</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.780655126592814</v>
       </c>
       <c r="C30" t="n">
-        <v>1.313641920725099e-07</v>
+        <v>8.580938695919307e-08</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.781572334075679</v>
       </c>
       <c r="C31" t="n">
-        <v>1.342047494301453e-07</v>
+        <v>8.842505647375992e-08</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.782489541558544</v>
       </c>
       <c r="C32" t="n">
-        <v>1.37236662973512e-07</v>
+        <v>9.125742538542285e-08</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.783406749041409</v>
       </c>
       <c r="C33" t="n">
-        <v>1.404694706548012e-07</v>
+        <v>9.431955149167613e-08</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.784323956524274</v>
       </c>
       <c r="C34" t="n">
-        <v>1.439127104262042e-07</v>
+        <v>9.762449259001402e-08</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.785241164007139</v>
       </c>
       <c r="C35" t="n">
-        <v>1.475759202399122e-07</v>
+        <v>1.011853064779307e-07</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.786158371490004</v>
       </c>
       <c r="C36" t="n">
-        <v>1.514686380481166e-07</v>
+        <v>1.050150509529204e-07</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.787075578972869</v>
       </c>
       <c r="C37" t="n">
-        <v>1.556004018030086e-07</v>
+        <v>1.091267838124774e-07</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.787992786455733</v>
       </c>
       <c r="C38" t="n">
-        <v>1.599807494567796e-07</v>
+        <v>1.135335628540959e-07</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>3.788909993938598</v>
       </c>
       <c r="C39" t="n">
-        <v>1.646192189616207e-07</v>
+        <v>1.182484458752701e-07</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>3.789827201421463</v>
       </c>
       <c r="C40" t="n">
-        <v>1.695253482697233e-07</v>
+        <v>1.232844906734943e-07</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>3.790744408904328</v>
       </c>
       <c r="C41" t="n">
-        <v>1.747086753332787e-07</v>
+        <v>1.286547550462627e-07</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>3.791661616387193</v>
       </c>
       <c r="C42" t="n">
-        <v>1.801787381044781e-07</v>
+        <v>1.343722967910694e-07</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>3.792578823870058</v>
       </c>
       <c r="C43" t="n">
-        <v>1.859450745355128e-07</v>
+        <v>1.404501737054089e-07</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>3.793496031352923</v>
       </c>
       <c r="C44" t="n">
-        <v>1.920172225785742e-07</v>
+        <v>1.469014435867752e-07</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>3.794413238835788</v>
       </c>
       <c r="C45" t="n">
-        <v>1.984047201858534e-07</v>
+        <v>1.537391642326626e-07</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>3.795330446318653</v>
       </c>
       <c r="C46" t="n">
-        <v>2.051171053095418e-07</v>
+        <v>1.609763934405654e-07</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>3.796247653801518</v>
       </c>
       <c r="C47" t="n">
-        <v>2.121639159018307e-07</v>
+        <v>1.686261890079778e-07</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>3.797164861284383</v>
       </c>
       <c r="C48" t="n">
-        <v>2.195546899149112e-07</v>
+        <v>1.767016087323939e-07</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>3.798082068767247</v>
       </c>
       <c r="C49" t="n">
-        <v>2.272991044517923e-07</v>
+        <v>1.852158210165372e-07</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>3.798999276250112</v>
       </c>
       <c r="C50" t="n">
-        <v>2.354407439347128e-07</v>
+        <v>1.9420894578896e-07</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>3.799916483732977</v>
       </c>
       <c r="C51" t="n">
-        <v>2.441011328039795e-07</v>
+        <v>2.037830542753798e-07</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>3.800833691215842</v>
       </c>
       <c r="C52" t="n">
-        <v>2.534127053072325e-07</v>
+        <v>2.140488894561914e-07</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>3.801750898698707</v>
       </c>
       <c r="C53" t="n">
-        <v>2.635078956921117e-07</v>
+        <v>2.251171943117895e-07</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>3.802668106181572</v>
       </c>
       <c r="C54" t="n">
-        <v>2.74519138206257e-07</v>
+        <v>2.370987118225689e-07</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>3.803585313664437</v>
       </c>
       <c r="C55" t="n">
-        <v>2.865788670973088e-07</v>
+        <v>2.501041849689246e-07</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>3.804502521147302</v>
       </c>
       <c r="C56" t="n">
-        <v>2.998195166129067e-07</v>
+        <v>2.642443567312511e-07</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>3.805419728630167</v>
       </c>
       <c r="C57" t="n">
-        <v>3.143735210006909e-07</v>
+        <v>2.796299700899433e-07</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>3.806336936113032</v>
       </c>
       <c r="C58" t="n">
-        <v>3.303733145083015e-07</v>
+        <v>2.963717680253961e-07</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>3.807254143595897</v>
       </c>
       <c r="C59" t="n">
-        <v>3.479513313833783e-07</v>
+        <v>3.145804935180042e-07</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>3.808171351078762</v>
       </c>
       <c r="C60" t="n">
-        <v>3.672400058735615e-07</v>
+        <v>3.343668895481624e-07</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>3.809088558561627</v>
       </c>
       <c r="C61" t="n">
-        <v>3.883717722264909e-07</v>
+        <v>3.558416990962655e-07</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>3.810005766044492</v>
       </c>
       <c r="C62" t="n">
-        <v>4.114790646898069e-07</v>
+        <v>3.791156651427084e-07</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>3.810922973527357</v>
       </c>
       <c r="C63" t="n">
-        <v>4.36694317511149e-07</v>
+        <v>4.042995306678856e-07</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>3.811840181010222</v>
       </c>
       <c r="C64" t="n">
-        <v>4.641499649381577e-07</v>
+        <v>4.315040386521923e-07</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>3.812757388493087</v>
       </c>
       <c r="C65" t="n">
-        <v>4.939784412184727e-07</v>
+        <v>4.60839932076023e-07</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>3.813674595975951</v>
       </c>
       <c r="C66" t="n">
-        <v>5.263121805997341e-07</v>
+        <v>4.924179539197726e-07</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>3.814591803458816</v>
       </c>
       <c r="C67" t="n">
-        <v>5.612836173295643e-07</v>
+        <v>5.263488471638187e-07</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>3.815509010941681</v>
       </c>
       <c r="C68" t="n">
-        <v>5.991170003036041e-07</v>
+        <v>5.628393543554396e-07</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>3.816426218424546</v>
       </c>
       <c r="C69" t="n">
-        <v>6.410204661544722e-07</v>
+        <v>6.031249514594113e-07</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>3.817343425907411</v>
       </c>
       <c r="C70" t="n">
-        <v>6.887994123359054e-07</v>
+        <v>6.49065598456879e-07</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>3.818260633390276</v>
       </c>
       <c r="C71" t="n">
-        <v>7.44267633595794e-07</v>
+        <v>7.025300353724698e-07</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>3.819177840873141</v>
       </c>
       <c r="C72" t="n">
-        <v>8.092389246820288e-07</v>
+        <v>7.653870022308113e-07</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>3.820095048356006</v>
       </c>
       <c r="C73" t="n">
-        <v>8.855270803424998e-07</v>
+        <v>8.395052390565303e-07</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>3.821012255838871</v>
       </c>
       <c r="C74" t="n">
-        <v>9.749458953250979e-07</v>
+        <v>9.267534858742543e-07</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>3.821929463321736</v>
       </c>
       <c r="C75" t="n">
-        <v>1.079309164377713e-06</v>
+        <v>1.02900048270861e-06</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>3.8228466708046</v>
       </c>
       <c r="C76" t="n">
-        <v>1.200430682248236e-06</v>
+        <v>1.148114969584226e-06</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>3.823763878287465</v>
       </c>
       <c r="C77" t="n">
-        <v>1.340124243684558e-06</v>
+        <v>1.285965686525728e-06</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>3.82468108577033</v>
       </c>
       <c r="C78" t="n">
-        <v>1.500203643434568e-06</v>
+        <v>1.444421373557744e-06</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>3.825598293253195</v>
       </c>
       <c r="C79" t="n">
-        <v>1.682482676246158e-06</v>
+        <v>1.625350770704902e-06</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>3.82651550073606</v>
       </c>
       <c r="C80" t="n">
-        <v>1.888775136867217e-06</v>
+        <v>1.830622617991827e-06</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>3.827432708218925</v>
       </c>
       <c r="C81" t="n">
-        <v>2.120894820045636e-06</v>
+        <v>2.062105655443148e-06</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>3.82834991570179</v>
       </c>
       <c r="C82" t="n">
-        <v>2.380227914426942e-06</v>
+        <v>2.321235688396805e-06</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>3.829267123184655</v>
       </c>
       <c r="C83" t="n">
-        <v>2.663323907119217e-06</v>
+        <v>2.604551548426468e-06</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>3.83018433066752</v>
       </c>
       <c r="C84" t="n">
-        <v>2.963674405038182e-06</v>
+        <v>2.905496081347674e-06</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>3.831101538150385</v>
       </c>
       <c r="C85" t="n">
-        <v>3.274722789321709e-06</v>
+        <v>3.217463306235869e-06</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>3.83201874563325</v>
       </c>
       <c r="C86" t="n">
-        <v>3.589912441107526e-06</v>
+        <v>3.533847242166349e-06</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>3.832935953116114</v>
       </c>
       <c r="C87" t="n">
-        <v>3.902686741533816e-06</v>
+        <v>3.84804190821487e-06</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>3.833853160598979</v>
       </c>
       <c r="C88" t="n">
-        <v>4.206489071738304e-06</v>
+        <v>4.153441323456727e-06</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>3.834770368081844</v>
       </c>
       <c r="C89" t="n">
-        <v>4.494762812858863e-06</v>
+        <v>4.443439506967365e-06</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>3.835687575564709</v>
       </c>
       <c r="C90" t="n">
-        <v>4.760951346033375e-06</v>
+        <v>4.711430477822233e-06</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>3.836604783047574</v>
       </c>
       <c r="C91" t="n">
-        <v>4.99849805239971e-06</v>
+        <v>4.950808255096778e-06</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>3.837521990530439</v>
       </c>
       <c r="C92" t="n">
-        <v>5.200846313095751e-06</v>
+        <v>5.154966857866448e-06</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>3.838439198013304</v>
       </c>
       <c r="C93" t="n">
-        <v>5.361439509259368e-06</v>
+        <v>5.317300305206688e-06</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>3.839356405496169</v>
       </c>
       <c r="C94" t="n">
-        <v>5.473721022028443e-06</v>
+        <v>5.431202616192948e-06</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>3.840273612979034</v>
       </c>
       <c r="C95" t="n">
-        <v>5.531134232540846e-06</v>
+        <v>5.490067809900673e-06</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>3.841190820461899</v>
       </c>
       <c r="C96" t="n">
-        <v>5.52773550288381e-06</v>
+        <v>5.487906335109528e-06</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>3.842108027944764</v>
       </c>
       <c r="C97" t="n">
-        <v>5.464906630401404e-06</v>
+        <v>5.426095290237175e-06</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>3.843025235427629</v>
       </c>
       <c r="C98" t="n">
-        <v>5.348852003424647e-06</v>
+        <v>5.310861497561034e-06</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>3.843942442910494</v>
       </c>
       <c r="C99" t="n">
-        <v>5.185860835849523e-06</v>
+        <v>5.148517082169279e-06</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>3.844859650393359</v>
       </c>
       <c r="C100" t="n">
-        <v>4.982222341572023e-06</v>
+        <v>4.945374169150094e-06</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>3.845776857876224</v>
       </c>
       <c r="C101" t="n">
-        <v>4.744225734488131e-06</v>
+        <v>4.707744883591659e-06</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>3.846694065359089</v>
       </c>
       <c r="C102" t="n">
-        <v>4.478160228493835e-06</v>
+        <v>4.441941350582155e-06</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>3.847611272841954</v>
       </c>
       <c r="C103" t="n">
-        <v>4.190315037485124e-06</v>
+        <v>4.154275695209761e-06</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>3.848528480324818</v>
       </c>
       <c r="C104" t="n">
-        <v>3.886979375358134e-06</v>
+        <v>3.851060042562808e-06</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>3.849445687807683</v>
       </c>
       <c r="C105" t="n">
-        <v>3.574442456008555e-06</v>
+        <v>3.538606517729179e-06</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>3.850362895290548</v>
       </c>
       <c r="C106" t="n">
-        <v>3.25899349333252e-06</v>
+        <v>3.2232272457972e-06</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>3.851280102773413</v>
       </c>
       <c r="C107" t="n">
-        <v>2.946921701226015e-06</v>
+        <v>2.911234351855051e-06</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>3.852197310256278</v>
       </c>
       <c r="C108" t="n">
-        <v>2.644516293585025e-06</v>
+        <v>2.60893996099091e-06</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>3.853114517739143</v>
       </c>
       <c r="C109" t="n">
-        <v>2.358066484305543e-06</v>
+        <v>2.322656198292962e-06</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>3.854031725222008</v>
       </c>
       <c r="C110" t="n">
-        <v>2.093861487283552e-06</v>
+        <v>2.058695188849384e-06</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>3.854948932704873</v>
       </c>
       <c r="C111" t="n">
-        <v>1.857735076161368e-06</v>
+        <v>1.822905156982738e-06</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>3.855866140187738</v>
       </c>
       <c r="C112" t="n">
-        <v>1.649124109675775e-06</v>
+        <v>1.6146185794541e-06</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>3.856783347670603</v>
       </c>
       <c r="C113" t="n">
-        <v>1.462746399629196e-06</v>
+        <v>1.428361222444644e-06</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>3.857700555153468</v>
       </c>
       <c r="C114" t="n">
-        <v>1.293209656460503e-06</v>
+        <v>1.258546705467714e-06</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>3.858617762636332</v>
       </c>
       <c r="C115" t="n">
-        <v>1.135850854913541e-06</v>
+        <v>1.100364672293275e-06</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>3.859534970119197</v>
       </c>
       <c r="C116" t="n">
-        <v>9.902162441894625e-07</v>
+        <v>9.534839370817576e-07</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>3.860452177602062</v>
       </c>
       <c r="C117" t="n">
-        <v>8.57359012403587e-07</v>
+        <v>8.191768768481946e-07</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>3.861369385084927</v>
       </c>
       <c r="C118" t="n">
-        <v>7.383342613583686e-07</v>
+        <v>6.987179049991254e-07</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>3.862286592567792</v>
       </c>
       <c r="C119" t="n">
-        <v>6.341864601430486e-07</v>
+        <v>5.933696406610889e-07</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>3.863203800050657</v>
       </c>
       <c r="C120" t="n">
-        <v>5.451407721601315e-07</v>
+        <v>5.034858925298093e-07</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>3.864121007533522</v>
       </c>
       <c r="C121" t="n">
-        <v>4.700354716910582e-07</v>
+        <v>4.27882069995342e-07</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>3.865038215016387</v>
       </c>
       <c r="C122" t="n">
-        <v>4.075747287729756e-07</v>
+        <v>3.652248280353135e-07</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>3.865955422499252</v>
       </c>
       <c r="C123" t="n">
-        <v>3.564627134430532e-07</v>
+        <v>3.141808216273721e-07</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>3.866872629982117</v>
       </c>
       <c r="C124" t="n">
-        <v>3.15403595738389e-07</v>
+        <v>2.734167057490953e-07</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>3.867789837464982</v>
       </c>
       <c r="C125" t="n">
-        <v>2.831015456961574e-07</v>
+        <v>2.415991353781368e-07</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>3.868707044947846</v>
       </c>
       <c r="C126" t="n">
-        <v>2.582607333535057e-07</v>
+        <v>2.173947654921227e-07</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>3.869624252430711</v>
       </c>
       <c r="C127" t="n">
-        <v>2.395853287475809e-07</v>
+        <v>1.994702510686797e-07</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>3.870541459913576</v>
       </c>
       <c r="C128" t="n">
-        <v>2.257795019155302e-07</v>
+        <v>1.864922470854338e-07</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>3.871458667396441</v>
       </c>
       <c r="C129" t="n">
-        <v>2.155474228945007e-07</v>
+        <v>1.771274085200114e-07</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>3.872375874879306</v>
       </c>
       <c r="C130" t="n">
-        <v>2.075932617216393e-07</v>
+        <v>1.700423903500388e-07</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>3.873293082362171</v>
       </c>
       <c r="C131" t="n">
-        <v>2.006211884340934e-07</v>
+        <v>1.639038475531423e-07</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>3.874210289845036</v>
       </c>
       <c r="C132" t="n">
-        <v>1.933353730690099e-07</v>
+        <v>1.573784351069482e-07</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>3.875127497327901</v>
       </c>
       <c r="C133" t="n">
-        <v>1.844404484746476e-07</v>
+        <v>1.491333041520643e-07</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>3.876044704810766</v>
       </c>
       <c r="C134" t="n">
-        <v>1.732814072356737e-07</v>
+        <v>1.385221122419033e-07</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>3.876961912293631</v>
       </c>
       <c r="C135" t="n">
-        <v>1.611144422247767e-07</v>
+        <v>1.26947445335714e-07</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>3.877879119776496</v>
       </c>
       <c r="C136" t="n">
-        <v>1.495507350765578e-07</v>
+        <v>1.161924599496848e-07</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>3.878796327259361</v>
       </c>
       <c r="C137" t="n">
-        <v>1.402014674256184e-07</v>
+        <v>1.080403126000044e-07</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>3.879713534742226</v>
       </c>
       <c r="C138" t="n">
-        <v>1.346273231985013e-07</v>
+        <v>1.042143655901159e-07</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>3.880630742225091</v>
       </c>
       <c r="C139" t="n">
-        <v>1.333307191049149e-07</v>
+        <v>1.051848895973644e-07</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>3.881547949707956</v>
       </c>
       <c r="C140" t="n">
-        <v>1.358101384038807e-07</v>
+        <v>1.102334001527548e-07</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>3.88246515719082</v>
       </c>
       <c r="C141" t="n">
-        <v>1.415244428639195e-07</v>
+        <v>1.185944970771853e-07</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>3.883382364673685</v>
       </c>
       <c r="C142" t="n">
-        <v>1.499324942535612e-07</v>
+        <v>1.295027801915672e-07</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>3.88429957215655</v>
       </c>
       <c r="C143" t="n">
-        <v>1.604931543413282e-07</v>
+        <v>1.421928493167999e-07</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>3.885216779639415</v>
       </c>
       <c r="C144" t="n">
-        <v>1.726652848957446e-07</v>
+        <v>1.558993042737864e-07</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>3.88613398712228</v>
       </c>
       <c r="C145" t="n">
-        <v>1.859077476853348e-07</v>
+        <v>1.698567448834295e-07</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>3.887051194605145</v>
       </c>
       <c r="C146" t="n">
-        <v>1.996794044786231e-07</v>
+        <v>1.832997709666322e-07</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>3.88796840208801</v>
       </c>
       <c r="C147" t="n">
-        <v>2.134392109765998e-07</v>
+        <v>1.95463130389779e-07</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>3.888885609570875</v>
       </c>
       <c r="C148" t="n">
-        <v>2.268521167785943e-07</v>
+        <v>2.059062347611269e-07</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>3.88980281705374</v>
       </c>
       <c r="C149" t="n">
-        <v>2.402258513500248e-07</v>
+        <v>2.152015709217774e-07</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>3.890720024536605</v>
       </c>
       <c r="C150" t="n">
-        <v>2.539931682687986e-07</v>
+        <v>2.241186742492806e-07</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>3.89163723201947</v>
       </c>
       <c r="C151" t="n">
-        <v>2.685868211128232e-07</v>
+        <v>2.334270801211864e-07</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>3.892554439502335</v>
       </c>
       <c r="C152" t="n">
-        <v>2.844395634600057e-07</v>
+        <v>2.43896323915045e-07</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>3.8934716469852</v>
       </c>
       <c r="C153" t="n">
-        <v>3.019841488882537e-07</v>
+        <v>2.562959410084065e-07</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>3.894388854468064</v>
       </c>
       <c r="C154" t="n">
-        <v>3.216533309754744e-07</v>
+        <v>2.713954667788206e-07</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>3.895306061950929</v>
       </c>
       <c r="C155" t="n">
-        <v>3.438798632995753e-07</v>
+        <v>2.899644366038375e-07</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>3.896223269433794</v>
       </c>
       <c r="C156" t="n">
-        <v>3.690964994384636e-07</v>
+        <v>3.127723858610074e-07</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>3.897140476916659</v>
       </c>
       <c r="C157" t="n">
-        <v>3.978200351226943e-07</v>
+        <v>3.40619859608845e-07</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>3.898057684399524</v>
       </c>
       <c r="C158" t="n">
-        <v>4.311259783136205e-07</v>
+        <v>3.74513555264919e-07</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>3.898974891882389</v>
       </c>
       <c r="C159" t="n">
-        <v>4.703177592905748e-07</v>
+        <v>4.15544268501575e-07</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>3.899892099365254</v>
       </c>
       <c r="C160" t="n">
-        <v>5.166994806701109e-07</v>
+        <v>4.648030430686055e-07</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>3.900809306848119</v>
       </c>
       <c r="C161" t="n">
-        <v>5.715752450687535e-07</v>
+        <v>5.233809227157729e-07</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>3.901726514330984</v>
       </c>
       <c r="C162" t="n">
-        <v>6.362491551031091e-07</v>
+        <v>5.923689511929266e-07</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>3.902643721813849</v>
       </c>
       <c r="C163" t="n">
-        <v>7.120253133897066e-07</v>
+        <v>6.728581722498333e-07</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>3.903560929296713</v>
       </c>
       <c r="C164" t="n">
-        <v>8.002078225451e-07</v>
+        <v>7.65939629636286e-07</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>3.904478136779578</v>
       </c>
       <c r="C165" t="n">
-        <v>9.021007851858424e-07</v>
+        <v>8.727043671020776e-07</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>3.905395344262443</v>
       </c>
       <c r="C166" t="n">
-        <v>1.019008303928489e-06</v>
+        <v>9.942434283970017e-07</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>3.906312551745308</v>
       </c>
       <c r="C167" t="n">
-        <v>1.152234481389591e-06</v>
+        <v>1.13164785727085e-06</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>3.907229759228173</v>
       </c>
       <c r="C168" t="n">
-        <v>1.303083420185704e-06</v>
+        <v>1.286008697473417e-06</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>3.908146966711038</v>
       </c>
       <c r="C169" t="n">
-        <v>1.472859222933381e-06</v>
+        <v>1.458416992754494e-06</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>3.909064174193903</v>
       </c>
       <c r="C170" t="n">
-        <v>1.662864887411105e-06</v>
+        <v>1.649962745601653e-06</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>3.909981381676768</v>
       </c>
       <c r="C171" t="n">
-        <v>1.872874723347983e-06</v>
+        <v>1.860295235957983e-06</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>3.910898589159633</v>
       </c>
       <c r="C172" t="n">
-        <v>2.098100559614081e-06</v>
+        <v>2.084763802365806e-06</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>3.911815796642498</v>
       </c>
       <c r="C173" t="n">
-        <v>2.332906784106609e-06</v>
+        <v>2.317919106806054e-06</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>3.912733004125363</v>
       </c>
       <c r="C174" t="n">
-        <v>2.571657784722777e-06</v>
+        <v>2.554311811259662e-06</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>3.913650211608228</v>
       </c>
       <c r="C175" t="n">
-        <v>2.808717949359796e-06</v>
+        <v>2.788492577707564e-06</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>3.914567419091093</v>
       </c>
       <c r="C176" t="n">
-        <v>3.038451665914878e-06</v>
+        <v>3.015012068130694e-06</v>
       </c>
     </row>
     <row r="177">
@@ -2311,7 +2311,7 @@
         <v>3.915484626573958</v>
       </c>
       <c r="C177" t="n">
-        <v>3.255223322285232e-06</v>
+        <v>3.228420944509986e-06</v>
       </c>
     </row>
     <row r="178">
@@ -2322,7 +2322,7 @@
         <v>3.916401834056822</v>
       </c>
       <c r="C178" t="n">
-        <v>3.453397306367979e-06</v>
+        <v>3.423269868826286e-06</v>
       </c>
     </row>
     <row r="179">
@@ -2333,7 +2333,7 @@
         <v>3.917319041539687</v>
       </c>
       <c r="C179" t="n">
-        <v>3.627338006060523e-06</v>
+        <v>3.594109503060719e-06</v>
       </c>
     </row>
     <row r="180">
@@ -2344,7 +2344,7 @@
         <v>3.918236249022552</v>
       </c>
       <c r="C180" t="n">
-        <v>3.771471739837157e-06</v>
+        <v>3.735550537343581e-06</v>
       </c>
     </row>
     <row r="181">
@@ -2355,7 +2355,7 @@
         <v>3.919153456505417</v>
       </c>
       <c r="C181" t="n">
-        <v>3.882921093417636e-06</v>
+        <v>3.844817103186892e-06</v>
       </c>
     </row>
     <row r="182">
@@ -2366,7 +2366,7 @@
         <v>3.920070663988282</v>
       </c>
       <c r="C182" t="n">
-        <v>3.962488029094099e-06</v>
+        <v>3.922699682956573e-06</v>
       </c>
     </row>
     <row r="183">
@@ -2377,7 +2377,7 @@
         <v>3.920987871471147</v>
       </c>
       <c r="C183" t="n">
-        <v>4.011239037701026e-06</v>
+        <v>3.970245161584113e-06</v>
       </c>
     </row>
     <row r="184">
@@ -2388,7 +2388,7 @@
         <v>3.921905078954012</v>
       </c>
       <c r="C184" t="n">
-        <v>4.030240610072894e-06</v>
+        <v>3.988500424001003e-06</v>
       </c>
     </row>
     <row r="185">
@@ -2399,7 +2399,7 @@
         <v>3.922822286436877</v>
       </c>
       <c r="C185" t="n">
-        <v>4.020559237044183e-06</v>
+        <v>3.978512355138726e-06</v>
       </c>
     </row>
     <row r="186">
@@ -2410,7 +2410,7 @@
         <v>3.923739493919742</v>
       </c>
       <c r="C186" t="n">
-        <v>3.983261409449369e-06</v>
+        <v>3.941327839928775e-06</v>
       </c>
     </row>
     <row r="187">
@@ -2421,7 +2421,7 @@
         <v>3.924656701402607</v>
       </c>
       <c r="C187" t="n">
-        <v>3.919413618122933e-06</v>
+        <v>3.877993763302636e-06</v>
       </c>
     </row>
     <row r="188">
@@ -2432,7 +2432,7 @@
         <v>3.925573908885472</v>
       </c>
       <c r="C188" t="n">
-        <v>3.830082353899349e-06</v>
+        <v>3.789557010191796e-06</v>
       </c>
     </row>
     <row r="189">
@@ -2443,7 +2443,7 @@
         <v>3.926491116368337</v>
       </c>
       <c r="C189" t="n">
-        <v>3.716335176955935e-06</v>
+        <v>3.677065509533202e-06</v>
       </c>
     </row>
     <row r="190">
@@ -2454,7 +2454,7 @@
         <v>3.927408323851202</v>
       </c>
       <c r="C190" t="n">
-        <v>3.579919188804172e-06</v>
+        <v>3.542230630307753e-06</v>
       </c>
     </row>
     <row r="191">
@@ -2465,7 +2465,7 @@
         <v>3.928325531334067</v>
       </c>
       <c r="C191" t="n">
-        <v>3.424424927522467e-06</v>
+        <v>3.388563499032079e-06</v>
       </c>
     </row>
     <row r="192">
@@ -2476,7 +2476,7 @@
         <v>3.929242738816932</v>
       </c>
       <c r="C192" t="n">
-        <v>3.253752517865946e-06</v>
+        <v>3.219877493444458e-06</v>
       </c>
     </row>
     <row r="193">
@@ -2487,7 +2487,7 @@
         <v>3.930159946299796</v>
       </c>
       <c r="C193" t="n">
-        <v>3.071802084589741e-06</v>
+        <v>3.039985991283172e-06</v>
       </c>
     </row>
     <row r="194">
@@ -2498,7 +2498,7 @@
         <v>3.931077153782661</v>
       </c>
       <c r="C194" t="n">
-        <v>2.882473752448983e-06</v>
+        <v>2.852702370286505e-06</v>
       </c>
     </row>
     <row r="195">
@@ -2509,7 +2509,7 @@
         <v>3.931994361265526</v>
       </c>
       <c r="C195" t="n">
-        <v>2.689667646198803e-06</v>
+        <v>2.661840008192736e-06</v>
       </c>
     </row>
     <row r="196">
@@ -2520,7 +2520,7 @@
         <v>3.932911568748391</v>
       </c>
       <c r="C196" t="n">
-        <v>2.49728389059433e-06</v>
+        <v>2.471212282740144e-06</v>
       </c>
     </row>
     <row r="197">
@@ -2531,7 +2531,7 @@
         <v>3.933828776231256</v>
       </c>
       <c r="C197" t="n">
-        <v>2.309222610390694e-06</v>
+        <v>2.284632571667016e-06</v>
       </c>
     </row>
     <row r="198">
@@ -2542,7 +2542,7 @@
         <v>3.934745983714121</v>
       </c>
       <c r="C198" t="n">
-        <v>2.129383930343112e-06</v>
+        <v>2.105914252711712e-06</v>
       </c>
     </row>
     <row r="199">
@@ -2553,7 +2553,7 @@
         <v>3.935663191196986</v>
       </c>
       <c r="C199" t="n">
-        <v>1.961166885851766e-06</v>
+        <v>1.93838690757915e-06</v>
       </c>
     </row>
     <row r="200">
@@ -2564,7 +2564,7 @@
         <v>3.936580398679851</v>
       </c>
       <c r="C200" t="n">
-        <v>1.805100620705643e-06</v>
+        <v>1.782609270491723e-06</v>
       </c>
     </row>
     <row r="201">
@@ -2575,7 +2575,7 @@
         <v>3.937497606162716</v>
       </c>
       <c r="C201" t="n">
-        <v>1.660694348284837e-06</v>
+        <v>1.638155344543017e-06</v>
       </c>
     </row>
     <row r="202">
@@ -2586,7 +2586,7 @@
         <v>3.938414813645581</v>
       </c>
       <c r="C202" t="n">
-        <v>1.527456058107388e-06</v>
+        <v>1.504597951201825e-06</v>
       </c>
     </row>
     <row r="203">
@@ -2597,7 +2597,7 @@
         <v>3.939332021128445</v>
       </c>
       <c r="C203" t="n">
-        <v>1.404893739691333e-06</v>
+        <v>1.381509911936937e-06</v>
       </c>
     </row>
     <row r="204">
@@ -2608,7 +2608,7 @@
         <v>3.94024922861131</v>
       </c>
       <c r="C204" t="n">
-        <v>1.292515382554715e-06</v>
+        <v>1.268464048217145e-06</v>
       </c>
     </row>
     <row r="205">
@@ -2619,7 +2619,7 @@
         <v>3.941166436094175</v>
       </c>
       <c r="C205" t="n">
-        <v>1.189828976215571e-06</v>
+        <v>1.165033181511241e-06</v>
       </c>
     </row>
     <row r="206">
@@ -2630,7 +2630,7 @@
         <v>3.94208364357704</v>
       </c>
       <c r="C206" t="n">
-        <v>1.096342510191941e-06</v>
+        <v>1.070790133288015e-06</v>
       </c>
     </row>
     <row r="207">
@@ -2641,7 +2641,7 @@
         <v>3.943000851059905</v>
       </c>
       <c r="C207" t="n">
-        <v>1.011563974001864e-06</v>
+        <v>9.853077250162589e-07</v>
       </c>
     </row>
     <row r="208">
@@ -2652,7 +2652,7 @@
         <v>3.94391805854277</v>
       </c>
       <c r="C208" t="n">
-        <v>9.35002516466316e-07</v>
+        <v>9.081588500777497e-07</v>
       </c>
     </row>
     <row r="209">
@@ -2663,7 +2663,7 @@
         <v>3.944835266025635</v>
       </c>
       <c r="C209" t="n">
-        <v>8.662024458906033e-07</v>
+        <v>8.389185828402841e-07</v>
       </c>
     </row>
     <row r="210">
@@ -2674,7 +2674,7 @@
         <v>3.9457524735085</v>
       </c>
       <c r="C210" t="n">
-        <v>8.047487186391982e-07</v>
+        <v>7.771645191207177e-07</v>
       </c>
     </row>
     <row r="211">
@@ -2685,7 +2685,7 @@
         <v>3.946669680991365</v>
       </c>
       <c r="C211" t="n">
-        <v>7.502285553401202e-07</v>
+        <v>7.224743951909588e-07</v>
       </c>
     </row>
     <row r="212">
@@ -2696,7 +2696,7 @@
         <v>3.94758688847423</v>
       </c>
       <c r="C212" t="n">
-        <v>7.02229176621387e-07</v>
+        <v>6.744259473229133e-07</v>
       </c>
     </row>
     <row r="213">
@@ -2707,7 +2707,7 @@
         <v>3.948504095957095</v>
       </c>
       <c r="C213" t="n">
-        <v>6.60337803111017e-07</v>
+        <v>6.325969117884888e-07</v>
       </c>
     </row>
     <row r="214">
@@ -2718,7 +2718,7 @@
         <v>3.94942130343996</v>
       </c>
       <c r="C214" t="n">
-        <v>6.241416554370287e-07</v>
+        <v>5.965650248595919e-07</v>
       </c>
     </row>
     <row r="215">
@@ -2729,7 +2729,7 @@
         <v>3.950338510922824</v>
       </c>
       <c r="C215" t="n">
-        <v>5.932279542274541e-07</v>
+        <v>5.659080228081437e-07</v>
       </c>
     </row>
     <row r="216">
@@ -2740,7 +2740,7 @@
         <v>3.951255718405689</v>
       </c>
       <c r="C216" t="n">
-        <v>5.671839201102818e-07</v>
+        <v>5.402036419060212e-07</v>
       </c>
     </row>
     <row r="217">
@@ -2751,7 +2751,7 @@
         <v>3.952172925888554</v>
       </c>
       <c r="C217" t="n">
-        <v>5.455967737135464e-07</v>
+        <v>5.190296184251478e-07</v>
       </c>
     </row>
     <row r="218">
@@ -2762,7 +2762,7 @@
         <v>3.953090133371419</v>
       </c>
       <c r="C218" t="n">
-        <v>5.280537356652664e-07</v>
+        <v>5.019636886374302e-07</v>
       </c>
     </row>
     <row r="219">
@@ -2773,7 +2773,7 @@
         <v>3.954007340854284</v>
       </c>
       <c r="C219" t="n">
-        <v>5.1414202659346e-07</v>
+        <v>4.885835888147758e-07</v>
       </c>
     </row>
     <row r="220">
@@ -2784,7 +2784,7 @@
         <v>3.954924548337149</v>
       </c>
       <c r="C220" t="n">
-        <v>5.034488671261454e-07</v>
+        <v>4.784670552290909e-07</v>
       </c>
     </row>
     <row r="221">
@@ -2795,7 +2795,7 @@
         <v>3.955841755820014</v>
       </c>
       <c r="C221" t="n">
-        <v>4.955614778913412e-07</v>
+        <v>4.711918241522834e-07</v>
       </c>
     </row>
     <row r="222">
@@ -2806,7 +2806,7 @@
         <v>3.956758963302879</v>
       </c>
       <c r="C222" t="n">
-        <v>4.90067079517066e-07</v>
+        <v>4.663356318562596e-07</v>
       </c>
     </row>
     <row r="223">
@@ -2817,7 +2817,7 @@
         <v>3.957676170785744</v>
       </c>
       <c r="C223" t="n">
-        <v>4.865528926313376e-07</v>
+        <v>4.634762146129269e-07</v>
       </c>
     </row>
     <row r="224">
@@ -2828,7 +2828,7 @@
         <v>3.958593378268609</v>
       </c>
       <c r="C224" t="n">
-        <v>4.846061378621746e-07</v>
+        <v>4.62191308694192e-07</v>
       </c>
     </row>
     <row r="225">
@@ -2839,7 +2839,7 @@
         <v>3.959510585751474</v>
       </c>
       <c r="C225" t="n">
-        <v>4.838140358375956e-07</v>
+        <v>4.620586503719619e-07</v>
       </c>
     </row>
     <row r="226">
@@ -2850,7 +2850,7 @@
         <v>3.960427793234339</v>
       </c>
       <c r="C226" t="n">
-        <v>4.837638071856187e-07</v>
+        <v>4.626559759181439e-07</v>
       </c>
     </row>
     <row r="227">
@@ -2861,7 +2861,7 @@
         <v>3.961345000717204</v>
       </c>
       <c r="C227" t="n">
-        <v>4.840426725342622e-07</v>
+        <v>4.635610216046446e-07</v>
       </c>
     </row>
     <row r="228">
@@ -2872,7 +2872,7 @@
         <v>3.962262208200069</v>
       </c>
       <c r="C228" t="n">
-        <v>4.842378525115448e-07</v>
+        <v>4.643515237033713e-07</v>
       </c>
     </row>
     <row r="229">
@@ -2883,7 +2883,7 @@
         <v>3.963179415682934</v>
       </c>
       <c r="C229" t="n">
-        <v>4.839365677454844e-07</v>
+        <v>4.646052184862308e-07</v>
       </c>
     </row>
     <row r="230">
@@ -2894,7 +2894,7 @@
         <v>3.964096623165799</v>
       </c>
       <c r="C230" t="n">
-        <v>4.827260388640998e-07</v>
+        <v>4.638998422251302e-07</v>
       </c>
     </row>
     <row r="231">
@@ -2905,7 +2905,7 @@
         <v>3.965013830648664</v>
       </c>
       <c r="C231" t="n">
-        <v>4.801934864954089e-07</v>
+        <v>4.618131311919764e-07</v>
       </c>
     </row>
     <row r="232">
@@ -2916,7 +2916,7 @@
         <v>3.965931038131528</v>
       </c>
       <c r="C232" t="n">
-        <v>4.759261312674306e-07</v>
+        <v>4.579228216586765e-07</v>
       </c>
     </row>
     <row r="233">
@@ -2927,7 +2927,7 @@
         <v>3.966848245614393</v>
       </c>
       <c r="C233" t="n">
-        <v>4.695111938081829e-07</v>
+        <v>4.518066498971374e-07</v>
       </c>
     </row>
     <row r="234">
@@ -2938,7 +2938,7 @@
         <v>3.967765453097258</v>
       </c>
       <c r="C234" t="n">
-        <v>4.605358947456841e-07</v>
+        <v>4.430423521792659e-07</v>
       </c>
     </row>
     <row r="235">
@@ -2949,7 +2949,7 @@
         <v>3.968682660580123</v>
       </c>
       <c r="C235" t="n">
-        <v>4.485874547079593e-07</v>
+        <v>4.312076647769759e-07</v>
       </c>
     </row>
     <row r="236">
@@ -2960,7 +2960,7 @@
         <v>3.969599868062988</v>
       </c>
       <c r="C236" t="n">
-        <v>4.33259348073525e-07</v>
+        <v>4.158867660395441e-07</v>
       </c>
     </row>
     <row r="237">
@@ -2971,7 +2971,7 @@
         <v>3.970517075545853</v>
       </c>
       <c r="C237" t="n">
-        <v>4.145567857689375e-07</v>
+        <v>3.970879699927629e-07</v>
       </c>
     </row>
     <row r="238">
@@ -2982,7 +2982,7 @@
         <v>3.971434283028718</v>
       </c>
       <c r="C238" t="n">
-        <v>3.931450998325454e-07</v>
+        <v>3.754995908121948e-07</v>
       </c>
     </row>
     <row r="239">
@@ -2993,7 +2993,7 @@
         <v>3.972351490511583</v>
       </c>
       <c r="C239" t="n">
-        <v>3.697490496340721e-07</v>
+        <v>3.518711596130115e-07</v>
       </c>
     </row>
     <row r="240">
@@ -3004,7 +3004,7 @@
         <v>3.973268697994448</v>
       </c>
       <c r="C240" t="n">
-        <v>3.450933945432416e-07</v>
+        <v>3.269522075103848e-07</v>
       </c>
     </row>
     <row r="241">
@@ -3015,7 +3015,7 @@
         <v>3.974185905477313</v>
       </c>
       <c r="C241" t="n">
-        <v>3.199028939297774e-07</v>
+        <v>3.014922656194863e-07</v>
       </c>
     </row>
     <row r="242">
@@ -3026,7 +3026,7 @@
         <v>3.975103112960177</v>
       </c>
       <c r="C242" t="n">
-        <v>2.949023071634031e-07</v>
+        <v>2.762408650554879e-07</v>
       </c>
     </row>
     <row r="243">
@@ -3037,7 +3037,7 @@
         <v>3.976020320443042</v>
       </c>
       <c r="C243" t="n">
-        <v>2.708163936138425e-07</v>
+        <v>2.519475369335612e-07</v>
       </c>
     </row>
     <row r="244">
@@ -3048,7 +3048,7 @@
         <v>3.976937527925907</v>
       </c>
       <c r="C244" t="n">
-        <v>2.483699126508189e-07</v>
+        <v>2.293618123688779e-07</v>
       </c>
     </row>
     <row r="245">
@@ -3059,7 +3059,7 @@
         <v>3.977854735408772</v>
       </c>
       <c r="C245" t="n">
-        <v>2.282876236440562e-07</v>
+        <v>2.092332224766098e-07</v>
       </c>
     </row>
     <row r="246">
@@ -3070,7 +3070,7 @@
         <v>3.978771942891637</v>
       </c>
       <c r="C246" t="n">
-        <v>2.11294285963278e-07</v>
+        <v>1.923112983719286e-07</v>
       </c>
     </row>
     <row r="247">
@@ -3081,7 +3081,7 @@
         <v>3.979689150374502</v>
       </c>
       <c r="C247" t="n">
-        <v>1.981146589782078e-07</v>
+        <v>1.79345571170006e-07</v>
       </c>
     </row>
     <row r="248">
@@ -3092,7 +3092,7 @@
         <v>3.980606357857367</v>
       </c>
       <c r="C248" t="n">
-        <v>1.894735020585695e-07</v>
+        <v>1.710855719860138e-07</v>
       </c>
     </row>
     <row r="249">
@@ -3103,7 +3103,7 @@
         <v>3.981523565340232</v>
       </c>
       <c r="C249" t="n">
-        <v>1.860955745740864e-07</v>
+        <v>1.682808319351236e-07</v>
       </c>
     </row>
     <row r="250">
@@ -3114,7 +3114,7 @@
         <v>3.982440772823097</v>
       </c>
       <c r="C250" t="n">
-        <v>1.886982518826043e-07</v>
+        <v>1.716732099801041e-07</v>
       </c>
     </row>
     <row r="251">
@@ -3125,7 +3125,7 @@
         <v>3.983357980305962</v>
       </c>
       <c r="C251" t="n">
-        <v>1.974524647244071e-07</v>
+        <v>1.814367969848923e-07</v>
       </c>
     </row>
     <row r="252">
@@ -3136,7 +3136,7 @@
         <v>3.984275187788826</v>
       </c>
       <c r="C252" t="n">
-        <v>2.116166497317984e-07</v>
+        <v>1.967975821609735e-07</v>
       </c>
     </row>
     <row r="253">
@@ -3147,7 +3147,7 @@
         <v>3.985192395271691</v>
       </c>
       <c r="C253" t="n">
-        <v>2.303625604525102e-07</v>
+        <v>2.168914890689949e-07</v>
       </c>
     </row>
     <row r="254">
@@ -3158,7 +3158,7 @@
         <v>3.986109602754556</v>
       </c>
       <c r="C254" t="n">
-        <v>2.528619504342546e-07</v>
+        <v>2.408544412695825e-07</v>
       </c>
     </row>
     <row r="255">
@@ -3169,7 +3169,7 @@
         <v>3.987026810237421</v>
       </c>
       <c r="C255" t="n">
-        <v>2.782865732247494e-07</v>
+        <v>2.678223623233681e-07</v>
       </c>
     </row>
     <row r="256">
@@ -3180,7 +3180,7 @@
         <v>3.987944017720286</v>
       </c>
       <c r="C256" t="n">
-        <v>3.058081823717129e-07</v>
+        <v>2.969311757909842e-07</v>
       </c>
     </row>
     <row r="257">
@@ -3191,7 +3191,7 @@
         <v>3.988861225203151</v>
       </c>
       <c r="C257" t="n">
-        <v>3.345985314228624e-07</v>
+        <v>3.273168052330626e-07</v>
       </c>
     </row>
     <row r="258">
@@ -3202,7 +3202,7 @@
         <v>3.989778432686016</v>
       </c>
       <c r="C258" t="n">
-        <v>3.638293739259162e-07</v>
+        <v>3.581151742102353e-07</v>
       </c>
     </row>
     <row r="259">
@@ -3213,7 +3213,7 @@
         <v>3.990695640168881</v>
       </c>
       <c r="C259" t="n">
-        <v>3.926724634285918e-07</v>
+        <v>3.884622062831345e-07</v>
       </c>
     </row>
     <row r="260">
@@ -3224,7 +3224,7 @@
         <v>3.991612847651746</v>
       </c>
       <c r="C260" t="n">
-        <v>4.202995534786074e-07</v>
+        <v>4.174938250123923e-07</v>
       </c>
     </row>
     <row r="261">
@@ -3235,7 +3235,7 @@
         <v>3.992530055134611</v>
       </c>
       <c r="C261" t="n">
-        <v>4.458823976236805e-07</v>
+        <v>4.443459539586405e-07</v>
       </c>
     </row>
     <row r="262">
@@ -3246,7 +3246,7 @@
         <v>3.993447262617476</v>
       </c>
       <c r="C262" t="n">
-        <v>4.685927494115292e-07</v>
+        <v>4.681545166825113e-07</v>
       </c>
     </row>
     <row r="263">
@@ -3257,7 +3257,7 @@
         <v>3.994364470100341</v>
       </c>
       <c r="C263" t="n">
-        <v>4.876023623898713e-07</v>
+        <v>4.880554367446369e-07</v>
       </c>
     </row>
     <row r="264">
@@ -3268,7 +3268,7 @@
         <v>3.995281677583206</v>
       </c>
       <c r="C264" t="n">
-        <v>5.02104232983631e-07</v>
+        <v>5.032068895956144e-07</v>
       </c>
     </row>
     <row r="265">
@@ -3279,7 +3279,7 @@
         <v>3.996198885066071</v>
       </c>
       <c r="C265" t="n">
-        <v>5.118363207976844e-07</v>
+        <v>5.133378990036996e-07</v>
       </c>
     </row>
     <row r="266">
@@ -3290,7 +3290,7 @@
         <v>3.997116092548936</v>
       </c>
       <c r="C266" t="n">
-        <v>5.171148408228613e-07</v>
+        <v>5.187832106031234e-07</v>
       </c>
     </row>
     <row r="267">
@@ -3301,7 +3301,7 @@
         <v>3.998033300031801</v>
       </c>
       <c r="C267" t="n">
-        <v>5.182839167085566e-07</v>
+        <v>5.199068043165527e-07</v>
       </c>
     </row>
     <row r="268">
@@ -3312,7 +3312,7 @@
         <v>3.998950507514666</v>
       </c>
       <c r="C268" t="n">
-        <v>5.156876721041647e-07</v>
+        <v>5.170726600666551e-07</v>
       </c>
     </row>
     <row r="269">
@@ -3323,7 +3323,7 @@
         <v>3.999867714997531</v>
       </c>
       <c r="C269" t="n">
-        <v>5.096702306590799e-07</v>
+        <v>5.106447577760969e-07</v>
       </c>
     </row>
     <row r="270">
@@ -3334,7 +3334,7 @@
         <v>4.000784922480396</v>
       </c>
       <c r="C270" t="n">
-        <v>5.005757160226973e-07</v>
+        <v>5.00987077367546e-07</v>
       </c>
     </row>
     <row r="271">
@@ -3345,7 +3345,7 @@
         <v>4.00170212996326</v>
       </c>
       <c r="C271" t="n">
-        <v>4.887482518444115e-07</v>
+        <v>4.884635987636691e-07</v>
       </c>
     </row>
     <row r="272">
@@ -3356,7 +3356,7 @@
         <v>4.002619337446125</v>
       </c>
       <c r="C272" t="n">
-        <v>4.745319617736167e-07</v>
+        <v>4.734383018871332e-07</v>
       </c>
     </row>
     <row r="273">
@@ -3367,7 +3367,7 @@
         <v>4.00353654492899</v>
       </c>
       <c r="C273" t="n">
-        <v>4.58270969459708e-07</v>
+        <v>4.562751666606058e-07</v>
       </c>
     </row>
     <row r="274">
@@ -3378,7 +3378,7 @@
         <v>4.004453752411855</v>
       </c>
       <c r="C274" t="n">
-        <v>4.403093985520797e-07</v>
+        <v>4.373381730067536e-07</v>
       </c>
     </row>
     <row r="275">
@@ -3389,7 +3389,7 @@
         <v>4.00537095989472</v>
       </c>
       <c r="C275" t="n">
-        <v>4.209913727001264e-07</v>
+        <v>4.16991300848244e-07</v>
       </c>
     </row>
     <row r="276">
@@ -3400,7 +3400,7 @@
         <v>4.006288167377585</v>
       </c>
       <c r="C276" t="n">
-        <v>4.006610155532428e-07</v>
+        <v>3.955985301077438e-07</v>
       </c>
     </row>
     <row r="277">
@@ -3411,7 +3411,7 @@
         <v>4.00720537486045</v>
       </c>
       <c r="C277" t="n">
-        <v>3.796624507608236e-07</v>
+        <v>3.735238407079205e-07</v>
       </c>
     </row>
     <row r="278">
@@ -3422,7 +3422,7 @@
         <v>4.008122582343315</v>
       </c>
       <c r="C278" t="n">
-        <v>3.583398019722634e-07</v>
+        <v>3.51131212571441e-07</v>
       </c>
     </row>
     <row r="279">
@@ -3433,7 +3433,7 @@
         <v>4.009039789826179</v>
       </c>
       <c r="C279" t="n">
-        <v>3.37037192836977e-07</v>
+        <v>3.287846256209937e-07</v>
       </c>
     </row>
     <row r="280">
@@ -3444,7 +3444,7 @@
         <v>4.009956997309045</v>
       </c>
       <c r="C280" t="n">
-        <v>3.160987470042979e-07</v>
+        <v>3.068480597791815e-07</v>
       </c>
     </row>
     <row r="281">
@@ -3455,7 +3455,7 @@
         <v>4.010874204791909</v>
       </c>
       <c r="C281" t="n">
-        <v>2.958685881237012e-07</v>
+        <v>2.856854949687558e-07</v>
       </c>
     </row>
     <row r="282">
@@ -3466,7 +3466,7 @@
         <v>4.011791412274774</v>
       </c>
       <c r="C282" t="n">
-        <v>2.766908398445215e-07</v>
+        <v>2.656609111123212e-07</v>
       </c>
     </row>
     <row r="283">
@@ -3477,7 +3477,7 @@
         <v>4.012708619757639</v>
       </c>
       <c r="C283" t="n">
-        <v>2.588862590338196e-07</v>
+        <v>2.471134566146097e-07</v>
       </c>
     </row>
     <row r="284">
@@ -3488,7 +3488,7 @@
         <v>4.013625827240504</v>
       </c>
       <c r="C284" t="n">
-        <v>2.425317983105654e-07</v>
+        <v>2.301231928793082e-07</v>
       </c>
     </row>
     <row r="285">
@@ -3499,7 +3499,7 @@
         <v>4.014543034723369</v>
       </c>
       <c r="C285" t="n">
-        <v>2.275593987349875e-07</v>
+        <v>2.146160797709985e-07</v>
       </c>
     </row>
     <row r="286">
@@ -3510,7 +3510,7 @@
         <v>4.015460242206234</v>
       </c>
       <c r="C286" t="n">
-        <v>2.138990808624776e-07</v>
+        <v>2.005160362634954e-07</v>
       </c>
     </row>
     <row r="287">
@@ -3521,7 +3521,7 @@
         <v>4.016377449689099</v>
       </c>
       <c r="C287" t="n">
-        <v>2.014808652484272e-07</v>
+        <v>1.87746981330614e-07</v>
       </c>
     </row>
     <row r="288">
@@ -3532,7 +3532,7 @@
         <v>4.017294657171964</v>
       </c>
       <c r="C288" t="n">
-        <v>1.902347724482277e-07</v>
+        <v>1.762328339461693e-07</v>
       </c>
     </row>
     <row r="289">
@@ -3543,7 +3543,7 @@
         <v>4.018211864654829</v>
       </c>
       <c r="C289" t="n">
-        <v>1.800908230172708e-07</v>
+        <v>1.658975130839764e-07</v>
       </c>
     </row>
     <row r="290">
@@ -3554,7 +3554,7 @@
         <v>4.019129072137694</v>
       </c>
       <c r="C290" t="n">
-        <v>1.709790375109477e-07</v>
+        <v>1.566649377178503e-07</v>
       </c>
     </row>
     <row r="291">
@@ -3565,7 +3565,7 @@
         <v>4.020046279620558</v>
       </c>
       <c r="C291" t="n">
-        <v>1.628294364846502e-07</v>
+        <v>1.484590268216059e-07</v>
       </c>
     </row>
     <row r="292">
@@ -3576,7 +3576,7 @@
         <v>4.020963487103423</v>
       </c>
       <c r="C292" t="n">
-        <v>1.555720404937696e-07</v>
+        <v>1.412036993690583e-07</v>
       </c>
     </row>
     <row r="293">
@@ -3587,7 +3587,7 @@
         <v>4.021880694586288</v>
       </c>
       <c r="C293" t="n">
-        <v>1.491368700936977e-07</v>
+        <v>1.348228743340226e-07</v>
       </c>
     </row>
     <row r="294">
@@ -3598,7 +3598,7 @@
         <v>4.022797902069153</v>
       </c>
       <c r="C294" t="n">
-        <v>1.434539458398257e-07</v>
+        <v>1.292404706903137e-07</v>
       </c>
     </row>
     <row r="295">
@@ -3609,7 +3609,7 @@
         <v>4.023715109552018</v>
       </c>
       <c r="C295" t="n">
-        <v>1.384532882875453e-07</v>
+        <v>1.243804074117467e-07</v>
       </c>
     </row>
     <row r="296">
@@ -3620,7 +3620,7 @@
         <v>4.024632317034883</v>
       </c>
       <c r="C296" t="n">
-        <v>1.34064917992248e-07</v>
+        <v>1.201666034721367e-07</v>
       </c>
     </row>
     <row r="297">
@@ -3631,7 +3631,7 @@
         <v>4.025549524517748</v>
       </c>
       <c r="C297" t="n">
-        <v>1.302188555093252e-07</v>
+        <v>1.165229778452984e-07</v>
       </c>
     </row>
     <row r="298">
@@ -3642,7 +3642,7 @@
         <v>4.026466732000613</v>
       </c>
       <c r="C298" t="n">
-        <v>1.268451213941685e-07</v>
+        <v>1.133734495050472e-07</v>
       </c>
     </row>
     <row r="299">
@@ -3653,7 +3653,7 @@
         <v>4.027383939483478</v>
       </c>
       <c r="C299" t="n">
-        <v>1.238737362021694e-07</v>
+        <v>1.106419374251979e-07</v>
       </c>
     </row>
     <row r="300">
@@ -3664,7 +3664,7 @@
         <v>4.028301146966343</v>
       </c>
       <c r="C300" t="n">
-        <v>1.212347204887194e-07</v>
+        <v>1.082523605795656e-07</v>
       </c>
     </row>
     <row r="301">
@@ -3675,7 +3675,7 @@
         <v>4.029218354449208</v>
       </c>
       <c r="C301" t="n">
-        <v>1.188581765596956e-07</v>
+        <v>1.061287267573011e-07</v>
       </c>
     </row>
     <row r="302">
@@ -3686,7 +3686,7 @@
         <v>4.030135561932073</v>
       </c>
       <c r="C302" t="n">
-        <v>1.16692225726173e-07</v>
+        <v>1.042146199492724e-07</v>
       </c>
     </row>
     <row r="303">
@@ -3697,7 +3697,7 @@
         <v>4.031052769414938</v>
       </c>
       <c r="C303" t="n">
-        <v>1.147255352702885e-07</v>
+        <v>1.024976740869309e-07</v>
       </c>
     </row>
     <row r="304">
@@ -3708,7 +3708,7 @@
         <v>4.031969976897803</v>
       </c>
       <c r="C304" t="n">
-        <v>1.129523121951847e-07</v>
+        <v>1.009715415636063e-07</v>
       </c>
     </row>
     <row r="305">
@@ -3719,7 +3719,7 @@
         <v>4.032887184380668</v>
       </c>
       <c r="C305" t="n">
-        <v>1.113667635040043e-07</v>
+        <v>9.962987477262814e-08</v>
       </c>
     </row>
     <row r="306">
@@ -3730,7 +3730,7 @@
         <v>4.033804391863533</v>
       </c>
       <c r="C306" t="n">
-        <v>1.099630961998903e-07</v>
+        <v>9.846632610732618e-08</v>
       </c>
     </row>
     <row r="307">
@@ -3741,7 +3741,7 @@
         <v>4.034721599346398</v>
       </c>
       <c r="C307" t="n">
-        <v>1.087355172859852e-07</v>
+        <v>9.747454796103012e-08</v>
       </c>
     </row>
     <row r="308">
@@ -3752,7 +3752,7 @@
         <v>4.035638806829263</v>
       </c>
       <c r="C308" t="n">
-        <v>1.07678233765432e-07</v>
+        <v>9.66481927270696e-08</v>
       </c>
     </row>
     <row r="309">
@@ -3763,7 +3763,7 @@
         <v>4.036556014312128</v>
       </c>
       <c r="C309" t="n">
-        <v>1.067854526413732e-07</v>
+        <v>9.598091279877432e-08</v>
       </c>
     </row>
     <row r="310">
@@ -3774,7 +3774,7 @@
         <v>4.037473221794992</v>
       </c>
       <c r="C310" t="n">
-        <v>1.060513809169518e-07</v>
+        <v>9.546636056947395e-08</v>
       </c>
     </row>
     <row r="311">
@@ -3785,7 +3785,7 @@
         <v>4.038390429277857</v>
       </c>
       <c r="C311" t="n">
-        <v>1.054702255953103e-07</v>
+        <v>9.509818843249815e-08</v>
       </c>
     </row>
     <row r="312">
@@ -3796,7 +3796,7 @@
         <v>4.039307636760722</v>
       </c>
       <c r="C312" t="n">
-        <v>1.050361936795916e-07</v>
+        <v>9.487004878117662e-08</v>
       </c>
     </row>
     <row r="313">
@@ -3807,7 +3807,7 @@
         <v>4.040224844243587</v>
       </c>
       <c r="C313" t="n">
-        <v>1.047434921729385e-07</v>
+        <v>9.477559400883901e-08</v>
       </c>
     </row>
     <row r="314">
@@ -3818,7 +3818,7 @@
         <v>4.041142051726452</v>
       </c>
       <c r="C314" t="n">
-        <v>1.045863280784936e-07</v>
+        <v>9.480847650881501e-08</v>
       </c>
     </row>
     <row r="315">
@@ -3829,7 +3829,7 @@
         <v>4.042059259209317</v>
       </c>
       <c r="C315" t="n">
-        <v>1.045589083993998e-07</v>
+        <v>9.496234867443432e-08</v>
       </c>
     </row>
     <row r="316">
@@ -3840,7 +3840,7 @@
         <v>4.042976466692181</v>
       </c>
       <c r="C316" t="n">
-        <v>1.046554401387996e-07</v>
+        <v>9.523086289902628e-08</v>
       </c>
     </row>
     <row r="317">
@@ -3851,7 +3851,7 @@
         <v>4.043893674175047</v>
       </c>
       <c r="C317" t="n">
-        <v>1.048701302998363e-07</v>
+        <v>9.56076715759215e-08</v>
       </c>
     </row>
     <row r="318">
@@ -3862,7 +3862,7 @@
         <v>4.044810881657911</v>
       </c>
       <c r="C318" t="n">
-        <v>1.051971858856517e-07</v>
+        <v>9.608642709844824e-08</v>
       </c>
     </row>
     <row r="319">
@@ -3873,7 +3873,7 @@
         <v>4.045728089140776</v>
       </c>
       <c r="C319" t="n">
-        <v>1.056308138993894e-07</v>
+        <v>9.666078185993737e-08</v>
       </c>
     </row>
     <row r="320">
@@ -3884,7 +3884,7 @@
         <v>4.046645296623641</v>
       </c>
       <c r="C320" t="n">
-        <v>1.061652213441919e-07</v>
+        <v>9.732438825371818e-08</v>
       </c>
     </row>
     <row r="321">
@@ -3895,7 +3895,7 @@
         <v>4.047562504106506</v>
       </c>
       <c r="C321" t="n">
-        <v>1.06794615223202e-07</v>
+        <v>9.807089867312035e-08</v>
       </c>
     </row>
     <row r="322">
@@ -3906,7 +3906,7 @@
         <v>4.048479711589371</v>
       </c>
       <c r="C322" t="n">
-        <v>1.075132025395624e-07</v>
+        <v>9.889396551147358e-08</v>
       </c>
     </row>
     <row r="323">
@@ -3917,7 +3917,7 @@
         <v>4.049396919072236</v>
       </c>
       <c r="C323" t="n">
-        <v>1.083151902964158e-07</v>
+        <v>9.97872411621075e-08</v>
       </c>
     </row>
     <row r="324">
@@ -3928,7 +3928,7 @@
         <v>4.050314126555101</v>
       </c>
       <c r="C324" t="n">
-        <v>1.091947854969051e-07</v>
+        <v>1.007443780183518e-07</v>
       </c>
     </row>
     <row r="325">
@@ -3939,7 +3939,7 @@
         <v>4.051231334037966</v>
       </c>
       <c r="C325" t="n">
-        <v>1.101461951441729e-07</v>
+        <v>1.017590284735362e-07</v>
       </c>
     </row>
     <row r="326">
@@ -3950,7 +3950,7 @@
         <v>4.052148541520831</v>
       </c>
       <c r="C326" t="n">
-        <v>1.11163626241362e-07</v>
+        <v>1.028248449209903e-07</v>
       </c>
     </row>
     <row r="327">
@@ -3961,7 +3961,7 @@
         <v>4.053065749003696</v>
       </c>
       <c r="C327" t="n">
-        <v>1.122412857916151e-07</v>
+        <v>1.039354797540439e-07</v>
       </c>
     </row>
     <row r="328">
@@ -3972,7 +3972,7 @@
         <v>4.053982956486561</v>
       </c>
       <c r="C328" t="n">
-        <v>1.133733807980752e-07</v>
+        <v>1.050845853660265e-07</v>
       </c>
     </row>
     <row r="329">
@@ -3983,7 +3983,7 @@
         <v>4.054900163969426</v>
       </c>
       <c r="C329" t="n">
-        <v>1.145541182638847e-07</v>
+        <v>1.062658141502679e-07</v>
       </c>
     </row>
     <row r="330">
@@ -3994,7 +3994,7 @@
         <v>4.05581737145229</v>
       </c>
       <c r="C330" t="n">
-        <v>1.157777051921866e-07</v>
+        <v>1.074728185000978e-07</v>
       </c>
     </row>
     <row r="331">
@@ -4005,7 +4005,7 @@
         <v>4.056734578935155</v>
       </c>
       <c r="C331" t="n">
-        <v>1.170383485861236e-07</v>
+        <v>1.086992508088458e-07</v>
       </c>
     </row>
     <row r="332">
@@ -4016,7 +4016,7 @@
         <v>4.05765178641802</v>
       </c>
       <c r="C332" t="n">
-        <v>1.183302554488383e-07</v>
+        <v>1.099387634698416e-07</v>
       </c>
     </row>
     <row r="333">
@@ -4027,7 +4027,7 @@
         <v>4.058568993900885</v>
       </c>
       <c r="C333" t="n">
-        <v>1.196476327834737e-07</v>
+        <v>1.111850088764149e-07</v>
       </c>
     </row>
     <row r="334">
@@ -4038,7 +4038,7 @@
         <v>4.05948620138375</v>
       </c>
       <c r="C334" t="n">
-        <v>1.209846875931724e-07</v>
+        <v>1.124316394218953e-07</v>
       </c>
     </row>
     <row r="335">
@@ -4049,7 +4049,7 @@
         <v>4.060403408866615</v>
       </c>
       <c r="C335" t="n">
-        <v>1.223356268810771e-07</v>
+        <v>1.136723074996126e-07</v>
       </c>
     </row>
     <row r="336">
@@ -4060,7 +4060,7 @@
         <v>4.06132061634948</v>
       </c>
       <c r="C336" t="n">
-        <v>1.236946576503307e-07</v>
+        <v>1.149006655028964e-07</v>
       </c>
     </row>
     <row r="337">
@@ -4071,7 +4071,7 @@
         <v>4.062237823832345</v>
       </c>
       <c r="C337" t="n">
-        <v>1.250559869040759e-07</v>
+        <v>1.161103658250763e-07</v>
       </c>
     </row>
     <row r="338">
@@ -4082,7 +4082,7 @@
         <v>4.06315503131521</v>
       </c>
       <c r="C338" t="n">
-        <v>1.264138216454554e-07</v>
+        <v>1.172950608594822e-07</v>
       </c>
     </row>
     <row r="339">
@@ -4093,7 +4093,7 @@
         <v>4.064072238798075</v>
       </c>
       <c r="C339" t="n">
-        <v>1.277696136249457e-07</v>
+        <v>1.184560723408096e-07</v>
       </c>
     </row>
     <row r="340">
@@ -4104,7 +4104,7 @@
         <v>4.06498944628094</v>
       </c>
       <c r="C340" t="n">
-        <v>1.291923076365115e-07</v>
+        <v>1.19666170622527e-07</v>
       </c>
     </row>
     <row r="341">
@@ -4115,7 +4115,7 @@
         <v>4.065906653763805</v>
       </c>
       <c r="C341" t="n">
-        <v>1.307875751051166e-07</v>
+        <v>1.210370051324699e-07</v>
       </c>
     </row>
     <row r="342">
@@ -4126,7 +4126,7 @@
         <v>4.06682386124667</v>
       </c>
       <c r="C342" t="n">
-        <v>1.326614551450731e-07</v>
+        <v>1.226806145370486e-07</v>
       </c>
     </row>
     <row r="343">
@@ -4137,7 +4137,7 @@
         <v>4.067741068729535</v>
       </c>
       <c r="C343" t="n">
-        <v>1.349199868706925e-07</v>
+        <v>1.247090375026734e-07</v>
       </c>
     </row>
     <row r="344">
@@ -4148,7 +4148,7 @@
         <v>4.0686582762124</v>
       </c>
       <c r="C344" t="n">
-        <v>1.376692093962868e-07</v>
+        <v>1.272343126957546e-07</v>
       </c>
     </row>
     <row r="345">
@@ -4159,7 +4159,7 @@
         <v>4.069575483695265</v>
       </c>
       <c r="C345" t="n">
-        <v>1.410151618361679e-07</v>
+        <v>1.303684787827025e-07</v>
       </c>
     </row>
     <row r="346">
@@ -4170,7 +4170,7 @@
         <v>4.07049269117813</v>
       </c>
       <c r="C346" t="n">
-        <v>1.450638833046476e-07</v>
+        <v>1.342235744299274e-07</v>
       </c>
     </row>
     <row r="347">
@@ -4181,7 +4181,7 @@
         <v>4.071409898660995</v>
       </c>
       <c r="C347" t="n">
-        <v>1.499214129160377e-07</v>
+        <v>1.389116383038396e-07</v>
       </c>
     </row>
     <row r="348">
@@ -4192,7 +4192,7 @@
         <v>4.07232710614386</v>
       </c>
       <c r="C348" t="n">
-        <v>1.556937897846502e-07</v>
+        <v>1.445447090708495e-07</v>
       </c>
     </row>
     <row r="349">
@@ -4203,7 +4203,7 @@
         <v>4.073244313626724</v>
       </c>
       <c r="C349" t="n">
-        <v>1.624870530247967e-07</v>
+        <v>1.512348253973673e-07</v>
       </c>
     </row>
     <row r="350">
@@ -4214,7 +4214,7 @@
         <v>4.074161521109589</v>
       </c>
       <c r="C350" t="n">
-        <v>1.704072417507892e-07</v>
+        <v>1.590940259498032e-07</v>
       </c>
     </row>
     <row r="351">
@@ -4225,7 +4225,7 @@
         <v>4.075078728592454</v>
       </c>
       <c r="C351" t="n">
-        <v>1.795603950769396e-07</v>
+        <v>1.682343493945677e-07</v>
       </c>
     </row>
     <row r="352">
@@ -4236,7 +4236,7 @@
         <v>4.075995936075319</v>
       </c>
       <c r="C352" t="n">
-        <v>1.900525521175596e-07</v>
+        <v>1.787678343980711e-07</v>
       </c>
     </row>
     <row r="353">
@@ -4247,7 +4247,7 @@
         <v>4.076913143558183</v>
       </c>
       <c r="C353" t="n">
-        <v>2.019897519869489e-07</v>
+        <v>1.908065196267111e-07</v>
       </c>
     </row>
     <row r="354">
@@ -4258,7 +4258,7 @@
         <v>4.077830351041049</v>
       </c>
       <c r="C354" t="n">
-        <v>2.154780337994561e-07</v>
+        <v>2.044624437469354e-07</v>
       </c>
     </row>
     <row r="355">
@@ -4269,7 +4269,7 @@
         <v>4.078747558523913</v>
       </c>
       <c r="C355" t="n">
-        <v>2.306234366693408e-07</v>
+        <v>2.198476454251013e-07</v>
       </c>
     </row>
     <row r="356">
@@ -4280,7 +4280,7 @@
         <v>4.079664766006778</v>
       </c>
       <c r="C356" t="n">
-        <v>2.475319997109562e-07</v>
+        <v>2.37074163327661e-07</v>
       </c>
     </row>
     <row r="357">
@@ -4291,7 +4291,7 @@
         <v>4.080581973489643</v>
       </c>
       <c r="C357" t="n">
-        <v>2.663097620386005e-07</v>
+        <v>2.562540361210111e-07</v>
       </c>
     </row>
     <row r="358">
@@ -4302,7 +4302,7 @@
         <v>4.081499180972508</v>
       </c>
       <c r="C358" t="n">
-        <v>2.870627627665854e-07</v>
+        <v>2.774993024715616e-07</v>
       </c>
     </row>
     <row r="359">
@@ -4313,7 +4313,7 @@
         <v>4.082416388455373</v>
       </c>
       <c r="C359" t="n">
-        <v>3.098970410092229e-07</v>
+        <v>3.009220010457231e-07</v>
       </c>
     </row>
     <row r="360">
@@ -4324,7 +4324,7 @@
         <v>4.083333595938238</v>
       </c>
       <c r="C360" t="n">
-        <v>3.349186358808246e-07</v>
+        <v>3.266341705099056e-07</v>
       </c>
     </row>
     <row r="361">
@@ -4335,7 +4335,7 @@
         <v>4.084250803421103</v>
       </c>
       <c r="C361" t="n">
-        <v>3.622335864957025e-07</v>
+        <v>3.547478495305195e-07</v>
       </c>
     </row>
     <row r="362">
@@ -4346,7 +4346,7 @@
         <v>4.085168010903968</v>
       </c>
       <c r="C362" t="n">
-        <v>3.919471152062447e-07</v>
+        <v>3.853742190744564e-07</v>
       </c>
     </row>
     <row r="363">
@@ -4357,7 +4357,7 @@
         <v>4.086085218386833</v>
       </c>
       <c r="C363" t="n">
-        <v>4.239511179065775e-07</v>
+        <v>4.184004413397732e-07</v>
       </c>
     </row>
     <row r="364">
@@ -4368,7 +4368,7 @@
         <v>4.087002425869698</v>
       </c>
       <c r="C364" t="n">
-        <v>4.576401023451966e-07</v>
+        <v>4.531913603792529e-07</v>
       </c>
     </row>
     <row r="365">
@@ -4379,7 +4379,7 @@
         <v>4.087919633352563</v>
       </c>
       <c r="C365" t="n">
-        <v>4.923378249631114e-07</v>
+        <v>4.89037522753817e-07</v>
       </c>
     </row>
     <row r="366">
@@ -4390,7 +4390,7 @@
         <v>4.088836840835428</v>
       </c>
       <c r="C366" t="n">
-        <v>5.273680422013315e-07</v>
+        <v>5.252294750243876e-07</v>
       </c>
     </row>
     <row r="367">
@@ -4401,7 +4401,7 @@
         <v>4.089754048318293</v>
       </c>
       <c r="C367" t="n">
-        <v>5.620545105008666e-07</v>
+        <v>5.610577637518866e-07</v>
       </c>
     </row>
     <row r="368">
@@ -4412,7 +4412,7 @@
         <v>4.090671255801158</v>
       </c>
       <c r="C368" t="n">
-        <v>5.957209863027258e-07</v>
+        <v>5.958129354972353e-07</v>
       </c>
     </row>
     <row r="369">
@@ -4423,7 +4423,7 @@
         <v>4.091588463284022</v>
       </c>
       <c r="C369" t="n">
-        <v>6.276912260479192e-07</v>
+        <v>6.28785536821356e-07</v>
       </c>
     </row>
     <row r="370">
@@ -4434,7 +4434,7 @@
         <v>4.092505670766887</v>
       </c>
       <c r="C370" t="n">
-        <v>6.572889861774559e-07</v>
+        <v>6.592661142851703e-07</v>
       </c>
     </row>
     <row r="371">
@@ -4445,7 +4445,7 @@
         <v>4.093422878249752</v>
       </c>
       <c r="C371" t="n">
-        <v>6.838380231323459e-07</v>
+        <v>6.865452144496e-07</v>
       </c>
     </row>
     <row r="372">
@@ -4456,7 +4456,7 @@
         <v>4.094340085732617</v>
       </c>
       <c r="C372" t="n">
-        <v>7.066620933535983e-07</v>
+        <v>7.09913383875567e-07</v>
       </c>
     </row>
     <row r="373">
@@ -4467,7 +4467,7 @@
         <v>4.095257293215482</v>
       </c>
       <c r="C373" t="n">
-        <v>7.250849532822227e-07</v>
+        <v>7.286611691239929e-07</v>
       </c>
     </row>
     <row r="374">
@@ -4478,7 +4478,7 @@
         <v>4.096174500698347</v>
       </c>
       <c r="C374" t="n">
-        <v>7.384303593592288e-07</v>
+        <v>7.420791167557997e-07</v>
       </c>
     </row>
     <row r="375">
@@ -4489,7 +4489,7 @@
         <v>4.097091708181212</v>
       </c>
       <c r="C375" t="n">
-        <v>7.460220680256262e-07</v>
+        <v>7.49457773331909e-07</v>
       </c>
     </row>
     <row r="376">
@@ -4500,7 +4500,7 @@
         <v>4.098008915664077</v>
       </c>
       <c r="C376" t="n">
-        <v>7.471961877406409e-07</v>
+        <v>7.501007983381429e-07</v>
       </c>
     </row>
     <row r="377">
@@ -4511,7 +4511,7 @@
         <v>4.098926123146942</v>
       </c>
       <c r="C377" t="n">
-        <v>7.419217629936508e-07</v>
+        <v>7.439837772957486e-07</v>
       </c>
     </row>
     <row r="378">
@@ -4522,7 +4522,7 @@
         <v>4.099843330629807</v>
       </c>
       <c r="C378" t="n">
-        <v>7.310912758126504e-07</v>
+        <v>7.320626186886875e-07</v>
       </c>
     </row>
     <row r="379">
@@ -4533,7 +4533,7 @@
         <v>4.100760538112672</v>
       </c>
       <c r="C379" t="n">
-        <v>7.156702718356959e-07</v>
+        <v>7.153707954616309e-07</v>
       </c>
     </row>
     <row r="380">
@@ -4544,7 +4544,7 @@
         <v>4.101677745595537</v>
       </c>
       <c r="C380" t="n">
-        <v>6.966242967008436e-07</v>
+        <v>6.949417805592502e-07</v>
       </c>
     </row>
     <row r="381">
@@ -4555,7 +4555,7 @@
         <v>4.102594953078402</v>
       </c>
       <c r="C381" t="n">
-        <v>6.749188960461501e-07</v>
+        <v>6.718090469262167e-07</v>
       </c>
     </row>
     <row r="382">
@@ -4566,7 +4566,7 @@
         <v>4.103512160561267</v>
       </c>
       <c r="C382" t="n">
-        <v>6.515196155096713e-07</v>
+        <v>6.470060675072018e-07</v>
       </c>
     </row>
     <row r="383">
@@ -4577,7 +4577,7 @@
         <v>4.104429368044132</v>
       </c>
       <c r="C383" t="n">
-        <v>6.273920007294639e-07</v>
+        <v>6.215663152468768e-07</v>
       </c>
     </row>
     <row r="384">
@@ -4588,7 +4588,7 @@
         <v>4.105346575526997</v>
       </c>
       <c r="C384" t="n">
-        <v>6.035015973435842e-07</v>
+        <v>5.965232630899131e-07</v>
       </c>
     </row>
     <row r="385">
@@ -4599,7 +4599,7 @@
         <v>4.106263783009862</v>
       </c>
       <c r="C385" t="n">
-        <v>5.808139509900883e-07</v>
+        <v>5.72910383980982e-07</v>
       </c>
     </row>
     <row r="386">
@@ -4610,7 +4610,7 @@
         <v>4.107180990492727</v>
       </c>
       <c r="C386" t="n">
-        <v>5.601887570109196e-07</v>
+        <v>5.516464529818749e-07</v>
       </c>
     </row>
     <row r="387">
@@ -4621,7 +4621,7 @@
         <v>4.108098197975592</v>
       </c>
       <c r="C387" t="n">
-        <v>5.41765012655395e-07</v>
+        <v>5.328693069004955e-07</v>
       </c>
     </row>
     <row r="388">
@@ -4632,7 +4632,7 @@
         <v>4.109015405458456</v>
       </c>
       <c r="C388" t="n">
-        <v>5.253813190046952e-07</v>
+        <v>5.163912775081475e-07</v>
       </c>
     </row>
     <row r="389">
@@ -4643,7 +4643,7 @@
         <v>4.109932612941321</v>
       </c>
       <c r="C389" t="n">
-        <v>5.10875282659914e-07</v>
+        <v>5.020236189715857e-07</v>
       </c>
     </row>
     <row r="390">
@@ -4654,7 +4654,7 @@
         <v>4.110849820424186</v>
       </c>
       <c r="C390" t="n">
-        <v>4.980845102221451e-07</v>
+        <v>4.895775854575649e-07</v>
       </c>
     </row>
     <row r="391">
@@ -4665,7 +4665,7 @@
         <v>4.111767027907051</v>
       </c>
       <c r="C391" t="n">
-        <v>4.868466082924822e-07</v>
+        <v>4.788644311328398e-07</v>
       </c>
     </row>
     <row r="392">
@@ -4676,7 +4676,7 @@
         <v>4.112684235389915</v>
       </c>
       <c r="C392" t="n">
-        <v>4.769991834720281e-07</v>
+        <v>4.696954101641735e-07</v>
       </c>
     </row>
     <row r="393">
@@ -4687,7 +4687,7 @@
         <v>4.11360144287278</v>
       </c>
       <c r="C393" t="n">
-        <v>4.683798423618576e-07</v>
+        <v>4.61881776718303e-07</v>
       </c>
     </row>
     <row r="394">
@@ -4698,7 +4698,7 @@
         <v>4.114518650355645</v>
       </c>
       <c r="C394" t="n">
-        <v>4.608261915630743e-07</v>
+        <v>4.552347849619928e-07</v>
       </c>
     </row>
     <row r="395">
@@ -4709,7 +4709,7 @@
         <v>4.11543585783851</v>
       </c>
       <c r="C395" t="n">
-        <v>4.541758376767724e-07</v>
+        <v>4.495656890619978e-07</v>
       </c>
     </row>
     <row r="396">
@@ -4720,7 +4720,7 @@
         <v>4.116353065321375</v>
       </c>
       <c r="C396" t="n">
-        <v>4.482663873040453e-07</v>
+        <v>4.446857431850727e-07</v>
       </c>
     </row>
     <row r="397">
@@ -4731,7 +4731,7 @@
         <v>4.11727027280424</v>
       </c>
       <c r="C397" t="n">
-        <v>4.42935447045987e-07</v>
+        <v>4.404062014979724e-07</v>
       </c>
     </row>
     <row r="398">
@@ -4742,7 +4742,7 @@
         <v>4.118187480287105</v>
       </c>
       <c r="C398" t="n">
-        <v>4.38020623503691e-07</v>
+        <v>4.365383181674514e-07</v>
       </c>
     </row>
     <row r="399">
@@ -4753,7 +4753,7 @@
         <v>4.11910468776997</v>
       </c>
       <c r="C399" t="n">
-        <v>4.333595232782513e-07</v>
+        <v>4.328933473602649e-07</v>
       </c>
     </row>
     <row r="400">
@@ -4764,7 +4764,7 @@
         <v>4.120021895252835</v>
       </c>
       <c r="C400" t="n">
-        <v>4.287897529707613e-07</v>
+        <v>4.292825432431674e-07</v>
       </c>
     </row>
     <row r="401">
@@ -4775,7 +4775,7 @@
         <v>4.1209391027357</v>
       </c>
       <c r="C401" t="n">
-        <v>4.241489191823151e-07</v>
+        <v>4.255171599829138e-07</v>
       </c>
     </row>
     <row r="402">
@@ -4786,7 +4786,7 @@
         <v>4.121856310218565</v>
       </c>
       <c r="C402" t="n">
-        <v>4.192746285140062e-07</v>
+        <v>4.21408451746259e-07</v>
       </c>
     </row>
     <row r="403">
@@ -4797,7 +4797,7 @@
         <v>4.12277351770143</v>
       </c>
       <c r="C403" t="n">
-        <v>4.140044875669284e-07</v>
+        <v>4.167676726999576e-07</v>
       </c>
     </row>
     <row r="404">
@@ -4808,7 +4808,7 @@
         <v>4.123690725184295</v>
       </c>
       <c r="C404" t="n">
-        <v>4.081796129143431e-07</v>
+        <v>4.114100063579241e-07</v>
       </c>
     </row>
     <row r="405">
@@ -4819,7 +4819,7 @@
         <v>4.12460793266716</v>
       </c>
       <c r="C405" t="n">
-        <v>4.017632847683158e-07</v>
+        <v>4.052873961068618e-07</v>
       </c>
     </row>
     <row r="406">
@@ -4830,7 +4830,7 @@
         <v>4.125525140150025</v>
       </c>
       <c r="C406" t="n">
-        <v>3.948696750424164e-07</v>
+        <v>3.985207057266833e-07</v>
       </c>
     </row>
     <row r="407">
@@ -4841,7 +4841,7 @@
         <v>4.12644234763289</v>
       </c>
       <c r="C407" t="n">
-        <v>3.876222916947914e-07</v>
+        <v>3.912412505218395e-07</v>
       </c>
     </row>
     <row r="408">
@@ -4852,7 +4852,7 @@
         <v>4.127359555115754</v>
       </c>
       <c r="C408" t="n">
-        <v>3.801446426835876e-07</v>
+        <v>3.835803457967816e-07</v>
       </c>
     </row>
     <row r="409">
@@ -4863,7 +4863,7 @@
         <v>4.128276762598619</v>
       </c>
       <c r="C409" t="n">
-        <v>3.725602359669516e-07</v>
+        <v>3.756693068559605e-07</v>
       </c>
     </row>
     <row r="410">
@@ -4874,7 +4874,7 @@
         <v>4.129193970081484</v>
       </c>
       <c r="C410" t="n">
-        <v>3.649925795030301e-07</v>
+        <v>3.676394490038274e-07</v>
       </c>
     </row>
     <row r="411">
@@ -4885,7 +4885,7 @@
         <v>4.130111177564349</v>
       </c>
       <c r="C411" t="n">
-        <v>3.575651812499698e-07</v>
+        <v>3.596220875448331e-07</v>
       </c>
     </row>
     <row r="412">
@@ -4896,7 +4896,7 @@
         <v>4.131028385047214</v>
       </c>
       <c r="C412" t="n">
-        <v>3.504015491659174e-07</v>
+        <v>3.517485377834288e-07</v>
       </c>
     </row>
     <row r="413">
@@ -4907,7 +4907,7 @@
         <v>4.131945592530079</v>
       </c>
       <c r="C413" t="n">
-        <v>3.436251912090194e-07</v>
+        <v>3.441501150240655e-07</v>
       </c>
     </row>
     <row r="414">
@@ -4918,7 +4918,7 @@
         <v>4.132862800012944</v>
       </c>
       <c r="C414" t="n">
-        <v>3.373596153374226e-07</v>
+        <v>3.369581345711942e-07</v>
       </c>
     </row>
     <row r="415">
@@ -4929,7 +4929,7 @@
         <v>4.133780007495809</v>
       </c>
       <c r="C415" t="n">
-        <v>3.317283295092737e-07</v>
+        <v>3.30303911729266e-07</v>
       </c>
     </row>
     <row r="416">
@@ -4940,7 +4940,7 @@
         <v>4.134697214978674</v>
       </c>
       <c r="C416" t="n">
-        <v>3.268299213814569e-07</v>
+        <v>3.242968637837147e-07</v>
       </c>
     </row>
     <row r="417">
@@ -4951,7 +4951,7 @@
         <v>4.135614422461539</v>
       </c>
       <c r="C417" t="n">
-        <v>3.226387213445405e-07</v>
+        <v>3.189372204161741e-07</v>
       </c>
     </row>
     <row r="418">
@@ -4962,7 +4962,7 @@
         <v>4.136531629944404</v>
       </c>
       <c r="C418" t="n">
-        <v>3.190904079982741e-07</v>
+        <v>3.141912471261644e-07</v>
       </c>
     </row>
     <row r="419">
@@ -4973,7 +4973,7 @@
         <v>4.137448837427269</v>
       </c>
       <c r="C419" t="n">
-        <v>3.16120647646825e-07</v>
+        <v>3.100251986088063e-07</v>
       </c>
     </row>
     <row r="420">
@@ -4984,7 +4984,7 @@
         <v>4.138366044910134</v>
       </c>
       <c r="C420" t="n">
-        <v>3.136651065943605e-07</v>
+        <v>3.064053295592205e-07</v>
       </c>
     </row>
     <row r="421">
@@ -4995,7 +4995,7 @@
         <v>4.139283252392999</v>
       </c>
       <c r="C421" t="n">
-        <v>3.116594511450481e-07</v>
+        <v>3.032978946725276e-07</v>
       </c>
     </row>
     <row r="422">
@@ -5006,7 +5006,7 @@
         <v>4.140200459875864</v>
       </c>
       <c r="C422" t="n">
-        <v>3.100393476030551e-07</v>
+        <v>3.006691486438485e-07</v>
       </c>
     </row>
     <row r="423">
@@ -5017,7 +5017,7 @@
         <v>4.141117667358729</v>
       </c>
       <c r="C423" t="n">
-        <v>3.087419789549493e-07</v>
+        <v>2.98485853561676e-07</v>
       </c>
     </row>
     <row r="424">
@@ -5028,7 +5028,7 @@
         <v>4.142034874841594</v>
       </c>
       <c r="C424" t="n">
-        <v>3.077329589606304e-07</v>
+        <v>2.967242827911929e-07</v>
       </c>
     </row>
     <row r="425">
@@ -5039,7 +5039,7 @@
         <v>4.142952082324459</v>
       </c>
       <c r="C425" t="n">
-        <v>3.070031513332946e-07</v>
+        <v>2.953691568576149e-07</v>
       </c>
     </row>
     <row r="426">
@@ -5050,7 +5050,7 @@
         <v>4.143869289807323</v>
       </c>
       <c r="C426" t="n">
-        <v>3.065442974958613e-07</v>
+        <v>2.944054899165815e-07</v>
       </c>
     </row>
     <row r="427">
@@ -5061,7 +5061,7 @@
         <v>4.144786497290188</v>
       </c>
       <c r="C427" t="n">
-        <v>3.063481388712492e-07</v>
+        <v>2.938182961237323e-07</v>
       </c>
     </row>
     <row r="428">
@@ -5072,7 +5072,7 @@
         <v>4.145703704773053</v>
       </c>
       <c r="C428" t="n">
-        <v>3.064064168823778e-07</v>
+        <v>2.93592589634707e-07</v>
       </c>
     </row>
     <row r="429">
@@ -5083,7 +5083,7 @@
         <v>4.146620912255917</v>
       </c>
       <c r="C429" t="n">
-        <v>3.067108729521653e-07</v>
+        <v>2.937133846051448e-07</v>
       </c>
     </row>
     <row r="430">
@@ -5094,7 +5094,7 @@
         <v>4.147538119738782</v>
       </c>
       <c r="C430" t="n">
-        <v>3.072532485035316e-07</v>
+        <v>2.941656951906859e-07</v>
       </c>
     </row>
     <row r="431">
@@ -5105,7 +5105,7 @@
         <v>4.148455327221647</v>
       </c>
       <c r="C431" t="n">
-        <v>3.080252849593957e-07</v>
+        <v>2.949345355469695e-07</v>
       </c>
     </row>
     <row r="432">
@@ -5116,7 +5116,7 @@
         <v>4.149372534704512</v>
       </c>
       <c r="C432" t="n">
-        <v>3.090187237426764e-07</v>
+        <v>2.960049198296355e-07</v>
       </c>
     </row>
     <row r="433">
@@ -5127,7 +5127,7 @@
         <v>4.150289742187377</v>
       </c>
       <c r="C433" t="n">
-        <v>3.10225306276293e-07</v>
+        <v>2.973618621943234e-07</v>
       </c>
     </row>
     <row r="434">
@@ -5138,7 +5138,7 @@
         <v>4.151206949670242</v>
       </c>
       <c r="C434" t="n">
-        <v>3.116367739831645e-07</v>
+        <v>2.989903767966729e-07</v>
       </c>
     </row>
     <row r="435">
@@ -5149,7 +5149,7 @@
         <v>4.152124157153107</v>
       </c>
       <c r="C435" t="n">
-        <v>3.132448682862099e-07</v>
+        <v>3.008754777923235e-07</v>
       </c>
     </row>
     <row r="436">
@@ -5160,7 +5160,7 @@
         <v>4.153041364635972</v>
       </c>
       <c r="C436" t="n">
-        <v>3.150413306083482e-07</v>
+        <v>3.030021793369149e-07</v>
       </c>
     </row>
     <row r="437">
@@ -5171,7 +5171,7 @@
         <v>4.153958572118837</v>
       </c>
       <c r="C437" t="n">
-        <v>3.170179023724987e-07</v>
+        <v>3.053554955860868e-07</v>
       </c>
     </row>
     <row r="438">
@@ -5182,7 +5182,7 @@
         <v>4.154875779601702</v>
       </c>
       <c r="C438" t="n">
-        <v>3.191663250015803e-07</v>
+        <v>3.079204406954786e-07</v>
       </c>
     </row>
     <row r="439">
@@ -5193,7 +5193,7 @@
         <v>4.155792987084567</v>
       </c>
       <c r="C439" t="n">
-        <v>3.21478339918512e-07</v>
+        <v>3.106820288207299e-07</v>
       </c>
     </row>
     <row r="440">
@@ -5204,7 +5204,7 @@
         <v>4.156710194567432</v>
       </c>
       <c r="C440" t="n">
-        <v>3.23945688546213e-07</v>
+        <v>3.136252741174806e-07</v>
       </c>
     </row>
     <row r="441">
@@ -5215,7 +5215,7 @@
         <v>4.157627402050297</v>
       </c>
       <c r="C441" t="n">
-        <v>3.265601123076024e-07</v>
+        <v>3.1673519074137e-07</v>
       </c>
     </row>
     <row r="442">
@@ -5226,7 +5226,7 @@
         <v>4.158544609533162</v>
       </c>
       <c r="C442" t="n">
-        <v>3.293133526255993e-07</v>
+        <v>3.199967928480379e-07</v>
       </c>
     </row>
     <row r="443">
@@ -5237,7 +5237,7 @@
         <v>4.159461817016027</v>
       </c>
       <c r="C443" t="n">
-        <v>3.321971509231224e-07</v>
+        <v>3.233950945931237e-07</v>
       </c>
     </row>
     <row r="444">
@@ -5248,7 +5248,7 @@
         <v>4.160379024498892</v>
       </c>
       <c r="C444" t="n">
-        <v>3.352032486230912e-07</v>
+        <v>3.269151101322673e-07</v>
       </c>
     </row>
     <row r="445">
@@ -5259,7 +5259,7 @@
         <v>4.161296231981757</v>
       </c>
       <c r="C445" t="n">
-        <v>3.383233871484245e-07</v>
+        <v>3.305418536211082e-07</v>
       </c>
     </row>
     <row r="446">
@@ -5270,7 +5270,7 @@
         <v>4.162213439464622</v>
       </c>
       <c r="C446" t="n">
-        <v>3.415493079220415e-07</v>
+        <v>3.34260339215286e-07</v>
       </c>
     </row>
     <row r="447">
@@ -5281,7 +5281,7 @@
         <v>4.163130646947486</v>
       </c>
       <c r="C447" t="n">
-        <v>3.448727523668611e-07</v>
+        <v>3.380555810704402e-07</v>
       </c>
     </row>
     <row r="448">
@@ -5292,7 +5292,7 @@
         <v>4.164047854430351</v>
       </c>
       <c r="C448" t="n">
-        <v>3.482854619058026e-07</v>
+        <v>3.419125933422106e-07</v>
       </c>
     </row>
     <row r="449">
@@ -5303,7 +5303,7 @@
         <v>4.164965061913216</v>
       </c>
       <c r="C449" t="n">
-        <v>3.517791779617851e-07</v>
+        <v>3.458163901862366e-07</v>
       </c>
     </row>
     <row r="450">
@@ -5314,7 +5314,7 @@
         <v>4.165882269396081</v>
       </c>
       <c r="C450" t="n">
-        <v>3.553456419577274e-07</v>
+        <v>3.497519857581581e-07</v>
       </c>
     </row>
     <row r="451">
@@ -5325,7 +5325,7 @@
         <v>4.166799476878946</v>
       </c>
       <c r="C451" t="n">
-        <v>3.589778314215215e-07</v>
+        <v>3.537059979892763e-07</v>
       </c>
     </row>
     <row r="452">
@@ -5336,7 +5336,7 @@
         <v>4.167716684361811</v>
       </c>
       <c r="C452" t="n">
-        <v>3.626866050780159e-07</v>
+        <v>3.57688244643522e-07</v>
       </c>
     </row>
     <row r="453">
@@ -5347,7 +5347,7 @@
         <v>4.168633891844676</v>
       </c>
       <c r="C453" t="n">
-        <v>3.664962789184784e-07</v>
+        <v>3.617260035200431e-07</v>
       </c>
     </row>
     <row r="454">
@@ -5358,7 +5358,7 @@
         <v>4.169551099327541</v>
       </c>
       <c r="C454" t="n">
-        <v>3.704314977852938e-07</v>
+        <v>3.658469790835447e-07</v>
       </c>
     </row>
     <row r="455">
@@ -5369,7 +5369,7 @@
         <v>4.170468306810406</v>
       </c>
       <c r="C455" t="n">
-        <v>3.745169065208465e-07</v>
+        <v>3.700788757987321e-07</v>
       </c>
     </row>
     <row r="456">
@@ -5380,7 +5380,7 @@
         <v>4.171385514293271</v>
       </c>
       <c r="C456" t="n">
-        <v>3.787771499675209e-07</v>
+        <v>3.744493981303102e-07</v>
       </c>
     </row>
     <row r="457">
@@ -5391,7 +5391,7 @@
         <v>4.172302721776136</v>
       </c>
       <c r="C457" t="n">
-        <v>3.832368729677016e-07</v>
+        <v>3.78986250542984e-07</v>
       </c>
     </row>
     <row r="458">
@@ -5402,7 +5402,7 @@
         <v>4.173219929259001</v>
       </c>
       <c r="C458" t="n">
-        <v>3.879207203637732e-07</v>
+        <v>3.837171375014588e-07</v>
       </c>
     </row>
     <row r="459">
@@ -5413,7 +5413,7 @@
         <v>4.174137136741866</v>
       </c>
       <c r="C459" t="n">
-        <v>3.928533369981198e-07</v>
+        <v>3.886697634704395e-07</v>
       </c>
     </row>
     <row r="460">
@@ -5424,7 +5424,7 @@
         <v>4.175054344224731</v>
       </c>
       <c r="C460" t="n">
-        <v>3.980593677131263e-07</v>
+        <v>3.938718329146313e-07</v>
       </c>
     </row>
     <row r="461">
@@ -5435,7 +5435,7 @@
         <v>4.175971551707596</v>
       </c>
       <c r="C461" t="n">
-        <v>4.035634573511769e-07</v>
+        <v>3.99351050298739e-07</v>
       </c>
     </row>
     <row r="462">
@@ -5446,7 +5446,7 @@
         <v>4.176888759190461</v>
       </c>
       <c r="C462" t="n">
-        <v>4.093902507546562e-07</v>
+        <v>4.051351200874679e-07</v>
       </c>
     </row>
     <row r="463">
@@ -5457,7 +5457,7 @@
         <v>4.177805966673326</v>
       </c>
       <c r="C463" t="n">
-        <v>4.155643927659488e-07</v>
+        <v>4.11251746745523e-07</v>
       </c>
     </row>
     <row r="464">
@@ -5468,7 +5468,7 @@
         <v>4.178723174156191</v>
       </c>
       <c r="C464" t="n">
-        <v>4.221105282274389e-07</v>
+        <v>4.177286347376093e-07</v>
       </c>
     </row>
     <row r="465">
@@ -5479,7 +5479,7 @@
         <v>4.179640381639055</v>
       </c>
       <c r="C465" t="n">
-        <v>4.290533019815111e-07</v>
+        <v>4.24593488528432e-07</v>
       </c>
     </row>
     <row r="466">
@@ -5490,7 +5490,7 @@
         <v>4.18055758912192</v>
       </c>
       <c r="C466" t="n">
-        <v>4.364173588705428e-07</v>
+        <v>4.318740125826889e-07</v>
       </c>
     </row>
     <row r="467">
@@ -5501,7 +5501,7 @@
         <v>4.181474796604784</v>
       </c>
       <c r="C467" t="n">
-        <v>4.442273437369324e-07</v>
+        <v>4.395979113650991e-07</v>
       </c>
     </row>
     <row r="468">
@@ -5512,7 +5512,7 @@
         <v>4.182392004087649</v>
       </c>
       <c r="C468" t="n">
-        <v>4.525079014230577e-07</v>
+        <v>4.477928893403608e-07</v>
       </c>
     </row>
     <row r="469">
@@ -5523,7 +5523,7 @@
         <v>4.183309211570514</v>
       </c>
       <c r="C469" t="n">
-        <v>4.612836767713029e-07</v>
+        <v>4.564866509731792e-07</v>
       </c>
     </row>
     <row r="470">
@@ -5534,7 +5534,7 @@
         <v>4.184226419053379</v>
       </c>
       <c r="C470" t="n">
-        <v>4.705793146240528e-07</v>
+        <v>4.657069007282591e-07</v>
       </c>
     </row>
     <row r="471">
@@ -5545,7 +5545,7 @@
         <v>4.185143626536244</v>
       </c>
       <c r="C471" t="n">
-        <v>4.804194598236915e-07</v>
+        <v>4.754813430703057e-07</v>
       </c>
     </row>
     <row r="472">
@@ -5556,7 +5556,7 @@
         <v>4.186060834019109</v>
       </c>
       <c r="C472" t="n">
-        <v>4.908287572126042e-07</v>
+        <v>4.858376824640243e-07</v>
       </c>
     </row>
     <row r="473">
@@ -5567,7 +5567,7 @@
         <v>4.186978041501974</v>
       </c>
       <c r="C473" t="n">
-        <v>5.018318516331746e-07</v>
+        <v>4.968036233741197e-07</v>
       </c>
     </row>
     <row r="474">
@@ -5578,7 +5578,7 @@
         <v>4.187895248984839</v>
       </c>
       <c r="C474" t="n">
-        <v>5.134533879277876e-07</v>
+        <v>5.084068702652969e-07</v>
       </c>
     </row>
     <row r="475">
@@ -5589,7 +5589,7 @@
         <v>4.188812456467704</v>
       </c>
       <c r="C475" t="n">
-        <v>5.257180109388275e-07</v>
+        <v>5.206751276022612e-07</v>
       </c>
     </row>
     <row r="476">
@@ -5600,7 +5600,7 @@
         <v>4.189729663950569</v>
       </c>
       <c r="C476" t="n">
-        <v>5.386503655086791e-07</v>
+        <v>5.336360998497177e-07</v>
       </c>
     </row>
     <row r="477">
@@ -5611,7 +5611,7 @@
         <v>4.190646871433434</v>
       </c>
       <c r="C477" t="n">
-        <v>5.522750964797265e-07</v>
+        <v>5.473174914723712e-07</v>
       </c>
     </row>
     <row r="478">
@@ -5622,7 +5622,7 @@
         <v>4.191564078916299</v>
       </c>
       <c r="C478" t="n">
-        <v>5.666168486943543e-07</v>
+        <v>5.617470069349269e-07</v>
       </c>
     </row>
     <row r="479">
@@ -5633,7 +5633,7 @@
         <v>4.192481286399164</v>
       </c>
       <c r="C479" t="n">
-        <v>5.817002669949471e-07</v>
+        <v>5.769523507020898e-07</v>
       </c>
     </row>
     <row r="480">
@@ -5644,7 +5644,7 @@
         <v>4.193398493882029</v>
       </c>
       <c r="C480" t="n">
-        <v>5.975499962238893e-07</v>
+        <v>5.929612272385652e-07</v>
       </c>
     </row>
     <row r="481">
@@ -5655,7 +5655,7 @@
         <v>4.194315701364894</v>
       </c>
       <c r="C481" t="n">
-        <v>6.141906812235656e-07</v>
+        <v>6.098013410090581e-07</v>
       </c>
     </row>
     <row r="482">
@@ -5666,7 +5666,7 @@
         <v>4.195232908847759</v>
       </c>
       <c r="C482" t="n">
-        <v>6.316469668363601e-07</v>
+        <v>6.275003964782732e-07</v>
       </c>
     </row>
     <row r="483">
@@ -5677,7 +5677,7 @@
         <v>4.196150116330624</v>
       </c>
       <c r="C483" t="n">
-        <v>6.499434979046577e-07</v>
+        <v>6.460860981109162e-07</v>
       </c>
     </row>
     <row r="484">
@@ -5688,7 +5688,7 @@
         <v>4.197067323813489</v>
       </c>
       <c r="C484" t="n">
-        <v>6.691049192708425e-07</v>
+        <v>6.655861503716916e-07</v>
       </c>
     </row>
     <row r="485">
@@ -5699,7 +5699,7 @@
         <v>4.197984531296354</v>
       </c>
       <c r="C485" t="n">
-        <v>6.891558757772991e-07</v>
+        <v>6.860282577253048e-07</v>
       </c>
     </row>
     <row r="486">
@@ -5710,7 +5710,7 @@
         <v>4.198901738779218</v>
       </c>
       <c r="C486" t="n">
-        <v>7.101210122664122e-07</v>
+        <v>7.074401246364606e-07</v>
       </c>
     </row>
     <row r="487">
@@ -5721,7 +5721,7 @@
         <v>4.199818946262083</v>
       </c>
       <c r="C487" t="n">
-        <v>7.32024973580566e-07</v>
+        <v>7.298494555698644e-07</v>
       </c>
     </row>
     <row r="488">
@@ -5732,7 +5732,7 @@
         <v>4.200736153744948</v>
       </c>
       <c r="C488" t="n">
-        <v>7.548922564217269e-07</v>
+        <v>7.532837300572271e-07</v>
       </c>
     </row>
     <row r="489">
@@ -5743,7 +5743,7 @@
         <v>4.201653361227813</v>
       </c>
       <c r="C489" t="n">
-        <v>7.787381370774056e-07</v>
+        <v>7.777564275656486e-07</v>
       </c>
     </row>
     <row r="490">
@@ -5754,7 +5754,7 @@
         <v>4.202570568710678</v>
       </c>
       <c r="C490" t="n">
-        <v>8.035634059580837e-07</v>
+        <v>8.0325903254071e-07</v>
       </c>
     </row>
     <row r="491">
@@ -5765,7 +5765,7 @@
         <v>4.203487776193543</v>
       </c>
       <c r="C491" t="n">
-        <v>8.293675843959386e-07</v>
+        <v>8.297811024887698e-07</v>
       </c>
     </row>
     <row r="492">
@@ -5776,7 +5776,7 @@
         <v>4.204404983676408</v>
       </c>
       <c r="C492" t="n">
-        <v>8.561501937231473e-07</v>
+        <v>8.573121949161863e-07</v>
       </c>
     </row>
     <row r="493">
@@ -5787,7 +5787,7 @@
         <v>4.205322191159273</v>
       </c>
       <c r="C493" t="n">
-        <v>8.83910755271887e-07</v>
+        <v>8.85841867329318e-07</v>
       </c>
     </row>
     <row r="494">
@@ -5798,7 +5798,7 @@
         <v>4.206239398642138</v>
       </c>
       <c r="C494" t="n">
-        <v>9.126487903743348e-07</v>
+        <v>9.153596772345234e-07</v>
       </c>
     </row>
     <row r="495">
@@ -5809,7 +5809,7 @@
         <v>4.207156606125003</v>
       </c>
       <c r="C495" t="n">
-        <v>9.423638203626673e-07</v>
+        <v>9.458551821381606e-07</v>
       </c>
     </row>
     <row r="496">
@@ -5820,7 +5820,7 @@
         <v>4.208073813607868</v>
       </c>
       <c r="C496" t="n">
-        <v>9.730553665690621e-07</v>
+        <v>9.773179395465879e-07</v>
       </c>
     </row>
     <row r="497">
@@ -5831,7 +5831,7 @@
         <v>4.208991021090733</v>
       </c>
       <c r="C497" t="n">
-        <v>1.004722950325697e-06</v>
+        <v>1.009737506966164e-06</v>
       </c>
     </row>
     <row r="498">
@@ -5842,7 +5842,7 @@
         <v>4.209908228573598</v>
       </c>
       <c r="C498" t="n">
-        <v>1.037366092964747e-06</v>
+        <v>1.043103441903249e-06</v>
       </c>
     </row>
     <row r="499">
@@ -5853,7 +5853,7 @@
         <v>4.210825436056463</v>
       </c>
       <c r="C499" t="n">
-        <v>1.070984315818392e-06</v>
+        <v>1.077405301864197e-06</v>
       </c>
     </row>
     <row r="500">
@@ -5864,7 +5864,7 @@
         <v>4.211742643539328</v>
       </c>
       <c r="C500" t="n">
-        <v>1.105577140218806e-06</v>
+        <v>1.112632644355371e-06</v>
       </c>
     </row>
     <row r="501">
@@ -5875,7 +5875,7 @@
         <v>4.212659851022193</v>
       </c>
       <c r="C501" t="n">
-        <v>1.141144087498169e-06</v>
+        <v>1.148775026883126e-06</v>
       </c>
     </row>
     <row r="502">
@@ -5886,7 +5886,7 @@
         <v>4.213577058505058</v>
       </c>
       <c r="C502" t="n">
-        <v>1.177684678988656e-06</v>
+        <v>1.185822006953823e-06</v>
       </c>
     </row>
     <row r="503">
@@ -5897,7 +5897,7 @@
         <v>4.214494265987922</v>
       </c>
       <c r="C503" t="n">
-        <v>1.215198436022408e-06</v>
+        <v>1.223763142073781e-06</v>
       </c>
     </row>
     <row r="504">
@@ -5908,7 +5908,7 @@
         <v>4.215411473470787</v>
       </c>
       <c r="C504" t="n">
-        <v>1.253684879931676e-06</v>
+        <v>1.262587989749434e-06</v>
       </c>
     </row>
     <row r="505">
@@ -5919,7 +5919,7 @@
         <v>4.216328680953652</v>
       </c>
       <c r="C505" t="n">
-        <v>1.293143532048599e-06</v>
+        <v>1.302286107487103e-06</v>
       </c>
     </row>
     <row r="506">
@@ -5930,7 +5930,7 @@
         <v>4.217245888436516</v>
       </c>
       <c r="C506" t="n">
-        <v>1.333573913705355e-06</v>
+        <v>1.342847052793146e-06</v>
       </c>
     </row>
     <row r="507">
@@ -5941,7 +5941,7 @@
         <v>4.218163095919381</v>
       </c>
       <c r="C507" t="n">
-        <v>1.374977045426449e-06</v>
+        <v>1.384262275475954e-06</v>
       </c>
     </row>
     <row r="508">
@@ -5952,7 +5952,7 @@
         <v>4.219080303402246</v>
       </c>
       <c r="C508" t="n">
-        <v>1.417397076501258e-06</v>
+        <v>1.426577663088801e-06</v>
       </c>
     </row>
     <row r="509">
@@ -5963,7 +5963,7 @@
         <v>4.219997510885111</v>
       </c>
       <c r="C509" t="n">
-        <v>1.460926718057024e-06</v>
+        <v>1.469900398632405e-06</v>
       </c>
     </row>
     <row r="510">
@@ -5974,7 +5974,7 @@
         <v>4.220914718367976</v>
       </c>
       <c r="C510" t="n">
-        <v>1.505661271825333e-06</v>
+        <v>1.5143409350054e-06</v>
       </c>
     </row>
     <row r="511">
@@ -5985,7 +5985,7 @@
         <v>4.221831925850841</v>
       </c>
       <c r="C511" t="n">
-        <v>1.55169603953777e-06</v>
+        <v>1.560009725106417e-06</v>
       </c>
     </row>
     <row r="512">
@@ -5996,7 +5996,7 @@
         <v>4.222749133333706</v>
       </c>
       <c r="C512" t="n">
-        <v>1.599126322925921e-06</v>
+        <v>1.607017221834091e-06</v>
       </c>
     </row>
     <row r="513">
@@ -6007,7 +6007,7 @@
         <v>4.223666340816571</v>
       </c>
       <c r="C513" t="n">
-        <v>1.648047423721369e-06</v>
+        <v>1.655473878087053e-06</v>
       </c>
     </row>
     <row r="514">
@@ -6018,7 +6018,7 @@
         <v>4.224583548299436</v>
       </c>
       <c r="C514" t="n">
-        <v>1.698554643655701e-06</v>
+        <v>1.705490146763936e-06</v>
       </c>
     </row>
     <row r="515">
@@ -6029,7 +6029,7 @@
         <v>4.225500755782301</v>
       </c>
       <c r="C515" t="n">
-        <v>1.750743284460501e-06</v>
+        <v>1.757176480763373e-06</v>
       </c>
     </row>
     <row r="516">
@@ -6040,7 +6040,7 @@
         <v>4.226417963265166</v>
       </c>
       <c r="C516" t="n">
-        <v>1.804708647867354e-06</v>
+        <v>1.810643332983996e-06</v>
       </c>
     </row>
     <row r="517">
@@ -6051,7 +6051,7 @@
         <v>4.227335170748031</v>
       </c>
       <c r="C517" t="n">
-        <v>1.860546035607846e-06</v>
+        <v>1.866001156324438e-06</v>
       </c>
     </row>
     <row r="518">
@@ -6062,7 +6062,7 @@
         <v>4.228252378230896</v>
       </c>
       <c r="C518" t="n">
-        <v>1.918350749413562e-06</v>
+        <v>1.923360403683333e-06</v>
       </c>
     </row>
     <row r="519">
@@ -6073,7 +6073,7 @@
         <v>4.229169585713761</v>
       </c>
       <c r="C519" t="n">
-        <v>1.978218091016086e-06</v>
+        <v>1.982831527959312e-06</v>
       </c>
     </row>
     <row r="520">
@@ -6084,7 +6084,7 @@
         <v>4.230086793196626</v>
       </c>
       <c r="C520" t="n">
-        <v>2.040243362147003e-06</v>
+        <v>2.044524982051008e-06</v>
       </c>
     </row>
     <row r="521">
@@ -6095,7 +6095,7 @@
         <v>4.231004000679491</v>
       </c>
       <c r="C521" t="n">
-        <v>2.1045218645379e-06</v>
+        <v>2.108551218857054e-06</v>
       </c>
     </row>
     <row r="522">
@@ -6106,7 +6106,7 @@
         <v>4.231921208162356</v>
       </c>
       <c r="C522" t="n">
-        <v>2.171142698970825e-06</v>
+        <v>2.175014229283433e-06</v>
       </c>
     </row>
     <row r="523">
@@ -6117,7 +6117,7 @@
         <v>4.232838415645221</v>
       </c>
       <c r="C523" t="n">
-        <v>2.239969660169272e-06</v>
+        <v>2.24378321340513e-06</v>
       </c>
     </row>
     <row r="524">
@@ -6128,7 +6128,7 @@
         <v>4.233755623128086</v>
       </c>
       <c r="C524" t="n">
-        <v>2.310582664470451e-06</v>
+        <v>2.314431542402672e-06</v>
       </c>
     </row>
     <row r="525">
@@ -6139,7 +6139,7 @@
         <v>4.23467283061095</v>
       </c>
       <c r="C525" t="n">
-        <v>2.382543516347641e-06</v>
+        <v>2.38651371313243e-06</v>
       </c>
     </row>
     <row r="526">
@@ -6150,7 +6150,7 @@
         <v>4.235590038093815</v>
       </c>
       <c r="C526" t="n">
-        <v>2.45541402027412e-06</v>
+        <v>2.459584222450778e-06</v>
       </c>
     </row>
     <row r="527">
@@ -6161,7 +6161,7 @@
         <v>4.23650724557668</v>
       </c>
       <c r="C527" t="n">
-        <v>2.528755980723169e-06</v>
+        <v>2.533197567214086e-06</v>
       </c>
     </row>
     <row r="528">
@@ -6172,7 +6172,7 @@
         <v>4.237424453059545</v>
       </c>
       <c r="C528" t="n">
-        <v>2.602131202168069e-06</v>
+        <v>2.606908244278728e-06</v>
       </c>
     </row>
     <row r="529">
@@ -6183,7 +6183,7 @@
         <v>4.23834166054241</v>
       </c>
       <c r="C529" t="n">
-        <v>2.675101489082095e-06</v>
+        <v>2.680270750501074e-06</v>
       </c>
     </row>
     <row r="530">
@@ -6194,7 +6194,7 @@
         <v>4.239258868025275</v>
       </c>
       <c r="C530" t="n">
-        <v>2.747228645938529e-06</v>
+        <v>2.752839582737498e-06</v>
       </c>
     </row>
     <row r="531">
@@ -6205,7 +6205,7 @@
         <v>4.24017607550814</v>
       </c>
       <c r="C531" t="n">
-        <v>2.81807447721065e-06</v>
+        <v>2.824169237844371e-06</v>
       </c>
     </row>
     <row r="532">
@@ -6216,7 +6216,7 @@
         <v>4.241093282991005</v>
       </c>
       <c r="C532" t="n">
-        <v>2.88720644877361e-06</v>
+        <v>2.893820082257777e-06</v>
       </c>
     </row>
     <row r="533">
@@ -6227,7 +6227,7 @@
         <v>4.24201049047387</v>
       </c>
       <c r="C533" t="n">
-        <v>2.954394782249322e-06</v>
+        <v>2.961562693779208e-06</v>
       </c>
     </row>
     <row r="534">
@@ -6238,7 +6238,7 @@
         <v>4.242927697956735</v>
       </c>
       <c r="C534" t="n">
-        <v>3.01966347662373e-06</v>
+        <v>3.027430759330624e-06</v>
       </c>
     </row>
     <row r="535">
@@ -6249,7 +6249,7 @@
         <v>4.2438449054396</v>
       </c>
       <c r="C535" t="n">
-        <v>3.083052558036209e-06</v>
+        <v>3.091474582328765e-06</v>
       </c>
     </row>
     <row r="536">
@@ -6260,7 +6260,7 @@
         <v>4.244762112922465</v>
       </c>
       <c r="C536" t="n">
-        <v>3.14460205262614e-06</v>
+        <v>3.153744466190373e-06</v>
       </c>
     </row>
     <row r="537">
@@ -6271,7 +6271,7 @@
         <v>4.24567932040533</v>
       </c>
       <c r="C537" t="n">
-        <v>3.204351986532898e-06</v>
+        <v>3.214290714332188e-06</v>
       </c>
     </row>
     <row r="538">
@@ -6282,7 +6282,7 @@
         <v>4.246596527888195</v>
       </c>
       <c r="C538" t="n">
-        <v>3.262342385895862e-06</v>
+        <v>3.273163630170948e-06</v>
       </c>
     </row>
     <row r="539">
@@ -6293,7 +6293,7 @@
         <v>4.24751373537106</v>
       </c>
       <c r="C539" t="n">
-        <v>3.318613276854411e-06</v>
+        <v>3.330413517123396e-06</v>
       </c>
     </row>
     <row r="540">
@@ -6304,7 +6304,7 @@
         <v>4.248430942853924</v>
       </c>
       <c r="C540" t="n">
-        <v>3.37320468554787e-06</v>
+        <v>3.38609067860622e-06</v>
       </c>
     </row>
     <row r="541">
@@ -6315,7 +6315,7 @@
         <v>4.249348150336789</v>
       </c>
       <c r="C541" t="n">
-        <v>3.426156638115722e-06</v>
+        <v>3.440245418036266e-06</v>
       </c>
     </row>
     <row r="542">
@@ -6326,7 +6326,7 @@
         <v>4.250265357819654</v>
       </c>
       <c r="C542" t="n">
-        <v>3.477509160697291e-06</v>
+        <v>3.492928038830219e-06</v>
       </c>
     </row>
     <row r="543">
@@ -6337,7 +6337,7 @@
         <v>4.251182565302519</v>
       </c>
       <c r="C543" t="n">
-        <v>3.527302279431957e-06</v>
+        <v>3.544188844404821e-06</v>
       </c>
     </row>
     <row r="544">
@@ -6348,7 +6348,7 @@
         <v>4.252099772785384</v>
       </c>
       <c r="C544" t="n">
-        <v>3.575576020459096e-06</v>
+        <v>3.594078138176813e-06</v>
       </c>
     </row>
     <row r="545">
@@ -6359,7 +6359,7 @@
         <v>4.253016980268248</v>
       </c>
       <c r="C545" t="n">
-        <v>3.622312964168457e-06</v>
+        <v>3.642576237496104e-06</v>
       </c>
     </row>
     <row r="546">
@@ -6370,7 +6370,7 @@
         <v>4.253934187751113</v>
       </c>
       <c r="C546" t="n">
-        <v>3.667179173061918e-06</v>
+        <v>3.689277846465397e-06</v>
       </c>
     </row>
     <row r="547">
@@ -6381,7 +6381,7 @@
         <v>4.254851395233978</v>
       </c>
       <c r="C547" t="n">
-        <v>3.709732282988123e-06</v>
+        <v>3.733645573165516e-06</v>
       </c>
     </row>
     <row r="548">
@@ -6392,7 +6392,7 @@
         <v>4.255768602716843</v>
       </c>
       <c r="C548" t="n">
-        <v>3.749529833856534e-06</v>
+        <v>3.775141908794743e-06</v>
       </c>
     </row>
     <row r="549">
@@ -6403,7 +6403,7 @@
         <v>4.256685810199708</v>
       </c>
       <c r="C549" t="n">
-        <v>3.786129365576617e-06</v>
+        <v>3.813229344551357e-06</v>
       </c>
     </row>
     <row r="550">
@@ -6414,7 +6414,7 @@
         <v>4.257603017682573</v>
       </c>
       <c r="C550" t="n">
-        <v>3.819088418057838e-06</v>
+        <v>3.847370371633636e-06</v>
       </c>
     </row>
     <row r="551">
@@ -6425,7 +6425,7 @@
         <v>4.258520225165438</v>
       </c>
       <c r="C551" t="n">
-        <v>3.847964531209662e-06</v>
+        <v>3.87702748123986e-06</v>
       </c>
     </row>
     <row r="552">
@@ -6436,7 +6436,7 @@
         <v>4.259437432648303</v>
       </c>
       <c r="C552" t="n">
-        <v>3.872315244941555e-06</v>
+        <v>3.901663164568308e-06</v>
       </c>
     </row>
     <row r="553">
@@ -6447,7 +6447,7 @@
         <v>4.260354640131168</v>
       </c>
       <c r="C553" t="n">
-        <v>3.891698099162979e-06</v>
+        <v>3.92073991281726e-06</v>
       </c>
     </row>
     <row r="554">
@@ -6458,7 +6458,7 @@
         <v>4.261271847614033</v>
       </c>
       <c r="C554" t="n">
-        <v>3.905670633783402e-06</v>
+        <v>3.933720217184995e-06</v>
       </c>
     </row>
     <row r="555">
@@ -6469,7 +6469,7 @@
         <v>4.262189055096898</v>
       </c>
       <c r="C555" t="n">
-        <v>3.913790379849516e-06</v>
+        <v>3.940066575231671e-06</v>
       </c>
     </row>
     <row r="556">
@@ -6480,7 +6480,7 @@
         <v>4.263106262579763</v>
       </c>
       <c r="C556" t="n">
-        <v>3.915554114115237e-06</v>
+        <v>3.939285095204817e-06</v>
       </c>
     </row>
     <row r="557">
@@ -6491,7 +6491,7 @@
         <v>4.264023470062628</v>
       </c>
       <c r="C557" t="n">
-        <v>3.91025279321175e-06</v>
+        <v>3.931029627291086e-06</v>
       </c>
     </row>
     <row r="558">
@@ -6502,7 +6502,7 @@
         <v>4.264940677545493</v>
       </c>
       <c r="C558" t="n">
-        <v>3.897133830978059e-06</v>
+        <v>3.914985277593555e-06</v>
       </c>
     </row>
     <row r="559">
@@ -6513,7 +6513,7 @@
         <v>4.265857885028358</v>
       </c>
       <c r="C559" t="n">
-        <v>3.875444641253163e-06</v>
+        <v>3.89083715221529e-06</v>
       </c>
     </row>
     <row r="560">
@@ -6524,7 +6524,7 @@
         <v>4.266775092511223</v>
       </c>
       <c r="C560" t="n">
-        <v>3.844432637876065e-06</v>
+        <v>3.858270357259367e-06</v>
       </c>
     </row>
     <row r="561">
@@ -6535,7 +6535,7 @@
         <v>4.267692299994088</v>
       </c>
       <c r="C561" t="n">
-        <v>3.803397233478504e-06</v>
+        <v>3.817008088095552e-06</v>
       </c>
     </row>
     <row r="562">
@@ -6546,7 +6546,7 @@
         <v>4.268609507476953</v>
       </c>
       <c r="C562" t="n">
-        <v>3.753173534132325e-06</v>
+        <v>3.767898439998411e-06</v>
       </c>
     </row>
     <row r="563">
@@ -6557,7 +6557,7 @@
         <v>4.269526714959818</v>
       </c>
       <c r="C563" t="n">
-        <v>3.696348774480006e-06</v>
+        <v>3.713072947508985e-06</v>
       </c>
     </row>
     <row r="564">
@@ -6568,7 +6568,7 @@
         <v>4.270443922442682</v>
       </c>
       <c r="C564" t="n">
-        <v>3.635605711016131e-06</v>
+        <v>3.654733115202397e-06</v>
       </c>
     </row>
     <row r="565">
@@ -6579,7 +6579,7 @@
         <v>4.271361129925547</v>
       </c>
       <c r="C565" t="n">
-        <v>3.573627100235292e-06</v>
+        <v>3.595080447653773e-06</v>
       </c>
     </row>
     <row r="566">
@@ -6590,7 +6590,7 @@
         <v>4.272278337408412</v>
       </c>
       <c r="C566" t="n">
-        <v>3.512746391189475e-06</v>
+        <v>3.536025779205735e-06</v>
       </c>
     </row>
     <row r="567">
@@ -6601,7 +6601,7 @@
         <v>4.273195544891277</v>
       </c>
       <c r="C567" t="n">
-        <v>3.453233234182554e-06</v>
+        <v>3.477762589261423e-06</v>
       </c>
     </row>
     <row r="568">
@@ -6612,7 +6612,7 @@
         <v>4.274112752374142</v>
       </c>
       <c r="C568" t="n">
-        <v>3.394602038873654e-06</v>
+        <v>3.419855896598661e-06</v>
       </c>
     </row>
     <row r="569">
@@ -6623,7 +6623,7 @@
         <v>4.275029959857007</v>
       </c>
       <c r="C569" t="n">
-        <v>3.336366086527084e-06</v>
+        <v>3.361869781020771e-06</v>
       </c>
     </row>
     <row r="570">
@@ -6634,7 +6634,7 @@
         <v>4.275947167339872</v>
       </c>
       <c r="C570" t="n">
-        <v>3.278038658407155e-06</v>
+        <v>3.303368322331072e-06</v>
       </c>
     </row>
     <row r="571">
@@ -6645,7 +6645,7 @@
         <v>4.276864374822737</v>
       </c>
       <c r="C571" t="n">
-        <v>3.219133035778175e-06</v>
+        <v>3.243915600332882e-06</v>
       </c>
     </row>
     <row r="572">
@@ -6656,7 +6656,7 @@
         <v>4.277781582305602</v>
       </c>
       <c r="C572" t="n">
-        <v>3.159162499904456e-06</v>
+        <v>3.183075694829522e-06</v>
       </c>
     </row>
     <row r="573">
@@ -6667,7 +6667,7 @@
         <v>4.278698789788467</v>
       </c>
       <c r="C573" t="n">
-        <v>3.097640332050306e-06</v>
+        <v>3.120412685624312e-06</v>
       </c>
     </row>
     <row r="574">
@@ -6678,7 +6678,7 @@
         <v>4.279615997271332</v>
       </c>
       <c r="C574" t="n">
-        <v>3.034079813480035e-06</v>
+        <v>3.055490652520572e-06</v>
       </c>
     </row>
     <row r="575">
@@ -6689,7 +6689,7 @@
         <v>4.280533204754196</v>
       </c>
       <c r="C575" t="n">
-        <v>2.967994225458018e-06</v>
+        <v>2.987873675321687e-06</v>
       </c>
     </row>
     <row r="576">
@@ -6700,7 +6700,7 @@
         <v>4.281450412237062</v>
       </c>
       <c r="C576" t="n">
-        <v>2.898896849248368e-06</v>
+        <v>2.917125833830777e-06</v>
       </c>
     </row>
     <row r="577">
@@ -6711,7 +6711,7 @@
         <v>4.282367619719926</v>
       </c>
       <c r="C577" t="n">
-        <v>2.826396300577179e-06</v>
+        <v>2.842905882034304e-06</v>
       </c>
     </row>
     <row r="578">
@@ -6722,7 +6722,7 @@
         <v>4.283284827202792</v>
       </c>
       <c r="C578" t="n">
-        <v>2.750924004404262e-06</v>
+        <v>2.765689684443292e-06</v>
       </c>
     </row>
     <row r="579">
@@ -6733,7 +6733,7 @@
         <v>4.284202034685656</v>
       </c>
       <c r="C579" t="n">
-        <v>2.673332115345715e-06</v>
+        <v>2.686370921286043e-06</v>
       </c>
     </row>
     <row r="580">
@@ -6744,7 +6744,7 @@
         <v>4.285119242168521</v>
       </c>
       <c r="C580" t="n">
-        <v>2.594476178638945e-06</v>
+        <v>2.605846639928982e-06</v>
       </c>
     </row>
     <row r="581">
@@ -6755,7 +6755,7 @@
         <v>4.286036449651386</v>
       </c>
       <c r="C581" t="n">
-        <v>2.515211739521654e-06</v>
+        <v>2.525013887738843e-06</v>
       </c>
     </row>
     <row r="582">
@@ -6766,7 +6766,7 @@
         <v>4.286953657134251</v>
       </c>
       <c r="C582" t="n">
-        <v>2.436394343231469e-06</v>
+        <v>2.444769712082278e-06</v>
       </c>
     </row>
     <row r="583">
@@ -6777,7 +6777,7 @@
         <v>4.287870864617116</v>
       </c>
       <c r="C583" t="n">
-        <v>2.358879535006018e-06</v>
+        <v>2.366011160325945e-06</v>
       </c>
     </row>
     <row r="584">
@@ -6788,7 +6788,7 @@
         <v>4.28878807209998</v>
       </c>
       <c r="C584" t="n">
-        <v>2.28352286008293e-06</v>
+        <v>2.289635279836497e-06</v>
       </c>
     </row>
     <row r="585">
@@ -6799,7 +6799,7 @@
         <v>4.289705279582845</v>
       </c>
       <c r="C585" t="n">
-        <v>2.211179863699833e-06</v>
+        <v>2.216539117980592e-06</v>
       </c>
     </row>
     <row r="586">
@@ -6810,7 +6810,7 @@
         <v>4.29062248706571</v>
       </c>
       <c r="C586" t="n">
-        <v>2.142692069639798e-06</v>
+        <v>2.147604657241758e-06</v>
       </c>
     </row>
     <row r="587">
@@ -6821,7 +6821,7 @@
         <v>4.291539694548575</v>
       </c>
       <c r="C587" t="n">
-        <v>2.078384092781635e-06</v>
+        <v>2.083158504611158e-06</v>
       </c>
     </row>
     <row r="588">
@@ -6832,7 +6832,7 @@
         <v>4.29245690203144</v>
       </c>
       <c r="C588" t="n">
-        <v>2.017924924792264e-06</v>
+        <v>2.022822854636841e-06</v>
       </c>
     </row>
     <row r="589">
@@ -6843,7 +6843,7 @@
         <v>4.293374109514305</v>
       </c>
       <c r="C589" t="n">
-        <v>1.960941300636738e-06</v>
+        <v>1.966174500566145e-06</v>
       </c>
     </row>
     <row r="590">
@@ -6854,7 +6854,7 @@
         <v>4.29429131699717</v>
       </c>
       <c r="C590" t="n">
-        <v>1.90705995528011e-06</v>
+        <v>1.912790235646404e-06</v>
       </c>
     </row>
     <row r="591">
@@ -6865,7 +6865,7 @@
         <v>4.295208524480035</v>
       </c>
       <c r="C591" t="n">
-        <v>1.855907623687433e-06</v>
+        <v>1.862246853124955e-06</v>
       </c>
     </row>
     <row r="592">
@@ -6876,7 +6876,7 @@
         <v>4.2961257319629</v>
       </c>
       <c r="C592" t="n">
-        <v>1.807111040823761e-06</v>
+        <v>1.814121146249134e-06</v>
       </c>
     </row>
     <row r="593">
@@ -6887,7 +6887,7 @@
         <v>4.297042939445765</v>
       </c>
       <c r="C593" t="n">
-        <v>1.760296941654147e-06</v>
+        <v>1.767989908266278e-06</v>
       </c>
     </row>
     <row r="594">
@@ -6898,7 +6898,7 @@
         <v>4.29796014692863</v>
       </c>
       <c r="C594" t="n">
-        <v>1.715092061143642e-06</v>
+        <v>1.72342993242372e-06</v>
       </c>
     </row>
     <row r="595">
@@ -6909,7 +6909,7 @@
         <v>4.298877354411495</v>
       </c>
       <c r="C595" t="n">
-        <v>1.671123134257302e-06</v>
+        <v>1.680018011968797e-06</v>
       </c>
     </row>
     <row r="596">
@@ -6920,7 +6920,7 @@
         <v>4.29979456189436</v>
       </c>
       <c r="C596" t="n">
-        <v>1.628016895960177e-06</v>
+        <v>1.637330940148845e-06</v>
       </c>
     </row>
     <row r="597">
@@ -6931,7 +6931,7 @@
         <v>4.300711769377225</v>
       </c>
       <c r="C597" t="n">
-        <v>1.585400081217323e-06</v>
+        <v>1.594945510211201e-06</v>
       </c>
     </row>
     <row r="598">
@@ -6942,7 +6942,7 @@
         <v>4.30162897686009</v>
       </c>
       <c r="C598" t="n">
-        <v>1.542899424993791e-06</v>
+        <v>1.5524385154032e-06</v>
       </c>
     </row>
     <row r="599">
@@ -6953,7 +6953,7 @@
         <v>4.302546184342955</v>
       </c>
       <c r="C599" t="n">
-        <v>1.500141662254635e-06</v>
+        <v>1.509386748972177e-06</v>
       </c>
     </row>
     <row r="600">
@@ -6964,7 +6964,7 @@
         <v>4.30346339182582</v>
       </c>
       <c r="C600" t="n">
-        <v>1.456753984951696e-06</v>
+        <v>1.465367512452673e-06</v>
       </c>
     </row>
     <row r="601">
@@ -6975,7 +6975,7 @@
         <v>4.304380599308685</v>
       </c>
       <c r="C601" t="n">
-        <v>1.412791869397054e-06</v>
+        <v>1.420434470079892e-06</v>
       </c>
     </row>
     <row r="602">
@@ -6986,7 +6986,7 @@
         <v>4.305297806791549</v>
       </c>
       <c r="C602" t="n">
-        <v>1.369533728757816e-06</v>
+        <v>1.37600150737443e-06</v>
       </c>
     </row>
     <row r="603">
@@ -6997,7 +6997,7 @@
         <v>4.306215014274414</v>
       </c>
       <c r="C603" t="n">
-        <v>1.328474840194513e-06</v>
+        <v>1.333723718565802e-06</v>
       </c>
     </row>
     <row r="604">
@@ -7008,7 +7008,7 @@
         <v>4.307132221757279</v>
       </c>
       <c r="C604" t="n">
-        <v>1.29111048086767e-06</v>
+        <v>1.295256197883519e-06</v>
       </c>
     </row>
     <row r="605">
@@ -7019,7 +7019,7 @@
         <v>4.308049429240144</v>
       </c>
       <c r="C605" t="n">
-        <v>1.258935927937816e-06</v>
+        <v>1.262254039557093e-06</v>
       </c>
     </row>
     <row r="606">
@@ -7030,7 +7030,7 @@
         <v>4.308966636723009</v>
       </c>
       <c r="C606" t="n">
-        <v>1.233446458565477e-06</v>
+        <v>1.236372337816037e-06</v>
       </c>
     </row>
     <row r="607">
@@ -7041,7 +7041,7 @@
         <v>4.309883844205874</v>
       </c>
       <c r="C607" t="n">
-        <v>1.216137349911182e-06</v>
+        <v>1.219266186889864e-06</v>
       </c>
     </row>
     <row r="608">
@@ -7052,7 +7052,7 @@
         <v>4.310801051688739</v>
       </c>
       <c r="C608" t="n">
-        <v>1.207308187377884e-06</v>
+        <v>1.211274237046911e-06</v>
       </c>
     </row>
     <row r="609">
@@ -7063,7 +7063,7 @@
         <v>4.311718259171604</v>
       </c>
       <c r="C609" t="n">
-        <v>1.201158142165462e-06</v>
+        <v>1.20601864712918e-06</v>
       </c>
     </row>
     <row r="610">
@@ -7074,7 +7074,7 @@
         <v>4.312635466654469</v>
       </c>
       <c r="C610" t="n">
-        <v>1.191392364531228e-06</v>
+        <v>1.196570354013676e-06</v>
       </c>
     </row>
     <row r="611">
@@ -7085,7 +7085,7 @@
         <v>4.313552674137334</v>
       </c>
       <c r="C611" t="n">
-        <v>1.178297404301165e-06</v>
+        <v>1.183213081587571e-06</v>
       </c>
     </row>
     <row r="612">
@@ -7096,7 +7096,7 @@
         <v>4.314469881620198</v>
       </c>
       <c r="C612" t="n">
-        <v>1.164031060715172e-06</v>
+        <v>1.168281322880238e-06</v>
       </c>
     </row>
     <row r="613">
@@ -7107,7 +7107,7 @@
         <v>4.315387089103064</v>
       </c>
       <c r="C613" t="n">
-        <v>1.15075126355485e-06</v>
+        <v>1.154109713986374e-06</v>
       </c>
     </row>
     <row r="614">
@@ -7118,7 +7118,7 @@
         <v>4.316304296585928</v>
       </c>
       <c r="C614" t="n">
-        <v>1.140615942601889e-06</v>
+        <v>1.143032891000766e-06</v>
       </c>
     </row>
     <row r="615">
@@ -7129,7 +7129,7 @@
         <v>4.317221504068794</v>
       </c>
       <c r="C615" t="n">
-        <v>1.135783027637896e-06</v>
+        <v>1.137385490018117e-06</v>
       </c>
     </row>
     <row r="616">
@@ -7140,7 +7140,7 @@
         <v>4.318138711551658</v>
       </c>
       <c r="C616" t="n">
-        <v>1.138410448444527e-06</v>
+        <v>1.139502147133183e-06</v>
       </c>
     </row>
     <row r="617">
@@ -7151,7 +7151,7 @@
         <v>4.319055919034523</v>
       </c>
       <c r="C617" t="n">
-        <v>1.15057307597234e-06</v>
+        <v>1.151626736214849e-06</v>
       </c>
     </row>
     <row r="618">
@@ -7162,7 +7162,7 @@
         <v>4.319973126517388</v>
       </c>
       <c r="C618" t="n">
-        <v>1.172267000916088e-06</v>
+        <v>1.173731551811569e-06</v>
       </c>
     </row>
     <row r="619">
@@ -7173,7 +7173,7 @@
         <v>4.320890334000253</v>
       </c>
       <c r="C619" t="n">
-        <v>1.201311420656675e-06</v>
+        <v>1.203410096475519e-06</v>
       </c>
     </row>
     <row r="620">
@@ -7184,7 +7184,7 @@
         <v>4.321807541483118</v>
       </c>
       <c r="C620" t="n">
-        <v>1.235422838048643e-06</v>
+        <v>1.23814365370072e-06</v>
       </c>
     </row>
     <row r="621">
@@ -7195,7 +7195,7 @@
         <v>4.322724748965983</v>
       </c>
       <c r="C621" t="n">
-        <v>1.272317755946531e-06</v>
+        <v>1.275413506981194e-06</v>
       </c>
     </row>
     <row r="622">
@@ -7206,7 +7206,7 @@
         <v>4.323641956448848</v>
       </c>
       <c r="C622" t="n">
-        <v>1.309806776132282e-06</v>
+        <v>1.312830092260285e-06</v>
       </c>
     </row>
     <row r="623">
@@ -7217,7 +7217,7 @@
         <v>4.324559163931712</v>
       </c>
       <c r="C623" t="n">
-        <v>1.346372746182978e-06</v>
+        <v>1.348926514776146e-06</v>
       </c>
     </row>
     <row r="624">
@@ -7228,7 +7228,7 @@
         <v>4.325476371414577</v>
       </c>
       <c r="C624" t="n">
-        <v>1.380790970020096e-06</v>
+        <v>1.382637281294457e-06</v>
       </c>
     </row>
     <row r="625">
@@ -7239,7 +7239,7 @@
         <v>4.326393578897442</v>
       </c>
       <c r="C625" t="n">
-        <v>1.411837951764401e-06</v>
+        <v>1.412898545875745e-06</v>
       </c>
     </row>
     <row r="626">
@@ -7250,7 +7250,7 @@
         <v>4.327310786380307</v>
       </c>
       <c r="C626" t="n">
-        <v>1.438290195536664e-06</v>
+        <v>1.43864646258054e-06</v>
       </c>
     </row>
     <row r="627">
@@ -7261,7 +7261,7 @@
         <v>4.328227993863172</v>
       </c>
       <c r="C627" t="n">
-        <v>1.458930186421182e-06</v>
+        <v>1.458822159938628e-06</v>
       </c>
     </row>
     <row r="628">
@@ -7272,7 +7272,7 @@
         <v>4.329145201346037</v>
       </c>
       <c r="C628" t="n">
-        <v>1.473010812827204e-06</v>
+        <v>1.472758008938763e-06</v>
       </c>
     </row>
     <row r="629">
@@ -7283,7 +7283,7 @@
         <v>4.330062408828902</v>
       </c>
       <c r="C629" t="n">
-        <v>1.480586688670362e-06</v>
+        <v>1.480453189331247e-06</v>
       </c>
     </row>
     <row r="630">
@@ -7294,7 +7294,7 @@
         <v>4.330979616311767</v>
       </c>
       <c r="C630" t="n">
-        <v>1.481790637368243e-06</v>
+        <v>1.481971929041501e-06</v>
       </c>
     </row>
     <row r="631">
@@ -7305,7 +7305,7 @@
         <v>4.331896823794632</v>
       </c>
       <c r="C631" t="n">
-        <v>1.476755482338431e-06</v>
+        <v>1.477378455994945e-06</v>
       </c>
     </row>
     <row r="632">
@@ -7316,7 +7316,7 @@
         <v>4.332814031277497</v>
       </c>
       <c r="C632" t="n">
-        <v>1.465614046998511e-06</v>
+        <v>1.466736998117e-06</v>
       </c>
     </row>
     <row r="633">
@@ -7327,7 +7327,7 @@
         <v>4.333731238760362</v>
       </c>
       <c r="C633" t="n">
-        <v>1.448516779358547e-06</v>
+        <v>1.450131900891897e-06</v>
       </c>
     </row>
     <row r="634">
@@ -7338,7 +7338,7 @@
         <v>4.334648446243227</v>
       </c>
       <c r="C634" t="n">
-        <v>1.42587943252588e-06</v>
+        <v>1.427950341821299e-06</v>
       </c>
     </row>
     <row r="635">
@@ -7349,7 +7349,7 @@
         <v>4.335565653726092</v>
       </c>
       <c r="C635" t="n">
-        <v>1.39832280773699e-06</v>
+        <v>1.400813550218371e-06</v>
       </c>
     </row>
     <row r="636">
@@ -7360,7 +7360,7 @@
         <v>4.336482861208957</v>
       </c>
       <c r="C636" t="n">
-        <v>1.36647302811254e-06</v>
+        <v>1.369348830051232e-06</v>
       </c>
     </row>
     <row r="637">
@@ -7371,7 +7371,7 @@
         <v>4.337400068691822</v>
       </c>
       <c r="C637" t="n">
-        <v>1.330956216773191e-06</v>
+        <v>1.334183485287999e-06</v>
       </c>
     </row>
     <row r="638">
@@ -7382,7 +7382,7 @@
         <v>4.338317276174687</v>
       </c>
       <c r="C638" t="n">
-        <v>1.292398496839605e-06</v>
+        <v>1.295944819896789e-06</v>
       </c>
     </row>
     <row r="639">
@@ -7393,7 +7393,7 @@
         <v>4.339234483657552</v>
       </c>
       <c r="C639" t="n">
-        <v>1.251425991432445e-06</v>
+        <v>1.255260137845722e-06</v>
       </c>
     </row>
     <row r="640">
@@ -7404,7 +7404,7 @@
         <v>4.340151691140417</v>
       </c>
       <c r="C640" t="n">
-        <v>1.208664823672373e-06</v>
+        <v>1.212756743102917e-06</v>
       </c>
     </row>
     <row r="641">
@@ -7415,7 +7415,7 @@
         <v>4.341068898623281</v>
       </c>
       <c r="C641" t="n">
-        <v>1.16474111668005e-06</v>
+        <v>1.16906193963649e-06</v>
       </c>
     </row>
     <row r="642">
@@ -7426,7 +7426,7 @@
         <v>4.341986106106146</v>
       </c>
       <c r="C642" t="n">
-        <v>1.120279738214445e-06</v>
+        <v>1.124801772760398e-06</v>
       </c>
     </row>
     <row r="643">
@@ -7437,7 +7437,7 @@
         <v>4.342903313589011</v>
       </c>
       <c r="C643" t="n">
-        <v>1.075760997347588e-06</v>
+        <v>1.080457349963938e-06</v>
       </c>
     </row>
     <row r="644">
@@ -7448,7 +7448,7 @@
         <v>4.343820521071876</v>
       </c>
       <c r="C644" t="n">
-        <v>1.031388312434266e-06</v>
+        <v>1.036232161810887e-06</v>
       </c>
     </row>
     <row r="645">
@@ -7459,7 +7459,7 @@
         <v>4.344737728554741</v>
       </c>
       <c r="C645" t="n">
-        <v>9.873338215372404e-07</v>
+        <v>9.922983365333854e-07</v>
       </c>
     </row>
     <row r="646">
@@ -7470,7 +7470,7 @@
         <v>4.345654936037606</v>
       </c>
       <c r="C646" t="n">
-        <v>9.437696627192752e-07</v>
+        <v>9.48828002363575e-07</v>
       </c>
     </row>
     <row r="647">
@@ -7481,7 +7481,7 @@
         <v>4.346572143520471</v>
       </c>
       <c r="C647" t="n">
-        <v>9.008679740431334e-07</v>
+        <v>9.059932875335969e-07</v>
       </c>
     </row>
     <row r="648">
@@ -7492,7 +7492,7 @@
         <v>4.347489351003336</v>
       </c>
       <c r="C648" t="n">
-        <v>8.588008935715778e-07</v>
+        <v>8.63966320275592e-07</v>
       </c>
     </row>
     <row r="649">
@@ -7503,7 +7503,7 @@
         <v>4.3484065584862</v>
       </c>
       <c r="C649" t="n">
-        <v>8.177405593674107e-07</v>
+        <v>8.229192288217408e-07</v>
       </c>
     </row>
     <row r="650">
@@ -7514,7 +7514,7 @@
         <v>4.349323765969066</v>
       </c>
       <c r="C650" t="n">
-        <v>7.778591094932775e-07</v>
+        <v>7.830241414040666e-07</v>
       </c>
     </row>
     <row r="651">
@@ -7525,7 +7525,7 @@
         <v>4.35024097345193</v>
       </c>
       <c r="C651" t="n">
-        <v>7.393286820120953e-07</v>
+        <v>7.444531862548652e-07</v>
       </c>
     </row>
     <row r="652">
@@ -7536,7 +7536,7 @@
         <v>4.351158180934796</v>
       </c>
       <c r="C652" t="n">
-        <v>7.023214149864784e-07</v>
+        <v>7.073784916061281e-07</v>
       </c>
     </row>
     <row r="653">
@@ -7547,7 +7547,7 @@
         <v>4.35207538841766</v>
       </c>
       <c r="C653" t="n">
-        <v>6.670094464793325e-07</v>
+        <v>6.719721856901403e-07</v>
       </c>
     </row>
     <row r="654">
@@ -7558,7 +7558,7 @@
         <v>4.352992595900525</v>
       </c>
       <c r="C654" t="n">
-        <v>6.33564914553316e-07</v>
+        <v>6.384063967389374e-07</v>
       </c>
     </row>
     <row r="655">
@@ -7569,7 +7569,7 @@
         <v>4.35390980338339</v>
       </c>
       <c r="C655" t="n">
-        <v>6.021599572712266e-07</v>
+        <v>6.068532529846956e-07</v>
       </c>
     </row>
     <row r="656">
@@ -7580,7 +7580,7 @@
         <v>4.354827010866255</v>
       </c>
       <c r="C656" t="n">
-        <v>5.72966562926438e-07</v>
+        <v>5.774847354276058e-07</v>
       </c>
     </row>
     <row r="657">
@@ -7591,7 +7591,7 @@
         <v>4.35574421834912</v>
       </c>
       <c r="C657" t="n">
-        <v>5.460854887625129e-07</v>
+        <v>5.50402800836299e-07</v>
       </c>
     </row>
     <row r="658">
@@ -7602,7 +7602,7 @@
         <v>4.356661425831985</v>
       </c>
       <c r="C658" t="n">
-        <v>5.214325071029076e-07</v>
+        <v>5.255275551304475e-07</v>
       </c>
     </row>
     <row r="659">
@@ -7613,7 +7613,7 @@
         <v>4.35757863331485</v>
       </c>
       <c r="C659" t="n">
-        <v>4.988937495217359e-07</v>
+        <v>5.027499656630292e-07</v>
       </c>
     </row>
     <row r="660">
@@ -7624,7 +7624,7 @@
         <v>4.358495840797715</v>
       </c>
       <c r="C660" t="n">
-        <v>4.783553475931107e-07</v>
+        <v>4.81960999787022e-07</v>
       </c>
     </row>
     <row r="661">
@@ -7635,7 +7635,7 @@
         <v>4.35941304828058</v>
       </c>
       <c r="C661" t="n">
-        <v>4.597034328911459e-07</v>
+        <v>4.630516248554039e-07</v>
       </c>
     </row>
     <row r="662">
@@ -7646,7 +7646,7 @@
         <v>4.360330255763444</v>
       </c>
       <c r="C662" t="n">
-        <v>4.428241369899542e-07</v>
+        <v>4.459128082211529e-07</v>
       </c>
     </row>
     <row r="663">
@@ -7657,7 +7657,7 @@
         <v>4.361247463246309</v>
       </c>
       <c r="C663" t="n">
-        <v>4.276035914636495e-07</v>
+        <v>4.304355172372468e-07</v>
       </c>
     </row>
     <row r="664">
@@ -7668,7 +7668,7 @@
         <v>4.362164670729174</v>
       </c>
       <c r="C664" t="n">
-        <v>4.139279278863448e-07</v>
+        <v>4.165107192566635e-07</v>
       </c>
     </row>
     <row r="665">
@@ -7679,7 +7679,7 @@
         <v>4.363081878212039</v>
       </c>
       <c r="C665" t="n">
-        <v>4.016832778321533e-07</v>
+        <v>4.040293816323809e-07</v>
       </c>
     </row>
     <row r="666">
@@ -7690,7 +7690,7 @@
         <v>4.363999085694904</v>
       </c>
       <c r="C666" t="n">
-        <v>3.907557728751887e-07</v>
+        <v>3.928824717173771e-07</v>
       </c>
     </row>
     <row r="667">
@@ -7701,7 +7701,7 @@
         <v>4.364916293177769</v>
       </c>
       <c r="C667" t="n">
-        <v>3.810315445895642e-07</v>
+        <v>3.8296095686463e-07</v>
       </c>
     </row>
     <row r="668">
@@ -7712,7 +7712,7 @@
         <v>4.365833500660634</v>
       </c>
       <c r="C668" t="n">
-        <v>3.72396724549393e-07</v>
+        <v>3.741558044271174e-07</v>
       </c>
     </row>
     <row r="669">
@@ -7723,7 +7723,7 @@
         <v>4.366750708143499</v>
       </c>
       <c r="C669" t="n">
-        <v>3.647374443287886e-07</v>
+        <v>3.663579817578173e-07</v>
       </c>
     </row>
     <row r="670">
@@ -7734,7 +7734,7 @@
         <v>4.367667915626364</v>
       </c>
       <c r="C670" t="n">
-        <v>3.579477358999622e-07</v>
+        <v>3.594643216517317e-07</v>
       </c>
     </row>
     <row r="671">
@@ -7745,7 +7745,7 @@
         <v>4.368585123109229</v>
       </c>
       <c r="C671" t="n">
-        <v>3.519828463270473e-07</v>
+        <v>3.534171044329879e-07</v>
       </c>
     </row>
     <row r="672">
@@ -7756,7 +7756,7 @@
         <v>4.369502330592094</v>
       </c>
       <c r="C672" t="n">
-        <v>3.468266057538143e-07</v>
+        <v>3.481798311786929e-07</v>
       </c>
     </row>
     <row r="673">
@@ -7767,7 +7767,7 @@
         <v>4.370419538074959</v>
       </c>
       <c r="C673" t="n">
-        <v>3.424630056204006e-07</v>
+        <v>3.437161227161834e-07</v>
       </c>
     </row>
     <row r="674">
@@ -7778,7 +7778,7 @@
         <v>4.371336745557824</v>
       </c>
       <c r="C674" t="n">
-        <v>3.38876037366943e-07</v>
+        <v>3.399895998727961e-07</v>
       </c>
     </row>
     <row r="675">
@@ -7789,7 +7789,7 @@
         <v>4.372253953040689</v>
       </c>
       <c r="C675" t="n">
-        <v>3.360496924335794e-07</v>
+        <v>3.369638834758681e-07</v>
       </c>
     </row>
     <row r="676">
@@ -7800,7 +7800,7 @@
         <v>4.373171160523554</v>
       </c>
       <c r="C676" t="n">
-        <v>3.339679622604467e-07</v>
+        <v>3.346025943527362e-07</v>
       </c>
     </row>
     <row r="677">
@@ -7811,7 +7811,7 @@
         <v>4.374088368006419</v>
       </c>
       <c r="C677" t="n">
-        <v>3.326148382876823e-07</v>
+        <v>3.32869353330737e-07</v>
       </c>
     </row>
     <row r="678">
@@ -7822,7 +7822,7 @@
         <v>4.375005575489284</v>
       </c>
       <c r="C678" t="n">
-        <v>3.319743119554235e-07</v>
+        <v>3.317277812372076e-07</v>
       </c>
     </row>
     <row r="679">
@@ -7833,7 +7833,7 @@
         <v>4.375922782972149</v>
       </c>
       <c r="C679" t="n">
-        <v>3.319359497754881e-07</v>
+        <v>3.310695603111395e-07</v>
       </c>
     </row>
     <row r="680">
@@ -7844,7 +7844,7 @@
         <v>4.376839990455013</v>
       </c>
       <c r="C680" t="n">
-        <v>3.318925487118048e-07</v>
+        <v>3.304079038782412e-07</v>
       </c>
     </row>
     <row r="681">
@@ -7855,7 +7855,7 @@
         <v>4.377757197937878</v>
       </c>
       <c r="C681" t="n">
-        <v>3.310741171518802e-07</v>
+        <v>3.291320031379146e-07</v>
       </c>
     </row>
     <row r="682">
@@ -7866,7 +7866,7 @@
         <v>4.378674405420743</v>
       </c>
       <c r="C682" t="n">
-        <v>3.287105690582922e-07</v>
+        <v>3.266309773509728e-07</v>
       </c>
     </row>
     <row r="683">
@@ -7877,7 +7877,7 @@
         <v>4.379591612903608</v>
       </c>
       <c r="C683" t="n">
-        <v>3.240319536915764e-07</v>
+        <v>3.222940708333016e-07</v>
       </c>
     </row>
     <row r="684">
@@ -7888,7 +7888,7 @@
         <v>4.380508820386473</v>
       </c>
       <c r="C684" t="n">
-        <v>3.17485313533343e-07</v>
+        <v>3.166353872701478e-07</v>
       </c>
     </row>
     <row r="685">
@@ -7899,7 +7899,7 @@
         <v>4.381426027869338</v>
       </c>
       <c r="C685" t="n">
-        <v>3.132912664573815e-07</v>
+        <v>3.136141622312817e-07</v>
       </c>
     </row>
     <row r="686">
@@ -7910,7 +7910,7 @@
         <v>4.382343235352202</v>
       </c>
       <c r="C686" t="n">
-        <v>3.114628602558611e-07</v>
+        <v>3.127702117820266e-07</v>
       </c>
     </row>
     <row r="687">
@@ -7921,7 +7921,7 @@
         <v>4.383260442835068</v>
       </c>
       <c r="C687" t="n">
-        <v>3.085861541046375e-07</v>
+        <v>3.101248211116361e-07</v>
       </c>
     </row>
     <row r="688">
@@ -7932,7 +7932,7 @@
         <v>4.384177650317932</v>
       </c>
       <c r="C688" t="n">
-        <v>3.030285925226238e-07</v>
+        <v>3.038763020599051e-07</v>
       </c>
     </row>
     <row r="689">
@@ -7943,7 +7943,7 @@
         <v>4.385094857800798</v>
       </c>
       <c r="C689" t="n">
-        <v>2.961788814845388e-07</v>
+        <v>2.958945732943398e-07</v>
       </c>
     </row>
     <row r="690">
@@ -7954,7 +7954,7 @@
         <v>4.386012065283662</v>
       </c>
       <c r="C690" t="n">
-        <v>2.897051550035315e-07</v>
+        <v>2.883891301489318e-07</v>
       </c>
     </row>
     <row r="691">
@@ -7965,7 +7965,7 @@
         <v>4.386929272766527</v>
       </c>
       <c r="C691" t="n">
-        <v>2.851809118088664e-07</v>
+        <v>2.834413558966662e-07</v>
       </c>
     </row>
     <row r="692">
@@ -7976,7 +7976,7 @@
         <v>4.387846480249392</v>
       </c>
       <c r="C692" t="n">
-        <v>2.826181891423225e-07</v>
+        <v>2.810188128217218e-07</v>
       </c>
     </row>
     <row r="693">
@@ -7987,7 +7987,7 @@
         <v>4.388763687732257</v>
       </c>
       <c r="C693" t="n">
-        <v>2.80747991704661e-07</v>
+        <v>2.793548715588243e-07</v>
       </c>
     </row>
     <row r="694">
@@ -7998,7 +7998,7 @@
         <v>4.389680895215122</v>
       </c>
       <c r="C694" t="n">
-        <v>2.783469439742453e-07</v>
+        <v>2.767565068620436e-07</v>
       </c>
     </row>
     <row r="695">
@@ -8009,7 +8009,7 @@
         <v>4.390598102697987</v>
       </c>
       <c r="C695" t="n">
-        <v>2.75118962967906e-07</v>
+        <v>2.72917603405788e-07</v>
       </c>
     </row>
     <row r="696">
@@ -8020,7 +8020,7 @@
         <v>4.391515310180852</v>
       </c>
       <c r="C696" t="n">
-        <v>2.713463447634893e-07</v>
+        <v>2.683971015229152e-07</v>
       </c>
     </row>
     <row r="697">
@@ -8031,7 +8031,7 @@
         <v>4.392432517663717</v>
       </c>
       <c r="C697" t="n">
-        <v>2.67320029892455e-07</v>
+        <v>2.637668188164549e-07</v>
       </c>
     </row>
     <row r="698">
@@ -8042,7 +8042,7 @@
         <v>4.393349725146582</v>
       </c>
       <c r="C698" t="n">
-        <v>2.632369997251046e-07</v>
+        <v>2.594233375945292e-07</v>
       </c>
     </row>
     <row r="699">
@@ -8053,7 +8053,7 @@
         <v>4.394266932629447</v>
       </c>
       <c r="C699" t="n">
-        <v>2.590374793242991e-07</v>
+        <v>2.55284385664019e-07</v>
       </c>
     </row>
     <row r="700">
@@ -8064,7 +8064,7 @@
         <v>4.395184140112312</v>
       </c>
       <c r="C700" t="n">
-        <v>2.546182365654178e-07</v>
+        <v>2.511866425021857e-07</v>
       </c>
     </row>
     <row r="701">
@@ -8075,7 +8075,7 @@
         <v>4.396101347595176</v>
       </c>
       <c r="C701" t="n">
-        <v>2.498760393238393e-07</v>
+        <v>2.469667875862908e-07</v>
       </c>
     </row>
     <row r="702">
@@ -8086,7 +8086,7 @@
         <v>4.397018555078041</v>
       </c>
       <c r="C702" t="n">
-        <v>2.447076554749423e-07</v>
+        <v>2.424615003935954e-07</v>
       </c>
     </row>
     <row r="703">
@@ -8097,7 +8097,7 @@
         <v>4.397935762560906</v>
       </c>
       <c r="C703" t="n">
-        <v>2.390098528941058e-07</v>
+        <v>2.37507460401361e-07</v>
       </c>
     </row>
     <row r="704">
@@ -8108,7 +8108,7 @@
         <v>4.398852970043771</v>
       </c>
       <c r="C704" t="n">
-        <v>2.326793994567086e-07</v>
+        <v>2.319413470868489e-07</v>
       </c>
     </row>
     <row r="705">
@@ -8119,7 +8119,7 @@
         <v>4.399770177526636</v>
       </c>
       <c r="C705" t="n">
-        <v>2.256130630381294e-07</v>
+        <v>2.255998399273205e-07</v>
       </c>
     </row>
     <row r="706">
@@ -8130,7 +8130,7 @@
         <v>4.400687385009501</v>
       </c>
       <c r="C706" t="n">
-        <v>2.177076115137471e-07</v>
+        <v>2.18319618400037e-07</v>
       </c>
     </row>
     <row r="707">
@@ -8141,7 +8141,7 @@
         <v>4.401604592492366</v>
       </c>
       <c r="C707" t="n">
-        <v>2.089721938001993e-07</v>
+        <v>2.100554292421688e-07</v>
       </c>
     </row>
     <row r="708">
@@ -8152,7 +8152,7 @@
         <v>4.402521799975231</v>
       </c>
       <c r="C708" t="n">
-        <v>2.002867270571526e-07</v>
+        <v>2.016768462766524e-07</v>
       </c>
     </row>
     <row r="709">
@@ -8163,7 +8163,7 @@
         <v>4.403439007458096</v>
       </c>
       <c r="C709" t="n">
-        <v>1.929377150759997e-07</v>
+        <v>1.944806022936823e-07</v>
       </c>
     </row>
     <row r="710">
@@ -8174,7 +8174,7 @@
         <v>4.404356214940961</v>
       </c>
       <c r="C710" t="n">
-        <v>1.882139560456381e-07</v>
+        <v>1.89765840572122e-07</v>
       </c>
     </row>
     <row r="711">
@@ -8185,7 +8185,7 @@
         <v>4.405273422423826</v>
       </c>
       <c r="C711" t="n">
-        <v>1.874042481549656e-07</v>
+        <v>1.888317043908351e-07</v>
       </c>
     </row>
     <row r="712">
@@ -8196,7 +8196,7 @@
         <v>4.406190629906691</v>
       </c>
       <c r="C712" t="n">
-        <v>1.91797165676745e-07</v>
+        <v>1.929771157081386e-07</v>
       </c>
     </row>
     <row r="713">
@@ -8207,7 +8207,7 @@
         <v>4.407107837389556</v>
       </c>
       <c r="C713" t="n">
-        <v>2.022292246467394e-07</v>
+        <v>2.030541784086583e-07</v>
       </c>
     </row>
     <row r="714">
@@ -8218,7 +8218,7 @@
         <v>4.408025044872421</v>
       </c>
       <c r="C714" t="n">
-        <v>2.18136794146575e-07</v>
+        <v>2.185310796297334e-07</v>
       </c>
     </row>
     <row r="715">
@@ -8229,7 +8229,7 @@
         <v>4.408942252355286</v>
       </c>
       <c r="C715" t="n">
-        <v>2.386859878769869e-07</v>
+        <v>2.386088838709306e-07</v>
       </c>
     </row>
     <row r="716">
@@ -8240,7 +8240,7 @@
         <v>4.409859459838151</v>
       </c>
       <c r="C716" t="n">
-        <v>2.630429195387105e-07</v>
+        <v>2.62488655631816e-07</v>
       </c>
     </row>
     <row r="717">
@@ -8251,7 +8251,7 @@
         <v>4.410776667321016</v>
       </c>
       <c r="C717" t="n">
-        <v>2.903737028324809e-07</v>
+        <v>2.893714594119562e-07</v>
       </c>
     </row>
     <row r="718">
@@ -8262,7 +8262,7 @@
         <v>4.411693874803881</v>
       </c>
       <c r="C718" t="n">
-        <v>3.198444514590338e-07</v>
+        <v>3.184583597109176e-07</v>
       </c>
     </row>
     <row r="719">
@@ -8273,7 +8273,7 @@
         <v>4.412611082286745</v>
       </c>
       <c r="C719" t="n">
-        <v>3.506212791191041e-07</v>
+        <v>3.489504210282667e-07</v>
       </c>
     </row>
     <row r="720">
@@ -8284,7 +8284,7 @@
         <v>4.41352828976961</v>
       </c>
       <c r="C720" t="n">
-        <v>3.818702995134273e-07</v>
+        <v>3.800487078635698e-07</v>
       </c>
     </row>
     <row r="721">
@@ -8295,7 +8295,7 @@
         <v>4.414445497252475</v>
       </c>
       <c r="C721" t="n">
-        <v>4.127493494045275e-07</v>
+        <v>4.109419843973049e-07</v>
       </c>
     </row>
     <row r="722">
@@ -8306,7 +8306,7 @@
         <v>4.41536270473534</v>
       </c>
       <c r="C722" t="n">
-        <v>4.42323489587532e-07</v>
+        <v>4.406811408795633e-07</v>
       </c>
     </row>
     <row r="723">
@@ -8317,7 +8317,7 @@
         <v>4.416279912218204</v>
       </c>
       <c r="C723" t="n">
-        <v>4.695995209138176e-07</v>
+        <v>4.682304877310557e-07</v>
       </c>
     </row>
     <row r="724">
@@ -8328,7 +8328,7 @@
         <v>4.41719711970107</v>
       </c>
       <c r="C724" t="n">
-        <v>4.935833424659888e-07</v>
+        <v>4.925529952580993e-07</v>
       </c>
     </row>
     <row r="725">
@@ -8339,7 +8339,7 @@
         <v>4.418114327183934</v>
       </c>
       <c r="C725" t="n">
-        <v>5.13280853326484e-07</v>
+        <v>5.12611633766842e-07</v>
       </c>
     </row>
     <row r="726">
@@ -8350,7 +8350,7 @@
         <v>4.4190315346668</v>
       </c>
       <c r="C726" t="n">
-        <v>5.277037426490934e-07</v>
+        <v>5.273753048138852e-07</v>
       </c>
     </row>
     <row r="727">
@@ -8361,7 +8361,7 @@
         <v>4.419948742149664</v>
       </c>
       <c r="C727" t="n">
-        <v>5.365144020002262e-07</v>
+        <v>5.364794784220744e-07</v>
       </c>
     </row>
     <row r="728">
@@ -8372,7 +8372,7 @@
         <v>4.420865949632529</v>
       </c>
       <c r="C728" t="n">
-        <v>5.406129982719093e-07</v>
+        <v>5.4082758057131e-07</v>
       </c>
     </row>
     <row r="729">
@@ -8383,7 +8383,7 @@
         <v>4.421783157115394</v>
       </c>
       <c r="C729" t="n">
-        <v>5.410383501136794e-07</v>
+        <v>5.414650697398413e-07</v>
       </c>
     </row>
     <row r="730">
@@ -8394,7 +8394,7 @@
         <v>4.422700364598259</v>
       </c>
       <c r="C730" t="n">
-        <v>5.388292761750849e-07</v>
+        <v>5.394374044059289e-07</v>
       </c>
     </row>
     <row r="731">
@@ -8405,7 +8405,7 @@
         <v>4.423617572081124</v>
       </c>
       <c r="C731" t="n">
-        <v>5.350193302828841e-07</v>
+        <v>5.357847588196269e-07</v>
       </c>
     </row>
     <row r="732">
@@ -8416,7 +8416,7 @@
         <v>4.424534779563989</v>
       </c>
       <c r="C732" t="n">
-        <v>5.302524495996901e-07</v>
+        <v>5.311562544931287e-07</v>
       </c>
     </row>
     <row r="733">
@@ -8427,7 +8427,7 @@
         <v>4.425451987046854</v>
       </c>
       <c r="C733" t="n">
-        <v>5.245219602307938e-07</v>
+        <v>5.255480038179645e-07</v>
       </c>
     </row>
     <row r="734">
@@ -8438,7 +8438,7 @@
         <v>4.426369194529719</v>
       </c>
       <c r="C734" t="n">
-        <v>5.177593829801389e-07</v>
+        <v>5.188940860784337e-07</v>
       </c>
     </row>
     <row r="735">
@@ -8449,7 +8449,7 @@
         <v>4.427286402012584</v>
       </c>
       <c r="C735" t="n">
-        <v>5.098962386516696e-07</v>
+        <v>5.111285805588363e-07</v>
       </c>
     </row>
     <row r="736">
@@ -8460,7 +8460,7 @@
         <v>4.428203609495449</v>
       </c>
       <c r="C736" t="n">
-        <v>5.008640480493301e-07</v>
+        <v>5.02185566543472e-07</v>
       </c>
     </row>
     <row r="737">
@@ -8471,7 +8471,7 @@
         <v>4.429120816978314</v>
       </c>
       <c r="C737" t="n">
-        <v>4.905943319770649e-07</v>
+        <v>4.919991233166401e-07</v>
       </c>
     </row>
     <row r="738">
@@ -8482,7 +8482,7 @@
         <v>4.430038024461179</v>
       </c>
       <c r="C738" t="n">
-        <v>4.790373668102952e-07</v>
+        <v>4.805218504993717e-07</v>
       </c>
     </row>
     <row r="739">
@@ -8493,7 +8493,7 @@
         <v>4.430955231944044</v>
       </c>
       <c r="C739" t="n">
-        <v>4.66298674826419e-07</v>
+        <v>4.678596465009628e-07</v>
       </c>
     </row>
     <row r="740">
@@ -8504,7 +8504,7 @@
         <v>4.431872439426908</v>
       </c>
       <c r="C740" t="n">
-        <v>4.525604458456102e-07</v>
+        <v>4.541941156994801e-07</v>
       </c>
     </row>
     <row r="741">
@@ -8515,7 +8515,7 @@
         <v>4.432789646909773</v>
       </c>
       <c r="C741" t="n">
-        <v>4.380054120025991e-07</v>
+        <v>4.397073979857701e-07</v>
       </c>
     </row>
     <row r="742">
@@ -8526,7 +8526,7 @@
         <v>4.433706854392638</v>
       </c>
       <c r="C742" t="n">
-        <v>4.228163054321163e-07</v>
+        <v>4.245816332506786e-07</v>
       </c>
     </row>
     <row r="743">
@@ -8537,7 +8537,7 @@
         <v>4.434624061875503</v>
       </c>
       <c r="C743" t="n">
-        <v>4.071758582688925e-07</v>
+        <v>4.08998961385052e-07</v>
       </c>
     </row>
     <row r="744">
@@ -8548,7 +8548,7 @@
         <v>4.435541269358368</v>
       </c>
       <c r="C744" t="n">
-        <v>3.912668026476582e-07</v>
+        <v>3.931415222797363e-07</v>
       </c>
     </row>
     <row r="745">
@@ -8559,7 +8559,7 @@
         <v>4.436458476841233</v>
       </c>
       <c r="C745" t="n">
-        <v>3.752718707031437e-07</v>
+        <v>3.771914558255774e-07</v>
       </c>
     </row>
     <row r="746">
@@ -8570,7 +8570,7 @@
         <v>4.437375684324098</v>
       </c>
       <c r="C746" t="n">
-        <v>3.593737945700796e-07</v>
+        <v>3.613309019134216e-07</v>
       </c>
     </row>
     <row r="747">
@@ -8581,7 +8581,7 @@
         <v>4.438292891806963</v>
       </c>
       <c r="C747" t="n">
-        <v>3.437553063831964e-07</v>
+        <v>3.457420004341148e-07</v>
       </c>
     </row>
     <row r="748">
@@ -8592,7 +8592,7 @@
         <v>4.439210099289828</v>
       </c>
       <c r="C748" t="n">
-        <v>3.285991382772247e-07</v>
+        <v>3.306068912785034e-07</v>
       </c>
     </row>
     <row r="749">
@@ -8603,7 +8603,7 @@
         <v>4.440127306772693</v>
       </c>
       <c r="C749" t="n">
-        <v>3.140880223868949e-07</v>
+        <v>3.161077143374331e-07</v>
       </c>
     </row>
     <row r="750">
@@ -8614,7 +8614,7 @@
         <v>4.441044514255558</v>
       </c>
       <c r="C750" t="n">
-        <v>3.003963368840343e-07</v>
+        <v>3.024183019573004e-07</v>
       </c>
     </row>
     <row r="751">
@@ -8625,7 +8625,7 @@
         <v>4.441961721738423</v>
       </c>
       <c r="C751" t="n">
-        <v>2.875822631205662e-07</v>
+        <v>2.895969353074789e-07</v>
       </c>
     </row>
     <row r="752">
@@ -8636,7 +8636,7 @@
         <v>4.442878929221288</v>
       </c>
       <c r="C752" t="n">
-        <v>2.756188327842369e-07</v>
+        <v>2.776172190237936e-07</v>
       </c>
     </row>
     <row r="753">
@@ -8647,7 +8647,7 @@
         <v>4.443796136704153</v>
       </c>
       <c r="C753" t="n">
-        <v>2.644771217596872e-07</v>
+        <v>2.664508128063052e-07</v>
       </c>
     </row>
     <row r="754">
@@ -8658,7 +8658,7 @@
         <v>4.444713344187018</v>
       </c>
       <c r="C754" t="n">
-        <v>2.541282059315585e-07</v>
+        <v>2.560693763550743e-07</v>
       </c>
     </row>
     <row r="755">
@@ -8669,7 +8669,7 @@
         <v>4.445630551669883</v>
       </c>
       <c r="C755" t="n">
-        <v>2.445431611844923e-07</v>
+        <v>2.464445693701614e-07</v>
       </c>
     </row>
     <row r="756">
@@ -8680,7 +8680,7 @@
         <v>4.446547759152748</v>
       </c>
       <c r="C756" t="n">
-        <v>2.356930634031296e-07</v>
+        <v>2.375480515516271e-07</v>
       </c>
     </row>
     <row r="757">
@@ -8691,7 +8691,7 @@
         <v>4.447464966635613</v>
       </c>
       <c r="C757" t="n">
-        <v>2.275489884721118e-07</v>
+        <v>2.293514825995318e-07</v>
       </c>
     </row>
     <row r="758">
@@ -8702,7 +8702,7 @@
         <v>4.448382174118477</v>
       </c>
       <c r="C758" t="n">
-        <v>2.200820122760801e-07</v>
+        <v>2.218265222139363e-07</v>
       </c>
     </row>
     <row r="759">
@@ -8713,7 +8713,7 @@
         <v>4.449299381601342</v>
       </c>
       <c r="C759" t="n">
-        <v>2.132632106996757e-07</v>
+        <v>2.149448300949009e-07</v>
       </c>
     </row>
     <row r="760">
@@ -8724,7 +8724,7 @@
         <v>4.450216589084206</v>
       </c>
       <c r="C760" t="n">
-        <v>2.070636596275456e-07</v>
+        <v>2.08678065942492e-07</v>
       </c>
     </row>
     <row r="761">
@@ -8735,7 +8735,7 @@
         <v>4.451133796567072</v>
       </c>
       <c r="C761" t="n">
-        <v>2.014544349443141e-07</v>
+        <v>2.02997889456753e-07</v>
       </c>
     </row>
     <row r="762">
@@ -8746,7 +8746,7 @@
         <v>4.452051004049936</v>
       </c>
       <c r="C762" t="n">
-        <v>1.96406612534644e-07</v>
+        <v>1.978759603377663e-07</v>
       </c>
     </row>
     <row r="763">
@@ -8757,7 +8757,7 @@
         <v>4.452968211532802</v>
       </c>
       <c r="C763" t="n">
-        <v>1.918912682831571e-07</v>
+        <v>1.932839382855727e-07</v>
       </c>
     </row>
     <row r="764">
@@ -8768,7 +8768,7 @@
         <v>4.453885419015666</v>
       </c>
       <c r="C764" t="n">
-        <v>1.878794780745121e-07</v>
+        <v>1.891934830002506e-07</v>
       </c>
     </row>
     <row r="765">
@@ -8779,7 +8779,7 @@
         <v>4.454802626498531</v>
       </c>
       <c r="C765" t="n">
-        <v>1.843423177933381e-07</v>
+        <v>1.855762541818478e-07</v>
       </c>
     </row>
     <row r="766">
@@ -8790,7 +8790,7 @@
         <v>4.455719833981396</v>
       </c>
       <c r="C766" t="n">
-        <v>1.812508633242802e-07</v>
+        <v>1.824039115304292e-07</v>
       </c>
     </row>
     <row r="767">
@@ -8801,7 +8801,7 @@
         <v>4.456637041464261</v>
       </c>
       <c r="C767" t="n">
-        <v>1.785761905519798e-07</v>
+        <v>1.796481147460552e-07</v>
       </c>
     </row>
     <row r="768">
@@ -8812,7 +8812,7 @@
         <v>4.457554248947126</v>
       </c>
       <c r="C768" t="n">
-        <v>1.762893753610782e-07</v>
+        <v>1.772805235287866e-07</v>
       </c>
     </row>
     <row r="769">
@@ -8823,7 +8823,7 @@
         <v>4.458471456429991</v>
       </c>
       <c r="C769" t="n">
-        <v>1.743614936362166e-07</v>
+        <v>1.752727975786837e-07</v>
       </c>
     </row>
     <row r="770">
@@ -8834,7 +8834,7 @@
         <v>4.459388663912856</v>
       </c>
       <c r="C770" t="n">
-        <v>1.727636212620362e-07</v>
+        <v>1.735965965958072e-07</v>
       </c>
     </row>
     <row r="771">
@@ -8845,7 +8845,7 @@
         <v>4.460305871395721</v>
       </c>
       <c r="C771" t="n">
-        <v>1.714668341231784e-07</v>
+        <v>1.722235802802177e-07</v>
       </c>
     </row>
     <row r="772">
@@ -8856,7 +8856,7 @@
         <v>4.461223078878586</v>
       </c>
       <c r="C772" t="n">
-        <v>1.704422081042844e-07</v>
+        <v>1.711254083319756e-07</v>
       </c>
     </row>
     <row r="773">
@@ -8867,7 +8867,7 @@
         <v>4.462140286361451</v>
       </c>
       <c r="C773" t="n">
-        <v>1.696608190899954e-07</v>
+        <v>1.702737404511416e-07</v>
       </c>
     </row>
     <row r="774">
@@ -8878,7 +8878,7 @@
         <v>4.463057493844316</v>
       </c>
       <c r="C774" t="n">
-        <v>1.690937429649528e-07</v>
+        <v>1.696402363377762e-07</v>
       </c>
     </row>
     <row r="775">
@@ -8889,7 +8889,7 @@
         <v>4.463974701327181</v>
       </c>
       <c r="C775" t="n">
-        <v>1.687120556137978e-07</v>
+        <v>1.691965556919399e-07</v>
       </c>
     </row>
     <row r="776">
@@ -8900,7 +8900,7 @@
         <v>4.464891908810046</v>
       </c>
       <c r="C776" t="n">
-        <v>1.684868329211716e-07</v>
+        <v>1.689143582136934e-07</v>
       </c>
     </row>
     <row r="777">
@@ -8911,7 +8911,7 @@
         <v>4.465809116292911</v>
       </c>
       <c r="C777" t="n">
-        <v>1.683891507717155e-07</v>
+        <v>1.687653036030972e-07</v>
       </c>
     </row>
     <row r="778">
@@ -8922,7 +8922,7 @@
         <v>4.466726323775775</v>
       </c>
       <c r="C778" t="n">
-        <v>1.683900850500708e-07</v>
+        <v>1.687210515602118e-07</v>
       </c>
     </row>
     <row r="779">
@@ -8933,7 +8933,7 @@
         <v>4.46764353125864</v>
       </c>
       <c r="C779" t="n">
-        <v>1.684607116408787e-07</v>
+        <v>1.687532617850977e-07</v>
       </c>
     </row>
     <row r="780">
@@ -8944,7 +8944,7 @@
         <v>4.468560738741505</v>
       </c>
       <c r="C780" t="n">
-        <v>1.685721064287805e-07</v>
+        <v>1.688335939778156e-07</v>
       </c>
     </row>
     <row r="781">
@@ -8955,7 +8955,7 @@
         <v>4.46947794622437</v>
       </c>
       <c r="C781" t="n">
-        <v>1.686953452984174e-07</v>
+        <v>1.689337078384259e-07</v>
       </c>
     </row>
     <row r="782">
@@ -8966,7 +8966,7 @@
         <v>4.470395153707235</v>
       </c>
       <c r="C782" t="n">
-        <v>1.688015041344308e-07</v>
+        <v>1.690252630669894e-07</v>
       </c>
     </row>
     <row r="783">
@@ -8977,7 +8977,7 @@
         <v>4.4713123611901</v>
       </c>
       <c r="C783" t="n">
-        <v>1.688616588214618e-07</v>
+        <v>1.690799193635664e-07</v>
       </c>
     </row>
     <row r="784">
@@ -8988,7 +8988,7 @@
         <v>4.472229568672965</v>
       </c>
       <c r="C784" t="n">
-        <v>1.688468852441518e-07</v>
+        <v>1.690693364282177e-07</v>
       </c>
     </row>
     <row r="785">
@@ -8999,7 +8999,7 @@
         <v>4.47314677615583</v>
       </c>
       <c r="C785" t="n">
-        <v>1.68728259287142e-07</v>
+        <v>1.689651739610036e-07</v>
       </c>
     </row>
     <row r="786">
@@ -9010,7 +9010,7 @@
         <v>4.474063983638695</v>
       </c>
       <c r="C786" t="n">
-        <v>1.684768568350737e-07</v>
+        <v>1.687390916619849e-07</v>
       </c>
     </row>
     <row r="787">
@@ -9021,7 +9021,7 @@
         <v>4.47498119112156</v>
       </c>
       <c r="C787" t="n">
-        <v>1.68063936099817e-07</v>
+        <v>1.683629260286034e-07</v>
       </c>
     </row>
     <row r="788">
@@ -9032,7 +9032,7 @@
         <v>4.475898398604425</v>
       </c>
       <c r="C788" t="n">
-        <v>1.674839633903622e-07</v>
+        <v>1.6783101777132e-07</v>
       </c>
     </row>
     <row r="789">
@@ -9043,7 +9043,7 @@
         <v>4.47681560608729</v>
       </c>
       <c r="C789" t="n">
-        <v>1.66777108790015e-07</v>
+        <v>1.671820252138679e-07</v>
       </c>
     </row>
     <row r="790">
@@ -9054,7 +9054,7 @@
         <v>4.477732813570155</v>
       </c>
       <c r="C790" t="n">
-        <v>1.659888824882767e-07</v>
+        <v>1.664597848247783e-07</v>
       </c>
     </row>
     <row r="791">
@@ -9065,7 +9065,7 @@
         <v>4.47865002105302</v>
       </c>
       <c r="C791" t="n">
-        <v>1.651647946746485e-07</v>
+        <v>1.657081330725822e-07</v>
       </c>
     </row>
     <row r="792">
@@ -9076,7 +9076,7 @@
         <v>4.479567228535885</v>
       </c>
       <c r="C792" t="n">
-        <v>1.643503555386318e-07</v>
+        <v>1.649709064258106e-07</v>
       </c>
     </row>
     <row r="793">
@@ -9087,7 +9087,7 @@
         <v>4.48048443601875</v>
       </c>
       <c r="C793" t="n">
-        <v>1.635910752697278e-07</v>
+        <v>1.642919413529947e-07</v>
       </c>
     </row>
     <row r="794">
@@ -9098,7 +9098,7 @@
         <v>4.481401643501615</v>
       </c>
       <c r="C794" t="n">
-        <v>1.629324640574377e-07</v>
+        <v>1.637150743226654e-07</v>
       </c>
     </row>
     <row r="795">
@@ -9109,7 +9109,7 @@
         <v>4.48231885098448</v>
       </c>
       <c r="C795" t="n">
-        <v>1.624200320912628e-07</v>
+        <v>1.632841418033538e-07</v>
       </c>
     </row>
     <row r="796">
@@ -9120,7 +9120,7 @@
         <v>4.483236058467345</v>
       </c>
       <c r="C796" t="n">
-        <v>1.620992895607045e-07</v>
+        <v>1.63042980263591e-07</v>
       </c>
     </row>
     <row r="797">
@@ -9131,7 +9131,7 @@
         <v>4.484153265950209</v>
       </c>
       <c r="C797" t="n">
-        <v>1.620157466552638e-07</v>
+        <v>1.630354261719079e-07</v>
       </c>
     </row>
     <row r="798">
@@ -9142,7 +9142,7 @@
         <v>4.485070473433074</v>
       </c>
       <c r="C798" t="n">
-        <v>1.622149135644423e-07</v>
+        <v>1.63305315996836e-07</v>
       </c>
     </row>
     <row r="799">
@@ -9153,7 +9153,7 @@
         <v>4.485987680915938</v>
       </c>
       <c r="C799" t="n">
-        <v>1.627423004777404e-07</v>
+        <v>1.638964862069052e-07</v>
       </c>
     </row>
     <row r="800">
@@ -9164,7 +9164,7 @@
         <v>4.486904888398804</v>
       </c>
       <c r="C800" t="n">
-        <v>1.636434175846614e-07</v>
+        <v>1.648527732706489e-07</v>
       </c>
     </row>
     <row r="801">
@@ -9175,7 +9175,7 @@
         <v>4.487822095881668</v>
       </c>
       <c r="C801" t="n">
-        <v>1.649637750747031e-07</v>
+        <v>1.662180136565945e-07</v>
       </c>
     </row>
     <row r="802">
@@ -9186,7 +9186,7 @@
         <v>4.488739303364533</v>
       </c>
       <c r="C802" t="n">
-        <v>1.667488831373699e-07</v>
+        <v>1.680360438332762e-07</v>
       </c>
     </row>
     <row r="803">
@@ -9197,7 +9197,7 @@
         <v>4.489656510847398</v>
       </c>
       <c r="C803" t="n">
-        <v>1.69044251962162e-07</v>
+        <v>1.70350700269224e-07</v>
       </c>
     </row>
     <row r="804">
@@ -9208,7 +9208,7 @@
         <v>4.490573718330263</v>
       </c>
       <c r="C804" t="n">
-        <v>1.718953917385808e-07</v>
+        <v>1.732058194329691e-07</v>
       </c>
     </row>
     <row r="805">
@@ -9219,7 +9219,7 @@
         <v>4.491490925813128</v>
       </c>
       <c r="C805" t="n">
-        <v>1.753478126561274e-07</v>
+        <v>1.766452377930425e-07</v>
       </c>
     </row>
     <row r="806">
@@ -9230,7 +9230,7 @@
         <v>4.492408133295993</v>
       </c>
       <c r="C806" t="n">
-        <v>1.794470249043032e-07</v>
+        <v>1.807127918179752e-07</v>
       </c>
     </row>
     <row r="807">
@@ -9241,7 +9241,7 @@
         <v>4.493325340778858</v>
       </c>
       <c r="C807" t="n">
-        <v>1.842385386726094e-07</v>
+        <v>1.854523179762983e-07</v>
       </c>
     </row>
     <row r="808">
@@ -9252,7 +9252,7 @@
         <v>4.494242548261723</v>
       </c>
       <c r="C808" t="n">
-        <v>1.897678641505472e-07</v>
+        <v>1.909076527365428e-07</v>
       </c>
     </row>
     <row r="809">
@@ -9263,7 +9263,7 @@
         <v>4.495159755744588</v>
       </c>
       <c r="C809" t="n">
-        <v>1.96080511527618e-07</v>
+        <v>1.971226325672398e-07</v>
       </c>
     </row>
     <row r="810">
@@ -9274,7 +9274,7 @@
         <v>4.496076963227453</v>
       </c>
       <c r="C810" t="n">
-        <v>2.032219909933231e-07</v>
+        <v>2.041410939369204e-07</v>
       </c>
     </row>
     <row r="811">
@@ -9285,7 +9285,7 @@
         <v>4.496994170710318</v>
       </c>
       <c r="C811" t="n">
-        <v>2.112378127371637e-07</v>
+        <v>2.120068733141157e-07</v>
       </c>
     </row>
     <row r="812">
@@ -9296,7 +9296,7 @@
         <v>4.497911378193183</v>
       </c>
       <c r="C812" t="n">
-        <v>2.20173486948641e-07</v>
+        <v>2.207638071673567e-07</v>
       </c>
     </row>
     <row r="813">
@@ -9307,7 +9307,7 @@
         <v>4.498828585676048</v>
       </c>
       <c r="C813" t="n">
-        <v>2.300745238172563e-07</v>
+        <v>2.304557319651743e-07</v>
       </c>
     </row>
     <row r="814">
@@ -9318,7 +9318,7 @@
         <v>4.499745793158913</v>
       </c>
       <c r="C814" t="n">
-        <v>2.409864335325109e-07</v>
+        <v>2.411264841760998e-07</v>
       </c>
     </row>
     <row r="815">
@@ -9329,7 +9329,7 @@
         <v>4.500663000641778</v>
       </c>
       <c r="C815" t="n">
-        <v>2.529470308569236e-07</v>
+        <v>2.528133885133079e-07</v>
       </c>
     </row>
     <row r="816">
@@ -9340,7 +9340,7 @@
         <v>4.501580208124643</v>
       </c>
       <c r="C816" t="n">
-        <v>2.659094170126629e-07</v>
+        <v>2.654820863576035e-07</v>
       </c>
     </row>
     <row r="817">
@@ -9351,7 +9351,7 @@
         <v>4.502497415607507</v>
       </c>
       <c r="C817" t="n">
-        <v>2.7977421154994e-07</v>
+        <v>2.790538098829664e-07</v>
       </c>
     </row>
     <row r="818">
@@ -9362,7 +9362,7 @@
         <v>4.503414623090372</v>
       </c>
       <c r="C818" t="n">
-        <v>2.944412519355715e-07</v>
+        <v>2.934491294760912e-07</v>
       </c>
     </row>
     <row r="819">
@@ -9373,7 +9373,7 @@
         <v>4.504331830573237</v>
       </c>
       <c r="C819" t="n">
-        <v>3.098103756363747e-07</v>
+        <v>3.085886155236729e-07</v>
       </c>
     </row>
     <row r="820">
@@ -9384,7 +9384,7 @@
         <v>4.505249038056102</v>
       </c>
       <c r="C820" t="n">
-        <v>3.257814201191662e-07</v>
+        <v>3.243928384124061e-07</v>
       </c>
     </row>
     <row r="821">
@@ -9395,7 +9395,7 @@
         <v>4.506166245538967</v>
       </c>
       <c r="C821" t="n">
-        <v>3.422542228507631e-07</v>
+        <v>3.407823685289859e-07</v>
       </c>
     </row>
     <row r="822">
@@ -9406,7 +9406,7 @@
         <v>4.507083453021832</v>
       </c>
       <c r="C822" t="n">
-        <v>3.591286212979823e-07</v>
+        <v>3.576777762601067e-07</v>
       </c>
     </row>
     <row r="823">
@@ -9417,7 +9417,7 @@
         <v>4.508000660504697</v>
       </c>
       <c r="C823" t="n">
-        <v>3.763044529276407e-07</v>
+        <v>3.749996319924635e-07</v>
       </c>
     </row>
     <row r="824">
@@ -9428,7 +9428,7 @@
         <v>4.508917867987562</v>
       </c>
       <c r="C824" t="n">
-        <v>3.936815552065551e-07</v>
+        <v>3.926685061127508e-07</v>
       </c>
     </row>
     <row r="825">
@@ -9439,7 +9439,7 @@
         <v>4.509835075470427</v>
       </c>
       <c r="C825" t="n">
-        <v>4.111519221139122e-07</v>
+        <v>4.105926962867713e-07</v>
       </c>
     </row>
     <row r="826">
@@ -9450,7 +9450,7 @@
         <v>4.510752282953292</v>
       </c>
       <c r="C826" t="n">
-        <v>4.285452570740719e-07</v>
+        <v>4.285830340237347e-07</v>
       </c>
     </row>
     <row r="827">
@@ -9461,7 +9461,7 @@
         <v>4.511669490436157</v>
       </c>
       <c r="C827" t="n">
-        <v>4.456615588745662e-07</v>
+        <v>4.464038719277803e-07</v>
       </c>
     </row>
     <row r="828">
@@ -9472,7 +9472,7 @@
         <v>4.512586697919022</v>
       </c>
       <c r="C828" t="n">
-        <v>4.623006433644401e-07</v>
+        <v>4.638192763588277e-07</v>
       </c>
     </row>
     <row r="829">
@@ -9483,7 +9483,7 @@
         <v>4.513503905401887</v>
       </c>
       <c r="C829" t="n">
-        <v>4.782623263927388e-07</v>
+        <v>4.805933136767972e-07</v>
       </c>
     </row>
     <row r="830">
@@ -9494,7 +9494,7 @@
         <v>4.514421112884752</v>
       </c>
       <c r="C830" t="n">
-        <v>4.933464238085073e-07</v>
+        <v>4.964900502416089e-07</v>
       </c>
     </row>
     <row r="831">
@@ -9505,7 +9505,7 @@
         <v>4.515338320367617</v>
       </c>
       <c r="C831" t="n">
-        <v>5.073527514607904e-07</v>
+        <v>5.112735524131825e-07</v>
       </c>
     </row>
     <row r="832">
@@ -9516,7 +9516,7 @@
         <v>4.516255527850482</v>
       </c>
       <c r="C832" t="n">
-        <v>5.200811251986335e-07</v>
+        <v>5.247078865514381e-07</v>
       </c>
     </row>
     <row r="833">
@@ -9527,7 +9527,7 @@
         <v>4.517172735333347</v>
       </c>
       <c r="C833" t="n">
-        <v>5.313313608710814e-07</v>
+        <v>5.365571190162958e-07</v>
       </c>
     </row>
     <row r="834">
@@ -9538,7 +9538,7 @@
         <v>4.518089942816211</v>
       </c>
       <c r="C834" t="n">
-        <v>5.409032743271707e-07</v>
+        <v>5.465853161676667e-07</v>
       </c>
     </row>
     <row r="835">
@@ -9549,7 +9549,7 @@
         <v>4.519007150299077</v>
       </c>
       <c r="C835" t="n">
-        <v>5.485966814159718e-07</v>
+        <v>5.545565443654969e-07</v>
       </c>
     </row>
     <row r="836">
@@ -9560,7 +9560,7 @@
         <v>4.519924357781941</v>
       </c>
       <c r="C836" t="n">
-        <v>5.542113979865002e-07</v>
+        <v>5.602348699696762e-07</v>
       </c>
     </row>
     <row r="837">
@@ -9571,7 +9571,7 @@
         <v>4.520841565264806</v>
       </c>
       <c r="C837" t="n">
-        <v>5.57547239887822e-07</v>
+        <v>5.63384359340146e-07</v>
       </c>
     </row>
     <row r="838">
@@ -9582,7 +9582,7 @@
         <v>4.52175877274767</v>
       </c>
       <c r="C838" t="n">
-        <v>5.584040229689701e-07</v>
+        <v>5.637690788368145e-07</v>
       </c>
     </row>
     <row r="839">
@@ -9593,7 +9593,7 @@
         <v>4.522675980230535</v>
       </c>
       <c r="C839" t="n">
-        <v>5.566308177482009e-07</v>
+        <v>5.612161407032253e-07</v>
       </c>
     </row>
     <row r="840">
@@ -9604,7 +9604,7 @@
         <v>4.5235931877134</v>
       </c>
       <c r="C840" t="n">
-        <v>5.523816837100158e-07</v>
+        <v>5.559430424840757e-07</v>
       </c>
     </row>
     <row r="841">
@@ -9615,7 +9615,7 @@
         <v>4.524510395196265</v>
       </c>
       <c r="C841" t="n">
-        <v>5.459272722103351e-07</v>
+        <v>5.483165190994205e-07</v>
       </c>
     </row>
     <row r="842">
@@ -9626,7 +9626,7 @@
         <v>4.52542760267913</v>
       </c>
       <c r="C842" t="n">
-        <v>5.375384687436054e-07</v>
+        <v>5.387036051661847e-07</v>
       </c>
     </row>
     <row r="843">
@@ -9637,7 +9637,7 @@
         <v>4.526344810161995</v>
       </c>
       <c r="C843" t="n">
-        <v>5.274861588042721e-07</v>
+        <v>5.274713353012937e-07</v>
       </c>
     </row>
     <row r="844">
@@ -9648,7 +9648,7 @@
         <v>4.52726201764486</v>
       </c>
       <c r="C844" t="n">
-        <v>5.160412278867818e-07</v>
+        <v>5.14986744121673e-07</v>
       </c>
     </row>
     <row r="845">
@@ -9659,7 +9659,7 @@
         <v>4.528179225127725</v>
       </c>
       <c r="C845" t="n">
-        <v>5.034745614855807e-07</v>
+        <v>5.016168662442483e-07</v>
       </c>
     </row>
     <row r="846">
@@ -9670,7 +9670,7 @@
         <v>4.52909643261059</v>
       </c>
       <c r="C846" t="n">
-        <v>4.900570450951146e-07</v>
+        <v>4.877287362859447e-07</v>
       </c>
     </row>
     <row r="847">
@@ -9681,7 +9681,7 @@
         <v>4.530013640093455</v>
       </c>
       <c r="C847" t="n">
-        <v>4.760595642098298e-07</v>
+        <v>4.736893888636876e-07</v>
       </c>
     </row>
     <row r="848">
@@ -9692,7 +9692,7 @@
         <v>4.53093084757632</v>
       </c>
       <c r="C848" t="n">
-        <v>4.61750981454053e-07</v>
+        <v>4.598580988751e-07</v>
       </c>
     </row>
     <row r="849">
@@ -9703,7 +9703,7 @@
         <v>4.531848055059185</v>
       </c>
       <c r="C849" t="n">
-        <v>4.473562800188319e-07</v>
+        <v>4.464258199389575e-07</v>
       </c>
     </row>
     <row r="850">
@@ -9714,7 +9714,7 @@
         <v>4.53276526254205</v>
       </c>
       <c r="C850" t="n">
-        <v>4.330579854868892e-07</v>
+        <v>4.334206385083531e-07</v>
       </c>
     </row>
     <row r="851">
@@ -9725,7 +9725,7 @@
         <v>4.533682470024915</v>
       </c>
       <c r="C851" t="n">
-        <v>4.19036885032545e-07</v>
+        <v>4.208639725107488e-07</v>
       </c>
     </row>
     <row r="852">
@@ -9736,7 +9736,7 @@
         <v>4.53459967750778</v>
       </c>
       <c r="C852" t="n">
-        <v>4.054737658301192e-07</v>
+        <v>4.08777239873606e-07</v>
       </c>
     </row>
     <row r="853">
@@ -9747,7 +9747,7 @@
         <v>4.535516884990645</v>
       </c>
       <c r="C853" t="n">
-        <v>3.925494150539321e-07</v>
+        <v>3.971818585243866e-07</v>
       </c>
     </row>
     <row r="854">
@@ -9758,7 +9758,7 @@
         <v>4.53643409247351</v>
       </c>
       <c r="C854" t="n">
-        <v>3.804446198783036e-07</v>
+        <v>3.860992463905522e-07</v>
       </c>
     </row>
     <row r="855">
@@ -9769,7 +9769,7 @@
         <v>4.537351299956375</v>
       </c>
       <c r="C855" t="n">
-        <v>3.693401674775538e-07</v>
+        <v>3.755508213995647e-07</v>
       </c>
     </row>
     <row r="856">
@@ -9780,7 +9780,7 @@
         <v>4.538268507439239</v>
       </c>
       <c r="C856" t="n">
-        <v>3.594168450260028e-07</v>
+        <v>3.655580014788856e-07</v>
       </c>
     </row>
     <row r="857">
@@ -9791,7 +9791,7 @@
         <v>4.539185714922104</v>
       </c>
       <c r="C857" t="n">
-        <v>3.508550979404878e-07</v>
+        <v>3.561421915141759e-07</v>
       </c>
     </row>
     <row r="858">
@@ -9802,7 +9802,7 @@
         <v>4.540102922404969</v>
       </c>
       <c r="C858" t="n">
-        <v>3.437239574974051e-07</v>
+        <v>3.473205447182227e-07</v>
       </c>
     </row>
     <row r="859">
@@ -9813,7 +9813,7 @@
         <v>4.541020129887834</v>
       </c>
       <c r="C859" t="n">
-        <v>3.378212959450042e-07</v>
+        <v>3.390998666093462e-07</v>
       </c>
     </row>
     <row r="860">
@@ -9824,7 +9824,7 @@
         <v>4.541937337370699</v>
       </c>
       <c r="C860" t="n">
-        <v>3.329045203663208e-07</v>
+        <v>3.314854185154741e-07</v>
       </c>
     </row>
     <row r="861">
@@ -9835,7 +9835,7 @@
         <v>4.542854544853564</v>
       </c>
       <c r="C861" t="n">
-        <v>3.287310378443902e-07</v>
+        <v>3.24482461764534e-07</v>
       </c>
     </row>
     <row r="862">
@@ -9846,7 +9846,7 @@
         <v>4.543771752336429</v>
       </c>
       <c r="C862" t="n">
-        <v>3.250582554622477e-07</v>
+        <v>3.180962576844536e-07</v>
       </c>
     </row>
     <row r="863">
@@ -9857,7 +9857,7 @@
         <v>4.544688959819294</v>
       </c>
       <c r="C863" t="n">
-        <v>3.216435803029287e-07</v>
+        <v>3.123320676031604e-07</v>
       </c>
     </row>
     <row r="864">
@@ -9868,7 +9868,7 @@
         <v>4.545606167302159</v>
       </c>
       <c r="C864" t="n">
-        <v>3.182444194494684e-07</v>
+        <v>3.071951528485821e-07</v>
       </c>
     </row>
     <row r="865">
@@ -9879,7 +9879,7 @@
         <v>4.546523374785024</v>
       </c>
       <c r="C865" t="n">
-        <v>3.14654940603518e-07</v>
+        <v>3.026915706250451e-07</v>
       </c>
     </row>
     <row r="866">
@@ -9890,7 +9890,7 @@
         <v>4.547440582267889</v>
       </c>
       <c r="C866" t="n">
-        <v>3.109518240156311e-07</v>
+        <v>2.988334946027716e-07</v>
       </c>
     </row>
     <row r="867">
@@ -9901,7 +9901,7 @@
         <v>4.548357789750754</v>
       </c>
       <c r="C867" t="n">
-        <v>3.073427378757481e-07</v>
+        <v>2.956359343729618e-07</v>
       </c>
     </row>
     <row r="868">
@@ -9912,7 +9912,7 @@
         <v>4.549274997233619</v>
       </c>
       <c r="C868" t="n">
-        <v>3.040360677664009e-07</v>
+        <v>2.931139150585409e-07</v>
       </c>
     </row>
     <row r="869">
@@ -9923,7 +9923,7 @@
         <v>4.550192204716484</v>
       </c>
       <c r="C869" t="n">
-        <v>3.01240199270121e-07</v>
+        <v>2.912824617824344e-07</v>
       </c>
     </row>
     <row r="870">
@@ -9934,7 +9934,7 @@
         <v>4.551109412199349</v>
       </c>
       <c r="C870" t="n">
-        <v>2.991635179694405e-07</v>
+        <v>2.90156599667568e-07</v>
       </c>
     </row>
     <row r="871">
@@ -9945,7 +9945,7 @@
         <v>4.552026619682213</v>
       </c>
       <c r="C871" t="n">
-        <v>2.980113332406874e-07</v>
+        <v>2.897517857207425e-07</v>
       </c>
     </row>
     <row r="872">
@@ -9956,7 +9956,7 @@
         <v>4.552943827165079</v>
       </c>
       <c r="C872" t="n">
-        <v>2.978904757777704e-07</v>
+        <v>2.900973028603609e-07</v>
       </c>
     </row>
     <row r="873">
@@ -9967,7 +9967,7 @@
         <v>4.553861034647943</v>
       </c>
       <c r="C873" t="n">
-        <v>2.987908748286489e-07</v>
+        <v>2.912388463797478e-07</v>
       </c>
     </row>
     <row r="874">
@@ -9978,7 +9978,7 @@
         <v>4.554778242130809</v>
       </c>
       <c r="C874" t="n">
-        <v>3.006956648807141e-07</v>
+        <v>2.932230655224362e-07</v>
       </c>
     </row>
     <row r="875">
@@ -9989,7 +9989,7 @@
         <v>4.555695449613673</v>
       </c>
       <c r="C875" t="n">
-        <v>3.035879804213469e-07</v>
+        <v>2.960966095319468e-07</v>
       </c>
     </row>
     <row r="876">
@@ -10000,7 +10000,7 @@
         <v>4.556612657096538</v>
       </c>
       <c r="C876" t="n">
-        <v>3.074509559379417e-07</v>
+        <v>2.99906127651815e-07</v>
       </c>
     </row>
     <row r="877">
@@ -10011,7 +10011,7 @@
         <v>4.557529864579402</v>
       </c>
       <c r="C877" t="n">
-        <v>3.122677259178843e-07</v>
+        <v>3.046982691255669e-07</v>
       </c>
     </row>
     <row r="878">
@@ -10022,7 +10022,7 @@
         <v>4.558447072062267</v>
       </c>
       <c r="C878" t="n">
-        <v>3.180214248485624e-07</v>
+        <v>3.105196831967308e-07</v>
       </c>
     </row>
     <row r="879">
@@ -10033,7 +10033,7 @@
         <v>4.559364279545132</v>
       </c>
       <c r="C879" t="n">
-        <v>3.246940217900017e-07</v>
+        <v>3.174138736458966e-07</v>
       </c>
     </row>
     <row r="880">
@@ -10044,7 +10044,7 @@
         <v>4.560281487027997</v>
       </c>
       <c r="C880" t="n">
-        <v>3.322397028074811e-07</v>
+        <v>3.253493585590274e-07</v>
       </c>
     </row>
     <row r="881">
@@ -10055,7 +10055,7 @@
         <v>4.561198694510862</v>
       </c>
       <c r="C881" t="n">
-        <v>3.405843164296844e-07</v>
+        <v>3.34218173631151e-07</v>
       </c>
     </row>
     <row r="882">
@@ -10066,7 +10066,7 @@
         <v>4.562115901993727</v>
       </c>
       <c r="C882" t="n">
-        <v>3.496524348359833e-07</v>
+        <v>3.439089097184418e-07</v>
       </c>
     </row>
     <row r="883">
@@ -10077,7 +10077,7 @@
         <v>4.563033109476592</v>
       </c>
       <c r="C883" t="n">
-        <v>3.593686302057501e-07</v>
+        <v>3.54310157677075e-07</v>
       </c>
     </row>
     <row r="884">
@@ -10088,7 +10088,7 @@
         <v>4.563950316959457</v>
       </c>
       <c r="C884" t="n">
-        <v>3.696574747183566e-07</v>
+        <v>3.653105083632255e-07</v>
       </c>
     </row>
     <row r="885">
@@ -10099,7 +10099,7 @@
         <v>4.564867524442322</v>
       </c>
       <c r="C885" t="n">
-        <v>3.804435405531745e-07</v>
+        <v>3.767985526330681e-07</v>
       </c>
     </row>
     <row r="886">
@@ -10110,7 +10110,7 @@
         <v>4.565784731925187</v>
       </c>
       <c r="C886" t="n">
-        <v>3.91651399889576e-07</v>
+        <v>3.886628813427777e-07</v>
       </c>
     </row>
     <row r="887">
@@ -10121,7 +10121,7 @@
         <v>4.566701939408052</v>
       </c>
       <c r="C887" t="n">
-        <v>4.032056249069329e-07</v>
+        <v>4.00792085348529e-07</v>
       </c>
     </row>
     <row r="888">
@@ -10132,7 +10132,7 @@
         <v>4.567619146890917</v>
       </c>
       <c r="C888" t="n">
-        <v>4.150322920448793e-07</v>
+        <v>4.130807644372451e-07</v>
       </c>
     </row>
     <row r="889">
@@ -10143,7 +10143,7 @@
         <v>4.568536354373782</v>
       </c>
       <c r="C889" t="n">
-        <v>4.270684876283845e-07</v>
+        <v>4.254674985767938e-07</v>
       </c>
     </row>
     <row r="890">
@@ -10154,7 +10154,7 @@
         <v>4.569453561856647</v>
       </c>
       <c r="C890" t="n">
-        <v>4.392561908774672e-07</v>
+        <v>4.379104129349304e-07</v>
       </c>
     </row>
     <row r="891">
@@ -10165,7 +10165,7 @@
         <v>4.570370769339512</v>
       </c>
       <c r="C891" t="n">
-        <v>4.515374032107385e-07</v>
+        <v>4.503677213540944e-07</v>
       </c>
     </row>
     <row r="892">
@@ -10176,7 +10176,7 @@
         <v>4.571287976822377</v>
       </c>
       <c r="C892" t="n">
-        <v>4.638541260468086e-07</v>
+        <v>4.627976376767239e-07</v>
       </c>
     </row>
     <row r="893">
@@ -10187,7 +10187,7 @@
         <v>4.572205184305242</v>
       </c>
       <c r="C893" t="n">
-        <v>4.761483608042885e-07</v>
+        <v>4.751583757452586e-07</v>
       </c>
     </row>
     <row r="894">
@@ -10198,7 +10198,7 @@
         <v>4.573122391788107</v>
       </c>
       <c r="C894" t="n">
-        <v>4.883621089017891e-07</v>
+        <v>4.874081494021369e-07</v>
       </c>
     </row>
     <row r="895">
@@ -10209,7 +10209,7 @@
         <v>4.574039599270971</v>
       </c>
       <c r="C895" t="n">
-        <v>5.004373717579208e-07</v>
+        <v>4.99505172489798e-07</v>
       </c>
     </row>
     <row r="896">
@@ -10220,7 +10220,7 @@
         <v>4.574956806753836</v>
       </c>
       <c r="C896" t="n">
-        <v>5.123161507912947e-07</v>
+        <v>5.114076588506808e-07</v>
       </c>
     </row>
     <row r="897">
@@ -10231,7 +10231,7 @@
         <v>4.575874014236701</v>
       </c>
       <c r="C897" t="n">
-        <v>5.239393929451014e-07</v>
+        <v>5.230727055745081e-07</v>
       </c>
     </row>
     <row r="898">
@@ -10242,7 +10242,7 @@
         <v>4.576791221719566</v>
       </c>
       <c r="C898" t="n">
-        <v>5.351450971178394e-07</v>
+        <v>5.343483815969301e-07</v>
       </c>
     </row>
     <row r="899">
@@ -10253,7 +10253,7 @@
         <v>4.577708429202431</v>
       </c>
       <c r="C899" t="n">
-        <v>5.455833703100475e-07</v>
+        <v>5.448837670640515e-07</v>
       </c>
     </row>
     <row r="900">
@@ -10264,7 +10264,7 @@
         <v>4.578625636685296</v>
       </c>
       <c r="C900" t="n">
-        <v>5.548843235439337e-07</v>
+        <v>5.543067651815804e-07</v>
       </c>
     </row>
     <row r="901">
@@ -10275,7 +10275,7 @@
         <v>4.579542844168161</v>
       </c>
       <c r="C901" t="n">
-        <v>5.626780678417062e-07</v>
+        <v>5.622452791552251e-07</v>
       </c>
     </row>
     <row r="902">
@@ -10286,7 +10286,7 @@
         <v>4.580460051651026</v>
       </c>
       <c r="C902" t="n">
-        <v>5.685947142255715e-07</v>
+        <v>5.683272121906931e-07</v>
       </c>
     </row>
     <row r="903">
@@ -10297,7 +10297,7 @@
         <v>4.581377259133891</v>
       </c>
       <c r="C903" t="n">
-        <v>5.722643737177381e-07</v>
+        <v>5.72180467493693e-07</v>
       </c>
     </row>
     <row r="904">
@@ -10308,7 +10308,7 @@
         <v>4.582294466616756</v>
       </c>
       <c r="C904" t="n">
-        <v>5.733171573404134e-07</v>
+        <v>5.734329482699331e-07</v>
       </c>
     </row>
     <row r="905">
@@ -10319,7 +10319,7 @@
         <v>4.583211674099621</v>
       </c>
       <c r="C905" t="n">
-        <v>5.713831761158051e-07</v>
+        <v>5.71712557725121e-07</v>
       </c>
     </row>
     <row r="906">
@@ -10330,7 +10330,7 @@
         <v>4.584128881582486</v>
       </c>
       <c r="C906" t="n">
-        <v>5.660927215424338e-07</v>
+        <v>5.666473781120708e-07</v>
       </c>
     </row>
     <row r="907">
@@ -10341,7 +10341,7 @@
         <v>4.585046089065351</v>
       </c>
       <c r="C907" t="n">
-        <v>5.57235471394421e-07</v>
+        <v>5.580236157657952e-07</v>
       </c>
     </row>
     <row r="908">
@@ -10352,7 +10352,7 @@
         <v>4.585963296548215</v>
       </c>
       <c r="C908" t="n">
-        <v>5.450528892944497e-07</v>
+        <v>5.460756851395061e-07</v>
       </c>
     </row>
     <row r="909">
@@ -10363,7 +10363,7 @@
         <v>4.586880504031081</v>
       </c>
       <c r="C909" t="n">
-        <v>5.298659358849601e-07</v>
+        <v>5.311168681625486e-07</v>
       </c>
     </row>
     <row r="910">
@@ -10374,7 +10374,7 @@
         <v>4.587797711513945</v>
       </c>
       <c r="C910" t="n">
-        <v>5.119955718084913e-07</v>
+        <v>5.134604467643636e-07</v>
       </c>
     </row>
     <row r="911">
@@ -10385,7 +10385,7 @@
         <v>4.588714918996811</v>
       </c>
       <c r="C911" t="n">
-        <v>4.91762897948184e-07</v>
+        <v>4.934198428732191e-07</v>
       </c>
     </row>
     <row r="912">
@@ -10396,7 +10396,7 @@
         <v>4.589632126479675</v>
       </c>
       <c r="C912" t="n">
-        <v>4.699754190998713e-07</v>
+        <v>4.717940437598662e-07</v>
       </c>
     </row>
     <row r="913">
@@ -10407,7 +10407,7 @@
         <v>4.59054933396254</v>
       </c>
       <c r="C913" t="n">
-        <v>4.490160459429437e-07</v>
+        <v>4.509547265469326e-07</v>
       </c>
     </row>
     <row r="914">
@@ -10418,7 +10418,7 @@
         <v>4.591466541445405</v>
       </c>
       <c r="C914" t="n">
-        <v>4.315860675035503e-07</v>
+        <v>4.335913978130788e-07</v>
       </c>
     </row>
     <row r="915">
@@ -10429,7 +10429,7 @@
         <v>4.59238374892827</v>
       </c>
       <c r="C915" t="n">
-        <v>4.203867728078193e-07</v>
+        <v>4.223935641369452e-07</v>
       </c>
     </row>
     <row r="916">
@@ -10440,7 +10440,7 @@
         <v>4.593300956411134</v>
       </c>
       <c r="C916" t="n">
-        <v>4.181194304350976e-07</v>
+        <v>4.200507119251959e-07</v>
       </c>
     </row>
     <row r="917">
@@ -10451,7 +10451,7 @@
         <v>4.594218163893999</v>
       </c>
       <c r="C917" t="n">
-        <v>4.261170222797345e-07</v>
+        <v>4.279024307007043e-07</v>
       </c>
     </row>
     <row r="918">
@@ -10462,7 +10462,7 @@
         <v>4.595135371376864</v>
       </c>
       <c r="C918" t="n">
-        <v>4.406384171610592e-07</v>
+        <v>4.422823930954814e-07</v>
       </c>
     </row>
     <row r="919">
@@ -10473,7 +10473,7 @@
         <v>4.596052578859729</v>
       </c>
       <c r="C919" t="n">
-        <v>4.567665392702173e-07</v>
+        <v>4.583641318333602e-07</v>
       </c>
     </row>
     <row r="920">
@@ -10484,7 +10484,7 @@
         <v>4.596969786342594</v>
       </c>
       <c r="C920" t="n">
-        <v>4.69678466693973e-07</v>
+        <v>4.714115809120129e-07</v>
       </c>
     </row>
     <row r="921">
@@ -10495,7 +10495,7 @@
         <v>4.597886993825459</v>
       </c>
       <c r="C921" t="n">
-        <v>4.769969626608755e-07</v>
+        <v>4.790368836174936e-07</v>
       </c>
     </row>
     <row r="922">
@@ -10506,7 +10506,7 @@
         <v>4.598804201308324</v>
       </c>
       <c r="C922" t="n">
-        <v>4.789570447675186e-07</v>
+        <v>4.813603229247536e-07</v>
       </c>
     </row>
     <row r="923">
@@ -10517,7 +10517,7 @@
         <v>4.599721408791189</v>
       </c>
       <c r="C923" t="n">
-        <v>4.759212436948334e-07</v>
+        <v>4.786246126989335e-07</v>
       </c>
     </row>
     <row r="924">
@@ -10528,7 +10528,7 @@
         <v>4.600638616274054</v>
       </c>
       <c r="C924" t="n">
-        <v>4.682520901237512e-07</v>
+        <v>4.710724668051737e-07</v>
       </c>
     </row>
     <row r="925">
@@ -10539,7 +10539,7 @@
         <v>4.601555823756919</v>
       </c>
       <c r="C925" t="n">
-        <v>4.563121666503524e-07</v>
+        <v>4.589466622367581e-07</v>
       </c>
     </row>
     <row r="926">
@@ -10550,7 +10550,7 @@
         <v>4.602473031239784</v>
       </c>
       <c r="C926" t="n">
-        <v>4.408199342181324e-07</v>
+        <v>4.429227194106344e-07</v>
       </c>
     </row>
     <row r="927">
@@ -10561,7 +10561,7 @@
         <v>4.603390238722649</v>
       </c>
       <c r="C927" t="n">
-        <v>4.236994792792691e-07</v>
+        <v>4.251421836201516e-07</v>
       </c>
     </row>
     <row r="928">
@@ -10572,7 +10572,7 @@
         <v>4.604307446205514</v>
       </c>
       <c r="C928" t="n">
-        <v>4.07129947413709e-07</v>
+        <v>4.080567487276543e-07</v>
       </c>
     </row>
     <row r="929">
@@ -10583,7 +10583,7 @@
         <v>4.605224653688379</v>
       </c>
       <c r="C929" t="n">
-        <v>3.932685426464074e-07</v>
+        <v>3.940930974457731e-07</v>
       </c>
     </row>
     <row r="930">
@@ -10594,7 +10594,7 @@
         <v>4.606141861171244</v>
       </c>
       <c r="C930" t="n">
-        <v>3.828000819141736e-07</v>
+        <v>3.839995403793825e-07</v>
       </c>
     </row>
     <row r="931">
@@ -10605,7 +10605,7 @@
         <v>4.607059068654109</v>
       </c>
       <c r="C931" t="n">
-        <v>3.740327215340163e-07</v>
+        <v>3.758152358146553e-07</v>
       </c>
     </row>
     <row r="932">
@@ -10616,7 +10616,7 @@
         <v>4.607976276136974</v>
       </c>
       <c r="C932" t="n">
-        <v>3.650587205981751e-07</v>
+        <v>3.673332410748366e-07</v>
       </c>
     </row>
     <row r="933">
@@ -10627,7 +10627,7 @@
         <v>4.608893483619839</v>
       </c>
       <c r="C933" t="n">
-        <v>3.540072542295484e-07</v>
+        <v>3.563938227750271e-07</v>
       </c>
     </row>
     <row r="934">
@@ -10638,7 +10638,7 @@
         <v>4.609810691102703</v>
       </c>
       <c r="C934" t="n">
-        <v>3.399091075340756e-07</v>
+        <v>3.419902525546889e-07</v>
       </c>
     </row>
     <row r="935">
@@ -10649,7 +10649,7 @@
         <v>4.610727898585568</v>
       </c>
       <c r="C935" t="n">
-        <v>3.227268688128482e-07</v>
+        <v>3.243074190339458e-07</v>
       </c>
     </row>
     <row r="936">
@@ -10660,7 +10660,7 @@
         <v>4.611645106068433</v>
       </c>
       <c r="C936" t="n">
-        <v>3.024660868068448e-07</v>
+        <v>3.035851475232969e-07</v>
       </c>
     </row>
     <row r="937">
@@ -10671,7 +10671,7 @@
         <v>4.612562313551298</v>
       </c>
       <c r="C937" t="n">
-        <v>2.792782230657654e-07</v>
+        <v>2.801568181266468e-07</v>
       </c>
     </row>
     <row r="938">
@@ -10682,7 +10682,7 @@
         <v>4.613479521034163</v>
       </c>
       <c r="C938" t="n">
-        <v>2.538477218729058e-07</v>
+        <v>2.546975430409723e-07</v>
       </c>
     </row>
     <row r="939">
@@ -10693,7 +10693,7 @@
         <v>4.614396728517028</v>
       </c>
       <c r="C939" t="n">
-        <v>2.269806883491234e-07</v>
+        <v>2.279604396406119e-07</v>
       </c>
     </row>
     <row r="940">
@@ -10704,7 +10704,7 @@
         <v>4.615313935999893</v>
       </c>
       <c r="C940" t="n">
-        <v>1.994832276152757e-07</v>
+        <v>2.006986252999041e-07</v>
       </c>
     </row>
     <row r="941">
@@ -10715,7 +10715,7 @@
         <v>4.616231143482758</v>
       </c>
       <c r="C941" t="n">
-        <v>1.7216144479222e-07</v>
+        <v>1.736652173931874e-07</v>
       </c>
     </row>
     <row r="942">
@@ -10726,7 +10726,7 @@
         <v>4.617148350965623</v>
       </c>
       <c r="C942" t="n">
-        <v>1.458214450008139e-07</v>
+        <v>1.476133332948002e-07</v>
       </c>
     </row>
     <row r="943">
@@ -10737,7 +10737,7 @@
         <v>4.618065558448488</v>
       </c>
       <c r="C943" t="n">
-        <v>1.212693333619147e-07</v>
+        <v>1.23296090379081e-07</v>
       </c>
     </row>
     <row r="944">
@@ -10748,7 +10748,7 @@
         <v>4.618982765931353</v>
       </c>
       <c r="C944" t="n">
-        <v>9.931121499637995e-08</v>
+        <v>1.014666060203684e-07</v>
       </c>
     </row>
     <row r="945">
@@ -10759,7 +10759,7 @@
         <v>4.619899973414217</v>
       </c>
       <c r="C945" t="n">
-        <v>8.075319502508315e-08</v>
+        <v>8.287799759301695e-08</v>
       </c>
     </row>
     <row r="946">
@@ -10770,7 +10770,7 @@
         <v>4.620817180897083</v>
       </c>
       <c r="C946" t="n">
-        <v>6.639003892023526e-08</v>
+        <v>6.827339035099892e-08</v>
       </c>
     </row>
     <row r="947">
@@ -10781,7 +10781,7 @@
         <v>4.621734388379947</v>
       </c>
       <c r="C947" t="n">
-        <v>5.622560449463077e-08</v>
+        <v>5.769898808511683e-08</v>
       </c>
     </row>
     <row r="948">
@@ -10792,7 +10792,7 @@
         <v>4.622651595862813</v>
       </c>
       <c r="C948" t="n">
-        <v>4.89696741614463e-08</v>
+        <v>5.006069848429036e-08</v>
       </c>
     </row>
     <row r="949">
@@ -10803,7 +10803,7 @@
         <v>4.623568803345677</v>
       </c>
       <c r="C949" t="n">
-        <v>4.322119441562179e-08</v>
+        <v>4.416522046898301e-08</v>
       </c>
     </row>
     <row r="950">
@@ -10814,7 +10814,7 @@
         <v>4.624486010828542</v>
       </c>
       <c r="C950" t="n">
-        <v>3.815084533739197e-08</v>
+        <v>3.922330296638507e-08</v>
       </c>
     </row>
     <row r="951">
@@ -10825,7 +10825,7 @@
         <v>4.625403218311407</v>
       </c>
       <c r="C951" t="n">
-        <v>3.383976337003816e-08</v>
+        <v>3.508912378226696e-08</v>
       </c>
     </row>
     <row r="952">
@@ -10836,7 +10836,7 @@
         <v>4.626320425794272</v>
       </c>
       <c r="C952" t="n">
-        <v>3.042804157875688e-08</v>
+        <v>3.167815541521162e-08</v>
       </c>
     </row>
     <row r="953">
@@ -10847,7 +10847,7 @@
         <v>4.627237633277137</v>
       </c>
       <c r="C953" t="n">
-        <v>2.789145740439452e-08</v>
+        <v>2.893458563341188e-08</v>
       </c>
     </row>
     <row r="954">
@@ -10858,7 +10858,7 @@
         <v>4.628154840760001</v>
       </c>
       <c r="C954" t="n">
-        <v>2.613224574439333e-08</v>
+        <v>2.681545426322602e-08</v>
       </c>
     </row>
     <row r="955">
@@ -10869,7 +10869,7 @@
         <v>4.629072048242866</v>
       </c>
       <c r="C955" t="n">
-        <v>2.5052296824723e-08</v>
+        <v>2.527786136468944e-08</v>
       </c>
     </row>
     <row r="956">
@@ -10880,7 +10880,7 @@
         <v>4.629989255725731</v>
       </c>
       <c r="C956" t="n">
-        <v>2.455350087135325e-08</v>
+        <v>2.427890699783756e-08</v>
       </c>
     </row>
     <row r="957">
@@ -10891,7 +10891,7 @@
         <v>4.630906463208596</v>
       </c>
       <c r="C957" t="n">
-        <v>2.453774811025378e-08</v>
+        <v>2.377569122270578e-08</v>
       </c>
     </row>
     <row r="958">
@@ -10902,7 +10902,7 @@
         <v>4.631823670691461</v>
       </c>
       <c r="C958" t="n">
-        <v>2.490698734557567e-08</v>
+        <v>2.372532285455718e-08</v>
       </c>
     </row>
     <row r="959">
@@ -10913,7 +10913,7 @@
         <v>4.632740878174326</v>
       </c>
       <c r="C959" t="n">
-        <v>2.558302538495938e-08</v>
+        <v>2.408787873084852e-08</v>
       </c>
     </row>
     <row r="960">
@@ -10924,7 +10924,7 @@
         <v>4.633658085657191</v>
       </c>
       <c r="C960" t="n">
-        <v>2.653634750477605e-08</v>
+        <v>2.483071128326326e-08</v>
       </c>
     </row>
     <row r="961">
@@ -10935,7 +10935,7 @@
         <v>4.634575293140056</v>
       </c>
       <c r="C961" t="n">
-        <v>2.774476125406987e-08</v>
+        <v>2.592226734694864e-08</v>
       </c>
     </row>
     <row r="962">
@@ -10946,7 +10946,7 @@
         <v>4.635492500622921</v>
       </c>
       <c r="C962" t="n">
-        <v>2.91860741818851e-08</v>
+        <v>2.733099375705187e-08</v>
       </c>
     </row>
     <row r="963">
@@ -10957,7 +10957,7 @@
         <v>4.636409708105786</v>
       </c>
       <c r="C963" t="n">
-        <v>3.083809383726596e-08</v>
+        <v>2.902533734872017e-08</v>
       </c>
     </row>
     <row r="964">
@@ -10968,7 +10968,7 @@
         <v>4.637326915588651</v>
       </c>
       <c r="C964" t="n">
-        <v>3.267862776925668e-08</v>
+        <v>3.097374495710078e-08</v>
       </c>
     </row>
     <row r="965">
@@ -10979,7 +10979,7 @@
         <v>4.638244123071516</v>
       </c>
       <c r="C965" t="n">
-        <v>3.468548352690148e-08</v>
+        <v>3.314466341734089e-08</v>
       </c>
     </row>
     <row r="966">
@@ -10990,7 +10990,7 @@
         <v>4.639161330554381</v>
       </c>
       <c r="C966" t="n">
-        <v>3.683646865924461e-08</v>
+        <v>3.550653956458774e-08</v>
       </c>
     </row>
     <row r="967">
@@ -11001,7 +11001,7 @@
         <v>4.640078538037246</v>
       </c>
       <c r="C967" t="n">
-        <v>3.910939071533029e-08</v>
+        <v>3.802782023398856e-08</v>
       </c>
     </row>
     <row r="968">
@@ -11012,7 +11012,7 @@
         <v>4.640995745520111</v>
       </c>
       <c r="C968" t="n">
-        <v>4.148205724420273e-08</v>
+        <v>4.067695226069053e-08</v>
       </c>
     </row>
     <row r="969">
@@ -11023,7 +11023,7 @@
         <v>4.641912953002976</v>
       </c>
       <c r="C969" t="n">
-        <v>4.393227579490619e-08</v>
+        <v>4.342238247984092e-08</v>
       </c>
     </row>
     <row r="970">
@@ -11034,7 +11034,7 @@
         <v>4.642830160485841</v>
       </c>
       <c r="C970" t="n">
-        <v>4.643785391648488e-08</v>
+        <v>4.623255772658691e-08</v>
       </c>
     </row>
     <row r="971">
@@ -11045,7 +11045,7 @@
         <v>4.643747367968706</v>
       </c>
       <c r="C971" t="n">
-        <v>4.897659915798303e-08</v>
+        <v>4.907592483607575e-08</v>
       </c>
     </row>
     <row r="972">
@@ -11056,7 +11056,7 @@
         <v>4.644664575451571</v>
       </c>
       <c r="C972" t="n">
-        <v>5.152631906844488e-08</v>
+        <v>5.192093064345464e-08</v>
       </c>
     </row>
     <row r="973">
@@ -11067,7 +11067,7 @@
         <v>4.645581782934435</v>
       </c>
       <c r="C973" t="n">
-        <v>5.406482119691465e-08</v>
+        <v>5.473602198387082e-08</v>
       </c>
     </row>
     <row r="974">
@@ -11078,7 +11078,7 @@
         <v>4.6464989904173</v>
       </c>
       <c r="C974" t="n">
-        <v>5.656991309243656e-08</v>
+        <v>5.748964569247149e-08</v>
       </c>
     </row>
     <row r="975">
@@ -11089,7 +11089,7 @@
         <v>4.647416197900165</v>
       </c>
       <c r="C975" t="n">
-        <v>5.901940230405485e-08</v>
+        <v>6.015024860440387e-08</v>
       </c>
     </row>
     <row r="976">
@@ -11100,7 +11100,7 @@
         <v>4.64833340538303</v>
       </c>
       <c r="C976" t="n">
-        <v>6.139109638081376e-08</v>
+        <v>6.26862775548152e-08</v>
       </c>
     </row>
     <row r="977">
@@ -11111,7 +11111,7 @@
         <v>4.649250612865895</v>
       </c>
       <c r="C977" t="n">
-        <v>6.366280287175752e-08</v>
+        <v>6.506617937885271e-08</v>
       </c>
     </row>
     <row r="978">
@@ -11122,7 +11122,7 @@
         <v>4.65016782034876</v>
       </c>
       <c r="C978" t="n">
-        <v>6.581258906217316e-08</v>
+        <v>6.725917315950991e-08</v>
       </c>
     </row>
     <row r="979">
@@ -11133,7 +11133,7 @@
         <v>4.651085027831625</v>
       </c>
       <c r="C979" t="n">
-        <v>6.78233910894185e-08</v>
+        <v>6.924895405167784e-08</v>
       </c>
     </row>
     <row r="980">
@@ -11144,7 +11144,7 @@
         <v>4.65200223531449</v>
       </c>
       <c r="C980" t="n">
-        <v>6.968246921830161e-08</v>
+        <v>7.103207370680054e-08</v>
       </c>
     </row>
     <row r="981">
@@ -11155,7 +11155,7 @@
         <v>4.652919442797355</v>
       </c>
       <c r="C981" t="n">
-        <v>7.137723402395623e-08</v>
+        <v>7.260553067901083e-08</v>
       </c>
     </row>
     <row r="982">
@@ -11166,7 +11166,7 @@
         <v>4.653836650280219</v>
       </c>
       <c r="C982" t="n">
-        <v>7.289509608151483e-08</v>
+        <v>7.39663235224404e-08</v>
       </c>
     </row>
     <row r="983">
@@ -11177,7 +11177,7 @@
         <v>4.654753857763085</v>
       </c>
       <c r="C983" t="n">
-        <v>7.422346596611528e-08</v>
+        <v>7.511145079122577e-08</v>
       </c>
     </row>
     <row r="984">
@@ -11188,7 +11188,7 @@
         <v>4.655671065245949</v>
       </c>
       <c r="C984" t="n">
-        <v>7.534975425288626e-08</v>
+        <v>7.603791103949532e-08</v>
       </c>
     </row>
     <row r="985">
@@ -11199,7 +11199,7 @@
         <v>4.656588272728815</v>
       </c>
       <c r="C985" t="n">
-        <v>7.626137151696595e-08</v>
+        <v>7.67427028213856e-08</v>
       </c>
     </row>
     <row r="986">
@@ -11210,7 +11210,7 @@
         <v>4.657505480211679</v>
       </c>
       <c r="C986" t="n">
-        <v>7.694572833348453e-08</v>
+        <v>7.72228246910267e-08</v>
       </c>
     </row>
     <row r="987">
@@ -11221,7 +11221,7 @@
         <v>4.658422687694544</v>
       </c>
       <c r="C987" t="n">
-        <v>7.739023527757819e-08</v>
+        <v>7.74752752025532e-08</v>
       </c>
     </row>
     <row r="988">
@@ -11232,7 +11232,7 @@
         <v>4.659339895177409</v>
       </c>
       <c r="C988" t="n">
-        <v>7.75823029243799e-08</v>
+        <v>7.749705291009743e-08</v>
       </c>
     </row>
     <row r="989">
@@ -11243,7 +11243,7 @@
         <v>4.660257102660274</v>
       </c>
       <c r="C989" t="n">
-        <v>7.750934184902348e-08</v>
+        <v>7.728515636779224e-08</v>
       </c>
     </row>
     <row r="990">
@@ -11254,7 +11254,7 @@
         <v>4.661174310143139</v>
       </c>
       <c r="C990" t="n">
-        <v>7.715876262664267e-08</v>
+        <v>7.683658412977052e-08</v>
       </c>
     </row>
     <row r="991">
@@ -11265,7 +11265,7 @@
         <v>4.662091517626004</v>
       </c>
       <c r="C991" t="n">
-        <v>7.651797583237131e-08</v>
+        <v>7.614833475016513e-08</v>
       </c>
     </row>
     <row r="992">
@@ -11276,7 +11276,7 @@
         <v>4.663008725108869</v>
       </c>
       <c r="C992" t="n">
-        <v>7.557439204134315e-08</v>
+        <v>7.521740678310893e-08</v>
       </c>
     </row>
     <row r="993">
@@ -11287,7 +11287,7 @@
         <v>4.663925932591733</v>
       </c>
       <c r="C993" t="n">
-        <v>7.431542182869202e-08</v>
+        <v>7.404079878273485e-08</v>
       </c>
     </row>
     <row r="994">
@@ -11298,7 +11298,7 @@
         <v>4.664843140074598</v>
       </c>
       <c r="C994" t="n">
-        <v>7.272847576955164e-08</v>
+        <v>7.261550930317566e-08</v>
       </c>
     </row>
     <row r="995">
@@ -11309,7 +11309,7 @@
         <v>4.665760347557463</v>
       </c>
       <c r="C995" t="n">
-        <v>7.080096443905585e-08</v>
+        <v>7.093853689856432e-08</v>
       </c>
     </row>
     <row r="996">
@@ -11320,7 +11320,7 @@
         <v>4.666677555040328</v>
       </c>
       <c r="C996" t="n">
-        <v>6.852029841233842e-08</v>
+        <v>6.900688012303367e-08</v>
       </c>
     </row>
     <row r="997">
@@ -11331,7 +11331,7 @@
         <v>4.667594762523193</v>
       </c>
       <c r="C997" t="n">
-        <v>6.587388826453314e-08</v>
+        <v>6.681753753071656e-08</v>
       </c>
     </row>
     <row r="998">
@@ -11342,7 +11342,7 @@
         <v>4.668511970006058</v>
       </c>
       <c r="C998" t="n">
-        <v>6.288353124842967e-08</v>
+        <v>6.438603914658993e-08</v>
       </c>
     </row>
     <row r="999">
@@ -11353,7 +11353,7 @@
         <v>4.669429177488923</v>
       </c>
       <c r="C999" t="n">
-        <v>6.000563151550523e-08</v>
+        <v>6.196213084958018e-08</v>
       </c>
     </row>
     <row r="1000">
@@ -11364,7 +11364,7 @@
         <v>4.670346384971788</v>
       </c>
       <c r="C1000" t="n">
-        <v>5.799447840559998e-08</v>
+        <v>5.995609309360997e-08</v>
       </c>
     </row>
     <row r="1001">
@@ -11375,7 +11375,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C1001" t="n">
-        <v>5.761017461582544e-08</v>
+        <v>5.878133923371745e-08</v>
       </c>
     </row>
   </sheetData>
